--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>15</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>970.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>969.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>18</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L14" t="n">
         <v>970.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>18</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>970.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>19</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>969.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>20</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20</v>
+      </c>
       <c r="L17" t="n">
         <v>969.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>22</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>969.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>26</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20</v>
+      </c>
       <c r="L19" t="n">
         <v>969.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>29</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20</v>
+      </c>
       <c r="L20" t="n">
         <v>968.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>29</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L21" t="n">
         <v>968.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>29</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>968.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="K23" t="n">
-        <v>-29.41176470588236</v>
+        <v>-62.5</v>
       </c>
       <c r="L23" t="n">
         <v>967.4</v>
@@ -1466,7 +1488,7 @@
         <v>39</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.555555555555555</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L24" t="n">
         <v>966.9</v>
@@ -1515,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.76470588235294</v>
+        <v>-20</v>
       </c>
       <c r="L25" t="n">
         <v>966.4</v>
@@ -1564,7 +1586,7 @@
         <v>43</v>
       </c>
       <c r="K26" t="n">
-        <v>-35.29411764705883</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L26" t="n">
         <v>965.6</v>
@@ -1613,7 +1635,7 @@
         <v>43</v>
       </c>
       <c r="K27" t="n">
-        <v>-33.33333333333333</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L27" t="n">
         <v>964.7</v>
@@ -1662,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="K28" t="n">
-        <v>-35.29411764705883</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L28" t="n">
         <v>963.5</v>
@@ -1711,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="K29" t="n">
-        <v>-35.29411764705883</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>962.7</v>
@@ -1760,7 +1782,7 @@
         <v>47</v>
       </c>
       <c r="K30" t="n">
-        <v>-22.22222222222222</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L30" t="n">
         <v>962.5</v>
@@ -1809,7 +1831,7 @@
         <v>47</v>
       </c>
       <c r="K31" t="n">
-        <v>-15.15151515151515</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L31" t="n">
         <v>962.3</v>
@@ -1860,7 +1882,7 @@
         <v>47</v>
       </c>
       <c r="K32" t="n">
-        <v>-12.5</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L32" t="n">
         <v>962.1</v>
@@ -1911,7 +1933,7 @@
         <v>47</v>
       </c>
       <c r="K33" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L33" t="n">
         <v>962.4</v>
@@ -1962,7 +1984,7 @@
         <v>49</v>
       </c>
       <c r="K34" t="n">
-        <v>-16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>962.4</v>
@@ -2013,7 +2035,7 @@
         <v>53</v>
       </c>
       <c r="K35" t="n">
-        <v>-25.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>962</v>
@@ -2064,7 +2086,7 @@
         <v>54</v>
       </c>
       <c r="K36" t="n">
-        <v>-25.71428571428571</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L36" t="n">
         <v>961.9</v>
@@ -2115,7 +2137,7 @@
         <v>56</v>
       </c>
       <c r="K37" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L37" t="n">
         <v>961.6</v>
@@ -2166,7 +2188,7 @@
         <v>62</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L38" t="n">
         <v>962</v>
@@ -2217,7 +2239,7 @@
         <v>62</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L39" t="n">
         <v>962.4</v>
@@ -2268,7 +2290,7 @@
         <v>66</v>
       </c>
       <c r="K40" t="n">
-        <v>-13.51351351351351</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L40" t="n">
         <v>962.1</v>
@@ -2319,7 +2341,7 @@
         <v>68</v>
       </c>
       <c r="K41" t="n">
-        <v>-17.94871794871795</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L41" t="n">
         <v>961.6</v>
@@ -2370,7 +2392,7 @@
         <v>69</v>
       </c>
       <c r="K42" t="n">
-        <v>-15</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L42" t="n">
         <v>961.2</v>
@@ -2421,7 +2443,7 @@
         <v>73</v>
       </c>
       <c r="K43" t="n">
-        <v>7.692307692307693</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L43" t="n">
         <v>961.2</v>
@@ -2472,7 +2494,7 @@
         <v>74</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.857142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>961.1</v>
@@ -2523,7 +2545,7 @@
         <v>75</v>
       </c>
       <c r="K45" t="n">
-        <v>-5.555555555555555</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>961.3</v>
@@ -2574,7 +2596,7 @@
         <v>78</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.857142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L46" t="n">
         <v>961.3</v>
@@ -2625,7 +2647,7 @@
         <v>79</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L47" t="n">
         <v>961.6</v>
@@ -2676,7 +2698,7 @@
         <v>80</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L48" t="n">
         <v>961.2</v>
@@ -2727,7 +2749,7 @@
         <v>81</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.702702702702703</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L49" t="n">
         <v>960.7</v>
@@ -2778,7 +2800,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.76470588235294</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L50" t="n">
         <v>960.6</v>
@@ -2829,7 +2851,7 @@
         <v>81</v>
       </c>
       <c r="K51" t="n">
-        <v>-11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>960.7</v>
@@ -2880,7 +2902,7 @@
         <v>81</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.76470588235294</v>
+        <v>-50</v>
       </c>
       <c r="L52" t="n">
         <v>960.7</v>
@@ -2931,7 +2953,7 @@
         <v>83</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.555555555555555</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>960.5</v>
@@ -2982,7 +3004,7 @@
         <v>83</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.76470588235294</v>
+        <v>-25</v>
       </c>
       <c r="L54" t="n">
         <v>960.2</v>
@@ -3033,7 +3055,7 @@
         <v>83</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>960</v>
@@ -3084,7 +3106,7 @@
         <v>83</v>
       </c>
       <c r="K56" t="n">
-        <v>3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>960.1</v>
@@ -3135,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="K57" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>960</v>
@@ -3186,7 +3208,7 @@
         <v>90</v>
       </c>
       <c r="K58" t="n">
-        <v>-35.71428571428572</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L58" t="n">
         <v>959.4</v>
@@ -3237,7 +3259,7 @@
         <v>96</v>
       </c>
       <c r="K59" t="n">
-        <v>-11.76470588235294</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L59" t="n">
         <v>959.5</v>
@@ -3288,7 +3310,7 @@
         <v>96</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L60" t="n">
         <v>959.6</v>
@@ -3339,7 +3361,7 @@
         <v>96</v>
       </c>
       <c r="K61" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>959.7</v>
@@ -3390,7 +3412,7 @@
         <v>96</v>
       </c>
       <c r="K62" t="n">
-        <v>3.703703703703703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L62" t="n">
         <v>959.8</v>
@@ -3492,7 +3514,7 @@
         <v>99</v>
       </c>
       <c r="K64" t="n">
-        <v>-20</v>
+        <v>-12.5</v>
       </c>
       <c r="L64" t="n">
         <v>959.3</v>
@@ -3543,7 +3565,7 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>-12</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L65" t="n">
         <v>959.2</v>
@@ -3594,7 +3616,7 @@
         <v>101</v>
       </c>
       <c r="K66" t="n">
-        <v>4.347826086956522</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L66" t="n">
         <v>959.2</v>
@@ -3645,7 +3667,7 @@
         <v>102</v>
       </c>
       <c r="K67" t="n">
-        <v>4.347826086956522</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>959.4</v>
@@ -3696,7 +3718,7 @@
         <v>102</v>
       </c>
       <c r="K68" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>960.2</v>
@@ -3747,7 +3769,7 @@
         <v>103</v>
       </c>
       <c r="K69" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>960.3</v>
@@ -3798,7 +3820,7 @@
         <v>103</v>
       </c>
       <c r="K70" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>960.4</v>
@@ -3849,7 +3871,7 @@
         <v>103</v>
       </c>
       <c r="K71" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L71" t="n">
         <v>960.5</v>
@@ -3900,7 +3922,7 @@
         <v>103</v>
       </c>
       <c r="K72" t="n">
-        <v>9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L72" t="n">
         <v>960.6</v>
@@ -3951,7 +3973,7 @@
         <v>103</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L73" t="n">
         <v>960.9</v>
@@ -4002,7 +4024,7 @@
         <v>104</v>
       </c>
       <c r="K74" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L74" t="n">
         <v>961.2</v>
@@ -4053,7 +4075,7 @@
         <v>104</v>
       </c>
       <c r="K75" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>961.4</v>
@@ -4104,7 +4126,7 @@
         <v>105</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>961.4</v>
@@ -4155,7 +4177,7 @@
         <v>105</v>
       </c>
       <c r="K77" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>961.3</v>
@@ -4206,7 +4228,7 @@
         <v>105</v>
       </c>
       <c r="K78" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>961.2</v>
@@ -4257,7 +4279,7 @@
         <v>106</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>961.1</v>
@@ -4308,7 +4330,7 @@
         <v>106</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>961</v>
@@ -4359,7 +4381,7 @@
         <v>106</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>960.9</v>
@@ -4410,7 +4432,7 @@
         <v>106</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>960.8</v>
@@ -4461,7 +4483,7 @@
         <v>107</v>
       </c>
       <c r="K83" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>960.8</v>
@@ -4512,7 +4534,7 @@
         <v>108</v>
       </c>
       <c r="K84" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>960.8</v>
@@ -4563,7 +4585,7 @@
         <v>108</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>960.8</v>
@@ -4614,7 +4636,7 @@
         <v>108</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>960.9</v>
@@ -4665,7 +4687,7 @@
         <v>108</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>961</v>
@@ -4716,7 +4738,7 @@
         <v>109</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
         <v>961.2</v>
@@ -4767,7 +4789,7 @@
         <v>112</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>961.2</v>
@@ -4818,7 +4840,7 @@
         <v>112</v>
       </c>
       <c r="K90" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>961.2</v>
@@ -4869,7 +4891,7 @@
         <v>112</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>961.2</v>
@@ -4920,7 +4942,7 @@
         <v>112</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>961.2</v>
@@ -4971,7 +4993,7 @@
         <v>112</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L93" t="n">
         <v>961.1</v>
@@ -5022,7 +5044,7 @@
         <v>112</v>
       </c>
       <c r="K94" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L94" t="n">
         <v>960.9</v>
@@ -5124,7 +5146,7 @@
         <v>116</v>
       </c>
       <c r="K96" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L96" t="n">
         <v>960.7</v>
@@ -5175,7 +5197,7 @@
         <v>118</v>
       </c>
       <c r="K97" t="n">
-        <v>-23.07692307692308</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L97" t="n">
         <v>960.3</v>
@@ -5226,7 +5248,7 @@
         <v>121</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L98" t="n">
         <v>960.1</v>
@@ -5277,7 +5299,7 @@
         <v>121</v>
       </c>
       <c r="K99" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L99" t="n">
         <v>960.2</v>
@@ -5328,7 +5350,7 @@
         <v>121</v>
       </c>
       <c r="K100" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L100" t="n">
         <v>960.3</v>
@@ -5379,7 +5401,7 @@
         <v>123</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L101" t="n">
         <v>960.2</v>
@@ -5430,7 +5452,7 @@
         <v>125</v>
       </c>
       <c r="K102" t="n">
-        <v>5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L102" t="n">
         <v>960.3</v>
@@ -5481,7 +5503,7 @@
         <v>126</v>
       </c>
       <c r="K103" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L103" t="n">
         <v>960.5</v>
@@ -5583,7 +5605,7 @@
         <v>128</v>
       </c>
       <c r="K105" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>960.5</v>
@@ -5634,7 +5656,7 @@
         <v>129</v>
       </c>
       <c r="K106" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L106" t="n">
         <v>960.4</v>
@@ -5685,7 +5707,7 @@
         <v>133</v>
       </c>
       <c r="K107" t="n">
-        <v>4</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L107" t="n">
         <v>960.9</v>
@@ -5736,7 +5758,7 @@
         <v>135</v>
       </c>
       <c r="K108" t="n">
-        <v>7.692307692307693</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L108" t="n">
         <v>961.3</v>
@@ -5787,7 +5809,7 @@
         <v>135</v>
       </c>
       <c r="K109" t="n">
-        <v>21.73913043478261</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L109" t="n">
         <v>961.7</v>
@@ -5838,7 +5860,7 @@
         <v>135</v>
       </c>
       <c r="K110" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="L110" t="n">
         <v>962.1</v>
@@ -5889,7 +5911,7 @@
         <v>139</v>
       </c>
       <c r="K111" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>962.3</v>
@@ -5940,7 +5962,7 @@
         <v>140</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L112" t="n">
         <v>962.2</v>
@@ -5991,7 +6013,7 @@
         <v>140</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>962</v>
@@ -6042,7 +6064,7 @@
         <v>143</v>
       </c>
       <c r="K114" t="n">
-        <v>9.67741935483871</v>
+        <v>20</v>
       </c>
       <c r="L114" t="n">
         <v>962.1</v>
@@ -6093,7 +6115,7 @@
         <v>146</v>
       </c>
       <c r="K115" t="n">
-        <v>-6.25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L115" t="n">
         <v>962.1</v>
@@ -6144,7 +6166,7 @@
         <v>148</v>
       </c>
       <c r="K116" t="n">
-        <v>-6.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>962</v>
@@ -6195,7 +6217,7 @@
         <v>148</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L117" t="n">
         <v>961.5</v>
@@ -6246,7 +6268,7 @@
         <v>149</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571428</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L118" t="n">
         <v>960.7</v>
@@ -6297,7 +6319,7 @@
         <v>149</v>
       </c>
       <c r="K119" t="n">
-        <v>-14.28571428571428</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L119" t="n">
         <v>959.9</v>
@@ -6348,7 +6370,7 @@
         <v>151</v>
       </c>
       <c r="K120" t="n">
-        <v>-6.666666666666667</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L120" t="n">
         <v>959.3</v>
@@ -6399,7 +6421,7 @@
         <v>154</v>
       </c>
       <c r="K121" t="n">
-        <v>9.67741935483871</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>959.4</v>
@@ -6450,7 +6472,7 @@
         <v>154</v>
       </c>
       <c r="K122" t="n">
-        <v>3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>959.6</v>
@@ -6501,7 +6523,7 @@
         <v>155</v>
       </c>
       <c r="K123" t="n">
-        <v>-3.448275862068965</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L123" t="n">
         <v>959.7</v>
@@ -6552,7 +6574,7 @@
         <v>156</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>959.6</v>
@@ -6603,7 +6625,7 @@
         <v>158</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
         <v>959.6</v>
@@ -6654,7 +6676,7 @@
         <v>159</v>
       </c>
       <c r="K126" t="n">
-        <v>6.666666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L126" t="n">
         <v>959.9</v>
@@ -6705,7 +6727,7 @@
         <v>159</v>
       </c>
       <c r="K127" t="n">
-        <v>-7.692307692307693</v>
+        <v>40</v>
       </c>
       <c r="L127" t="n">
         <v>960.2</v>
@@ -6756,7 +6778,7 @@
         <v>162</v>
       </c>
       <c r="K128" t="n">
-        <v>-25.92592592592592</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L128" t="n">
         <v>960.3</v>
@@ -6807,7 +6829,7 @@
         <v>162</v>
       </c>
       <c r="K129" t="n">
-        <v>-25.92592592592592</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L129" t="n">
         <v>960.4</v>
@@ -6858,7 +6880,7 @@
         <v>166</v>
       </c>
       <c r="K130" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>960.7</v>
@@ -6909,7 +6931,7 @@
         <v>167</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L131" t="n">
         <v>960.6</v>
@@ -6960,7 +6982,7 @@
         <v>167</v>
       </c>
       <c r="K132" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>960.5</v>
@@ -7011,7 +7033,7 @@
         <v>167</v>
       </c>
       <c r="K133" t="n">
-        <v>3.703703703703703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L133" t="n">
         <v>960.5</v>
@@ -7062,7 +7084,7 @@
         <v>167</v>
       </c>
       <c r="K134" t="n">
-        <v>-8.333333333333332</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>960.4</v>
@@ -7113,7 +7135,7 @@
         <v>167</v>
       </c>
       <c r="K135" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>960.5</v>
@@ -7164,7 +7186,7 @@
         <v>167</v>
       </c>
       <c r="K136" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>960.5</v>
@@ -7215,7 +7237,7 @@
         <v>167</v>
       </c>
       <c r="K137" t="n">
-        <v>15.78947368421053</v>
+        <v>60</v>
       </c>
       <c r="L137" t="n">
         <v>960.5</v>
@@ -7266,7 +7288,7 @@
         <v>168</v>
       </c>
       <c r="K138" t="n">
-        <v>26.31578947368421</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L138" t="n">
         <v>960.9</v>
@@ -7317,7 +7339,7 @@
         <v>168</v>
       </c>
       <c r="K139" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>961.3</v>
@@ -7368,7 +7390,7 @@
         <v>168</v>
       </c>
       <c r="K140" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L140" t="n">
         <v>961.3</v>
@@ -7419,7 +7441,7 @@
         <v>170</v>
       </c>
       <c r="K141" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>961.2</v>
@@ -7470,7 +7492,7 @@
         <v>171</v>
       </c>
       <c r="K142" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L142" t="n">
         <v>961</v>
@@ -7521,7 +7543,7 @@
         <v>172</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L143" t="n">
         <v>960.9</v>
@@ -7572,7 +7594,7 @@
         <v>174</v>
       </c>
       <c r="K144" t="n">
-        <v>-22.22222222222222</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L144" t="n">
         <v>960.6</v>
@@ -7623,7 +7645,7 @@
         <v>175</v>
       </c>
       <c r="K145" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L145" t="n">
         <v>960.2</v>
@@ -7674,7 +7696,7 @@
         <v>176</v>
       </c>
       <c r="K146" t="n">
-        <v>-29.41176470588236</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L146" t="n">
         <v>959.7</v>
@@ -7725,7 +7747,7 @@
         <v>178</v>
       </c>
       <c r="K147" t="n">
-        <v>-36.84210526315789</v>
+        <v>-80</v>
       </c>
       <c r="L147" t="n">
         <v>959</v>
@@ -7776,7 +7798,7 @@
         <v>179</v>
       </c>
       <c r="K148" t="n">
-        <v>-29.41176470588236</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L148" t="n">
         <v>958.1</v>
@@ -7827,7 +7849,7 @@
         <v>181</v>
       </c>
       <c r="K149" t="n">
-        <v>-15.78947368421053</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L149" t="n">
         <v>957.4</v>
@@ -7878,7 +7900,7 @@
         <v>185</v>
       </c>
       <c r="K150" t="n">
-        <v>-57.89473684210527</v>
+        <v>-60</v>
       </c>
       <c r="L150" t="n">
         <v>956.3</v>
@@ -7929,7 +7951,7 @@
         <v>187</v>
       </c>
       <c r="K151" t="n">
-        <v>-40</v>
+        <v>-37.5</v>
       </c>
       <c r="L151" t="n">
         <v>955.6</v>
@@ -7980,7 +8002,7 @@
         <v>188</v>
       </c>
       <c r="K152" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L152" t="n">
         <v>954.9</v>
@@ -8031,7 +8053,7 @@
         <v>189</v>
       </c>
       <c r="K153" t="n">
-        <v>-36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>954.2</v>
@@ -8082,7 +8104,7 @@
         <v>190</v>
       </c>
       <c r="K154" t="n">
-        <v>-39.1304347826087</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>953.6</v>
@@ -8133,7 +8155,7 @@
         <v>190</v>
       </c>
       <c r="K155" t="n">
-        <v>-39.1304347826087</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L155" t="n">
         <v>953.1</v>
@@ -8184,7 +8206,7 @@
         <v>190</v>
       </c>
       <c r="K156" t="n">
-        <v>-39.1304347826087</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L156" t="n">
         <v>952.7</v>
@@ -8235,7 +8257,7 @@
         <v>190</v>
       </c>
       <c r="K157" t="n">
-        <v>-39.1304347826087</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L157" t="n">
         <v>952.5</v>
@@ -8286,7 +8308,7 @@
         <v>190</v>
       </c>
       <c r="K158" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>952.4</v>
@@ -8337,7 +8359,7 @@
         <v>190</v>
       </c>
       <c r="K159" t="n">
-        <v>-45.45454545454545</v>
+        <v>20</v>
       </c>
       <c r="L159" t="n">
         <v>952.1</v>
@@ -8388,7 +8410,7 @@
         <v>190</v>
       </c>
       <c r="K160" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>952.2</v>
@@ -8439,7 +8461,7 @@
         <v>192</v>
       </c>
       <c r="K161" t="n">
-        <v>-45.45454545454545</v>
+        <v>-50</v>
       </c>
       <c r="L161" t="n">
         <v>951.9</v>
@@ -8490,7 +8512,7 @@
         <v>192</v>
       </c>
       <c r="K162" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L162" t="n">
         <v>951.7</v>
@@ -8541,7 +8563,7 @@
         <v>194</v>
       </c>
       <c r="K163" t="n">
-        <v>-36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>951.6</v>
@@ -8592,7 +8614,7 @@
         <v>195</v>
       </c>
       <c r="K164" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L164" t="n">
         <v>951.5</v>
@@ -8643,7 +8665,7 @@
         <v>196</v>
       </c>
       <c r="K165" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>951.5</v>
@@ -8694,7 +8716,7 @@
         <v>197</v>
       </c>
       <c r="K166" t="n">
-        <v>-23.80952380952381</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L166" t="n">
         <v>951.4</v>
@@ -8745,7 +8767,7 @@
         <v>197</v>
       </c>
       <c r="K167" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L167" t="n">
         <v>951.3</v>
@@ -8796,7 +8818,7 @@
         <v>199</v>
       </c>
       <c r="K168" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>951</v>
@@ -8898,7 +8920,7 @@
         <v>201</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L170" t="n">
         <v>950.6</v>
@@ -8949,7 +8971,7 @@
         <v>202</v>
       </c>
       <c r="K171" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>950.6</v>
@@ -9000,7 +9022,7 @@
         <v>203</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L172" t="n">
         <v>950.7</v>
@@ -9051,7 +9073,7 @@
         <v>204</v>
       </c>
       <c r="K173" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L173" t="n">
         <v>950.5</v>
@@ -9102,7 +9124,7 @@
         <v>205</v>
       </c>
       <c r="K174" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L174" t="n">
         <v>950.5</v>
@@ -9153,7 +9175,7 @@
         <v>205</v>
       </c>
       <c r="K175" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>950.4</v>
@@ -9204,7 +9226,7 @@
         <v>205</v>
       </c>
       <c r="K176" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>950.4</v>
@@ -9255,7 +9277,7 @@
         <v>209</v>
       </c>
       <c r="K177" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L177" t="n">
         <v>950</v>
@@ -9306,7 +9328,7 @@
         <v>212</v>
       </c>
       <c r="K178" t="n">
-        <v>-9.090909090909092</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L178" t="n">
         <v>950.1</v>
@@ -9408,7 +9430,7 @@
         <v>212</v>
       </c>
       <c r="K180" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>950.1</v>
@@ -9459,7 +9481,7 @@
         <v>217</v>
       </c>
       <c r="K181" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L181" t="n">
         <v>950.6</v>
@@ -9510,7 +9532,7 @@
         <v>218</v>
       </c>
       <c r="K182" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L182" t="n">
         <v>951.1</v>
@@ -9561,7 +9583,7 @@
         <v>219</v>
       </c>
       <c r="K183" t="n">
-        <v>12</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L183" t="n">
         <v>951.6</v>
@@ -9612,7 +9634,7 @@
         <v>219</v>
       </c>
       <c r="K184" t="n">
-        <v>16.66666666666666</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L184" t="n">
         <v>952</v>
@@ -9663,7 +9685,7 @@
         <v>219</v>
       </c>
       <c r="K185" t="n">
-        <v>13.04347826086956</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L185" t="n">
         <v>952.4</v>
@@ -9714,7 +9736,7 @@
         <v>219</v>
       </c>
       <c r="K186" t="n">
-        <v>18.18181818181818</v>
+        <v>80</v>
       </c>
       <c r="L186" t="n">
         <v>952.8</v>
@@ -9765,7 +9787,7 @@
         <v>223</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L187" t="n">
         <v>953.2</v>
@@ -9816,7 +9838,7 @@
         <v>223</v>
       </c>
       <c r="K188" t="n">
-        <v>8.333333333333332</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L188" t="n">
         <v>953.3</v>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S188"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>970.4</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L12" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>969.8</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,22 +876,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>18</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L14" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,22 +911,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>18</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>970.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>19</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>969.8</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L17" t="n">
-        <v>969.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>22</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>969.6</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L19" t="n">
-        <v>969.2</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>29</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L20" t="n">
-        <v>968.6</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>29</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L21" t="n">
-        <v>968.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>969.35</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>29</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L22" t="n">
-        <v>968.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J23" t="n">
-        <v>34</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-62.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>967.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>968.6</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>39</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L24" t="n">
-        <v>966.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>968.5</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>39</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L25" t="n">
-        <v>966.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>968.3</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>43</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L26" t="n">
-        <v>965.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>967.7</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>43</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-52.38095238095239</v>
-      </c>
-      <c r="L27" t="n">
-        <v>964.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>967.15</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>44</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="L28" t="n">
-        <v>963.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>966.55</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>44</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>962.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>965.95</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>47</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L30" t="n">
-        <v>962.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>965.55</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>47</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L31" t="n">
-        <v>962.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>965.3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>967</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>47</v>
-      </c>
-      <c r="K32" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L32" t="n">
-        <v>962.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>965.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>966.7666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>47</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L33" t="n">
-        <v>962.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>964.9</v>
-      </c>
-      <c r="N33" t="n">
-        <v>966.5333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>49</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>962.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>964.65</v>
-      </c>
-      <c r="N34" t="n">
-        <v>966.4666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>53</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>964.2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>966.2</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J36" t="n">
-        <v>54</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L36" t="n">
-        <v>961.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>963.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>965.7666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>56</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L37" t="n">
-        <v>961.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>963.15</v>
-      </c>
-      <c r="N37" t="n">
-        <v>965.3</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>62</v>
-      </c>
-      <c r="K38" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L38" t="n">
-        <v>962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>962.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>965.0333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>62</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L39" t="n">
-        <v>962.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>962.55</v>
-      </c>
-      <c r="N39" t="n">
-        <v>964.7666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>66</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L40" t="n">
-        <v>962.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>962.3</v>
-      </c>
-      <c r="N40" t="n">
-        <v>964.4</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>68</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L41" t="n">
-        <v>961.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>961.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>964.0666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>69</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L42" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>961.65</v>
-      </c>
-      <c r="N42" t="n">
-        <v>963.8</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>73</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L43" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>961.8</v>
-      </c>
-      <c r="N43" t="n">
-        <v>963.6666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>74</v>
-      </c>
-      <c r="K44" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>961.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>961.75</v>
-      </c>
-      <c r="N44" t="n">
-        <v>963.4666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>75</v>
-      </c>
-      <c r="K45" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L45" t="n">
-        <v>961.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>961.65</v>
-      </c>
-      <c r="N45" t="n">
-        <v>963.2333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>78</v>
-      </c>
-      <c r="K46" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L46" t="n">
-        <v>961.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>961.6</v>
-      </c>
-      <c r="N46" t="n">
-        <v>962.9333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>79</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L47" t="n">
-        <v>961.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>961.6</v>
-      </c>
-      <c r="N47" t="n">
-        <v>962.6333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>80</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L48" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>961.6</v>
-      </c>
-      <c r="N48" t="n">
-        <v>962.2333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J49" t="n">
-        <v>81</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L49" t="n">
-        <v>960.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>961.55</v>
-      </c>
-      <c r="N49" t="n">
-        <v>961.9333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>81</v>
-      </c>
-      <c r="K50" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L50" t="n">
-        <v>960.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>961.35</v>
-      </c>
-      <c r="N50" t="n">
-        <v>961.7333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J51" t="n">
-        <v>81</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>960.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>961.15</v>
-      </c>
-      <c r="N51" t="n">
-        <v>961.5333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>81</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L52" t="n">
-        <v>960.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>960.95</v>
-      </c>
-      <c r="N52" t="n">
-        <v>961.3333333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>83</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N53" t="n">
-        <v>961.3666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>83</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L54" t="n">
-        <v>960.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>960.65</v>
-      </c>
-      <c r="N54" t="n">
-        <v>961.2333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>83</v>
-      </c>
-      <c r="K55" t="n">
-        <v>20</v>
-      </c>
-      <c r="L55" t="n">
-        <v>960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>960.65</v>
-      </c>
-      <c r="N55" t="n">
-        <v>961.1</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>83</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>960.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N56" t="n">
-        <v>961.1</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>84</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="N57" t="n">
-        <v>961.0666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>90</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L58" t="n">
-        <v>959.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>960.3</v>
-      </c>
-      <c r="N58" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>96</v>
-      </c>
-      <c r="K59" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L59" t="n">
-        <v>959.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>960.1</v>
-      </c>
-      <c r="N59" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>96</v>
-      </c>
-      <c r="K60" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L60" t="n">
-        <v>959.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>960.1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>960.7666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>96</v>
-      </c>
-      <c r="K61" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L61" t="n">
-        <v>959.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>960.6666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>96</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L62" t="n">
-        <v>959.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>960.25</v>
-      </c>
-      <c r="N62" t="n">
-        <v>960.5666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>98</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L63" t="n">
-        <v>959.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>960</v>
-      </c>
-      <c r="N63" t="n">
-        <v>960.4</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>99</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L64" t="n">
-        <v>959.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>959.75</v>
-      </c>
-      <c r="N64" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>100</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L65" t="n">
-        <v>959.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>959.6</v>
-      </c>
-      <c r="N65" t="n">
-        <v>960.1666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>101</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L66" t="n">
-        <v>959.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>959.65</v>
-      </c>
-      <c r="N66" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>102</v>
-      </c>
-      <c r="K67" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L67" t="n">
-        <v>959.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>959.7</v>
-      </c>
-      <c r="N67" t="n">
-        <v>960.3333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>102</v>
-      </c>
-      <c r="K68" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L68" t="n">
-        <v>960.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>959.8</v>
-      </c>
-      <c r="N68" t="n">
-        <v>960.2666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>103</v>
-      </c>
-      <c r="K69" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L69" t="n">
-        <v>960.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>959.9</v>
-      </c>
-      <c r="N69" t="n">
-        <v>960.1666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>103</v>
-      </c>
-      <c r="K70" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L70" t="n">
-        <v>960.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>960</v>
-      </c>
-      <c r="N70" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>103</v>
-      </c>
-      <c r="K71" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L71" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>960.1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>960.3</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>103</v>
-      </c>
-      <c r="K72" t="n">
-        <v>60</v>
-      </c>
-      <c r="L72" t="n">
-        <v>960.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="N72" t="n">
-        <v>960.3666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>103</v>
-      </c>
-      <c r="K73" t="n">
-        <v>50</v>
-      </c>
-      <c r="L73" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="N73" t="n">
-        <v>960.3</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>104</v>
-      </c>
-      <c r="K74" t="n">
-        <v>50</v>
-      </c>
-      <c r="L74" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>960.25</v>
-      </c>
-      <c r="N74" t="n">
-        <v>960.2333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>104</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>961.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>960.3</v>
-      </c>
-      <c r="N75" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>105</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L76" t="n">
-        <v>961.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>960.3</v>
-      </c>
-      <c r="N76" t="n">
-        <v>960.2333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J77" t="n">
-        <v>105</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>961.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>960.35</v>
-      </c>
-      <c r="N77" t="n">
-        <v>960.2333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>105</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N78" t="n">
-        <v>960.2666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J79" t="n">
-        <v>106</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>961.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N79" t="n">
-        <v>960.3</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>106</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L80" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N80" t="n">
-        <v>960.3333333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>106</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N81" t="n">
-        <v>960.3666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>106</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>960.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N82" t="n">
-        <v>960.4</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>107</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>960.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N83" t="n">
-        <v>960.4</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>108</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>960.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>961</v>
-      </c>
-      <c r="N84" t="n">
-        <v>960.4333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>108</v>
-      </c>
-      <c r="K85" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L85" t="n">
-        <v>960.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>961.1</v>
-      </c>
-      <c r="N85" t="n">
-        <v>960.4666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>108</v>
-      </c>
-      <c r="K86" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>961.15</v>
-      </c>
-      <c r="N86" t="n">
-        <v>960.5</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J87" t="n">
-        <v>108</v>
-      </c>
-      <c r="K87" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>961.15</v>
-      </c>
-      <c r="N87" t="n">
-        <v>960.5666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>109</v>
-      </c>
-      <c r="K88" t="n">
-        <v>100</v>
-      </c>
-      <c r="L88" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>961.2</v>
-      </c>
-      <c r="N88" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>112</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>961.15</v>
-      </c>
-      <c r="N89" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>112</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>961.1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>112</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>961.05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>112</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L92" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>961</v>
-      </c>
-      <c r="N92" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>112</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L93" t="n">
-        <v>961.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>960.95</v>
-      </c>
-      <c r="N93" t="n">
-        <v>960.9333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J94" t="n">
-        <v>112</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L94" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N94" t="n">
-        <v>960.9666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>114</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N95" t="n">
-        <v>961.0333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J96" t="n">
-        <v>116</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L96" t="n">
-        <v>960.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="N96" t="n">
-        <v>961</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>118</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L97" t="n">
-        <v>960.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>960.65</v>
-      </c>
-      <c r="N97" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>121</v>
-      </c>
-      <c r="K98" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L98" t="n">
-        <v>960.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>960.65</v>
-      </c>
-      <c r="N98" t="n">
-        <v>960.8333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>121</v>
-      </c>
-      <c r="K99" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L99" t="n">
-        <v>960.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N99" t="n">
-        <v>960.8333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>121</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L100" t="n">
-        <v>960.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>960.75</v>
-      </c>
-      <c r="N100" t="n">
-        <v>960.8333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J101" t="n">
-        <v>123</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L101" t="n">
-        <v>960.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N101" t="n">
-        <v>960.7666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>125</v>
-      </c>
-      <c r="K102" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L102" t="n">
-        <v>960.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>960.75</v>
-      </c>
-      <c r="N102" t="n">
-        <v>960.7666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>126</v>
-      </c>
-      <c r="K103" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L103" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="N103" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J104" t="n">
-        <v>126</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>960.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="N104" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J105" t="n">
-        <v>128</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N105" t="n">
-        <v>960.7333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J106" t="n">
-        <v>129</v>
-      </c>
-      <c r="K106" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L106" t="n">
-        <v>960.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>960.55</v>
-      </c>
-      <c r="N106" t="n">
-        <v>960.6666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J107" t="n">
-        <v>133</v>
-      </c>
-      <c r="K107" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L107" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>960.6</v>
-      </c>
-      <c r="N107" t="n">
-        <v>960.7333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>135</v>
-      </c>
-      <c r="K108" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L108" t="n">
-        <v>961.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N108" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J109" t="n">
-        <v>135</v>
-      </c>
-      <c r="K109" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L109" t="n">
-        <v>961.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>960.95</v>
-      </c>
-      <c r="N109" t="n">
-        <v>961.0333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>135</v>
-      </c>
-      <c r="K110" t="n">
-        <v>50</v>
-      </c>
-      <c r="L110" t="n">
-        <v>962.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>961.2</v>
-      </c>
-      <c r="N110" t="n">
-        <v>961.2</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J111" t="n">
-        <v>139</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>962.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>961.25</v>
-      </c>
-      <c r="N111" t="n">
-        <v>961.2333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J112" t="n">
-        <v>140</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L112" t="n">
-        <v>962.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>961.25</v>
-      </c>
-      <c r="N112" t="n">
-        <v>961.2333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J113" t="n">
-        <v>140</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L113" t="n">
-        <v>962</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>961.25</v>
-      </c>
-      <c r="N113" t="n">
-        <v>961.2</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>143</v>
-      </c>
-      <c r="K114" t="n">
-        <v>20</v>
-      </c>
-      <c r="L114" t="n">
-        <v>962.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>961.4</v>
-      </c>
-      <c r="N114" t="n">
-        <v>961.2333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J115" t="n">
-        <v>146</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L115" t="n">
-        <v>962.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>961.3</v>
-      </c>
-      <c r="N115" t="n">
-        <v>961.1666666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J116" t="n">
-        <v>148</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L116" t="n">
-        <v>962</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>961.2</v>
-      </c>
-      <c r="N116" t="n">
-        <v>961.0333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J117" t="n">
-        <v>148</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L117" t="n">
-        <v>961.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>961.2</v>
-      </c>
-      <c r="N117" t="n">
-        <v>960.9</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J118" t="n">
-        <v>149</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L118" t="n">
-        <v>960.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>961</v>
-      </c>
-      <c r="N118" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J119" t="n">
-        <v>149</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L119" t="n">
-        <v>959.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="N119" t="n">
-        <v>960.6</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J120" t="n">
-        <v>151</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L120" t="n">
-        <v>959.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N120" t="n">
-        <v>960.5666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>154</v>
-      </c>
-      <c r="K121" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L121" t="n">
-        <v>959.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N121" t="n">
-        <v>960.6333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J122" t="n">
-        <v>154</v>
-      </c>
-      <c r="K122" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L122" t="n">
-        <v>959.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>960.9</v>
-      </c>
-      <c r="N122" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J123" t="n">
-        <v>155</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L123" t="n">
-        <v>959.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N123" t="n">
-        <v>960.7333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J124" t="n">
-        <v>156</v>
-      </c>
-      <c r="K124" t="n">
-        <v>20</v>
-      </c>
-      <c r="L124" t="n">
-        <v>959.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N124" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J125" t="n">
-        <v>158</v>
-      </c>
-      <c r="K125" t="n">
-        <v>20</v>
-      </c>
-      <c r="L125" t="n">
-        <v>959.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N125" t="n">
-        <v>960.7333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>159</v>
-      </c>
-      <c r="K126" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L126" t="n">
-        <v>959.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>960.95</v>
-      </c>
-      <c r="N126" t="n">
-        <v>960.7666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J127" t="n">
-        <v>159</v>
-      </c>
-      <c r="K127" t="n">
-        <v>40</v>
-      </c>
-      <c r="L127" t="n">
-        <v>960.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N127" t="n">
-        <v>960.8666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +4864,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J128" t="n">
-        <v>162</v>
-      </c>
-      <c r="K128" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L128" t="n">
-        <v>960.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>960.5</v>
-      </c>
-      <c r="N128" t="n">
-        <v>960.7666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J129" t="n">
-        <v>162</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L129" t="n">
-        <v>960.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>960.15</v>
-      </c>
-      <c r="N129" t="n">
-        <v>960.6666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +4934,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>166</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>960.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>960</v>
-      </c>
-      <c r="N130" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +4969,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J131" t="n">
-        <v>167</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L131" t="n">
-        <v>960.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>960</v>
-      </c>
-      <c r="N131" t="n">
-        <v>960.7666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5004,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J132" t="n">
-        <v>167</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>960.05</v>
-      </c>
-      <c r="N132" t="n">
-        <v>960.7666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5039,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J133" t="n">
-        <v>167</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L133" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>960.1</v>
-      </c>
-      <c r="N133" t="n">
-        <v>960.7333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5074,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J134" t="n">
-        <v>167</v>
-      </c>
-      <c r="K134" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L134" t="n">
-        <v>960.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>960</v>
-      </c>
-      <c r="N134" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5109,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J135" t="n">
-        <v>167</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>960.05</v>
-      </c>
-      <c r="N135" t="n">
-        <v>960.7333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5144,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J136" t="n">
-        <v>167</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="N136" t="n">
-        <v>960.8</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5179,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J137" t="n">
-        <v>167</v>
-      </c>
-      <c r="K137" t="n">
-        <v>60</v>
-      </c>
-      <c r="L137" t="n">
-        <v>960.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>960.35</v>
-      </c>
-      <c r="N137" t="n">
-        <v>960.7333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J138" t="n">
-        <v>168</v>
-      </c>
-      <c r="K138" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L138" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>960.6</v>
-      </c>
-      <c r="N138" t="n">
-        <v>960.6333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5249,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J139" t="n">
-        <v>168</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>961.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>960.85</v>
-      </c>
-      <c r="N139" t="n">
-        <v>960.5333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5284,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>168</v>
-      </c>
-      <c r="K140" t="n">
-        <v>100</v>
-      </c>
-      <c r="L140" t="n">
-        <v>961.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>961</v>
-      </c>
-      <c r="N140" t="n">
-        <v>960.4333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5319,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J141" t="n">
-        <v>170</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L141" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>960.9</v>
-      </c>
-      <c r="N141" t="n">
-        <v>960.4</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5354,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J142" t="n">
-        <v>171</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L142" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>960.75</v>
-      </c>
-      <c r="N142" t="n">
-        <v>960.3666666666667</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5389,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J143" t="n">
-        <v>172</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L143" t="n">
-        <v>960.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>960.7</v>
-      </c>
-      <c r="N143" t="n">
-        <v>960.3666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5424,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J144" t="n">
-        <v>174</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L144" t="n">
-        <v>960.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>960.5</v>
-      </c>
-      <c r="N144" t="n">
-        <v>960.2</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5459,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J145" t="n">
-        <v>175</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L145" t="n">
-        <v>960.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>960.35</v>
-      </c>
-      <c r="N145" t="n">
-        <v>960.1</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5494,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J146" t="n">
-        <v>176</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L146" t="n">
-        <v>959.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>960.1</v>
-      </c>
-      <c r="N146" t="n">
-        <v>960.0333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5529,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J147" t="n">
-        <v>178</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L147" t="n">
-        <v>959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>959.75</v>
-      </c>
-      <c r="N147" t="n">
-        <v>959.9</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5564,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J148" t="n">
-        <v>179</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L148" t="n">
-        <v>958.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>959.5</v>
-      </c>
-      <c r="N148" t="n">
-        <v>959.7666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5599,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J149" t="n">
-        <v>181</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L149" t="n">
-        <v>957.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>959.35</v>
-      </c>
-      <c r="N149" t="n">
-        <v>959.7</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5634,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J150" t="n">
-        <v>185</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L150" t="n">
-        <v>956.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>958.8</v>
-      </c>
-      <c r="N150" t="n">
-        <v>959.4333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5669,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J151" t="n">
-        <v>187</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L151" t="n">
-        <v>955.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>958.4</v>
-      </c>
-      <c r="N151" t="n">
-        <v>959.1333333333333</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,31 +5701,21 @@
         <v>959.75</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>188</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L152" t="n">
-        <v>954.9</v>
+        <v>952</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>957.95</v>
-      </c>
-      <c r="N152" t="n">
-        <v>958.8</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,31 +5742,21 @@
         <v>959.6333333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>189</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L153" t="n">
-        <v>954.2</v>
+        <v>953</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>957.55</v>
-      </c>
-      <c r="N153" t="n">
-        <v>958.5333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8095,31 +5783,21 @@
         <v>959.5</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>190</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L154" t="n">
-        <v>953.6</v>
+        <v>952</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>957.1</v>
-      </c>
-      <c r="N154" t="n">
-        <v>958.2</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8146,31 +5824,21 @@
         <v>959.3333333333334</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>190</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L155" t="n">
-        <v>953.1</v>
+        <v>952</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>956.65</v>
-      </c>
-      <c r="N155" t="n">
-        <v>957.9333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8197,31 +5865,21 @@
         <v>959.2</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>190</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L156" t="n">
-        <v>952.7</v>
+        <v>952</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>956.2</v>
-      </c>
-      <c r="N156" t="n">
-        <v>957.6333333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8248,31 +5906,21 @@
         <v>959.1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>190</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L157" t="n">
-        <v>952.5</v>
+        <v>952</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>955.75</v>
-      </c>
-      <c r="N157" t="n">
-        <v>957.3333333333334</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8299,31 +5947,21 @@
         <v>958.95</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>190</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>952.4</v>
+        <v>952</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>955.25</v>
-      </c>
-      <c r="N158" t="n">
-        <v>957.1333333333333</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8350,31 +5988,21 @@
         <v>958.8</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>190</v>
-      </c>
-      <c r="K159" t="n">
-        <v>20</v>
-      </c>
-      <c r="L159" t="n">
-        <v>952.1</v>
+        <v>952</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>954.75</v>
-      </c>
-      <c r="N159" t="n">
-        <v>956.9333333333333</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8401,31 +6029,21 @@
         <v>958.65</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>190</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L160" t="n">
-        <v>952.2</v>
+        <v>952</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>954.25</v>
-      </c>
-      <c r="N160" t="n">
-        <v>956.6</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8452,31 +6070,21 @@
         <v>958.5</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>192</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L161" t="n">
-        <v>951.9</v>
+        <v>950</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>953.75</v>
-      </c>
-      <c r="N161" t="n">
-        <v>956.2333333333333</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8503,31 +6111,21 @@
         <v>958.3166666666667</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>192</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L162" t="n">
-        <v>951.7</v>
+        <v>950</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>953.3</v>
-      </c>
-      <c r="N162" t="n">
-        <v>955.8666666666667</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8554,31 +6152,21 @@
         <v>958.15</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>194</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>951.6</v>
+        <v>952</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>952.9</v>
-      </c>
-      <c r="N163" t="n">
-        <v>955.5666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8605,31 +6193,21 @@
         <v>957.9666666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>195</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L164" t="n">
-        <v>951.5</v>
+        <v>951</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>952.55</v>
-      </c>
-      <c r="N164" t="n">
-        <v>955.2333333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8656,31 +6234,21 @@
         <v>957.8333333333334</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>196</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>951.5</v>
+        <v>952</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>952.3</v>
-      </c>
-      <c r="N165" t="n">
-        <v>954.9333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8707,31 +6275,21 @@
         <v>957.7</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>197</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L166" t="n">
-        <v>951.4</v>
+        <v>951</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>952.05</v>
-      </c>
-      <c r="N166" t="n">
-        <v>954.6</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8758,1102 +6316,21 @@
         <v>957.5</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>197</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L167" t="n">
-        <v>951.3</v>
+        <v>951</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>951.9</v>
-      </c>
-      <c r="N167" t="n">
-        <v>954.2666666666667</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>948</v>
-      </c>
-      <c r="C168" t="n">
-        <v>949</v>
-      </c>
-      <c r="D168" t="n">
-        <v>949</v>
-      </c>
-      <c r="E168" t="n">
-        <v>946</v>
-      </c>
-      <c r="F168" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="G168" t="n">
-        <v>957.2333333333333</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>-21</v>
-      </c>
-      <c r="J168" t="n">
-        <v>199</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L168" t="n">
-        <v>951</v>
-      </c>
-      <c r="M168" t="n">
-        <v>951.7</v>
-      </c>
-      <c r="N168" t="n">
-        <v>953.8333333333334</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>950</v>
-      </c>
-      <c r="C169" t="n">
-        <v>949</v>
-      </c>
-      <c r="D169" t="n">
-        <v>950</v>
-      </c>
-      <c r="E169" t="n">
-        <v>949</v>
-      </c>
-      <c r="F169" t="n">
-        <v>52.5626</v>
-      </c>
-      <c r="G169" t="n">
-        <v>956.9666666666667</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>-21</v>
-      </c>
-      <c r="J169" t="n">
-        <v>199</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L169" t="n">
-        <v>950.7</v>
-      </c>
-      <c r="M169" t="n">
-        <v>951.4</v>
-      </c>
-      <c r="N169" t="n">
-        <v>953.4</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>946</v>
-      </c>
-      <c r="C170" t="n">
-        <v>951</v>
-      </c>
-      <c r="D170" t="n">
-        <v>951</v>
-      </c>
-      <c r="E170" t="n">
-        <v>946</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2134.3628</v>
-      </c>
-      <c r="G170" t="n">
-        <v>956.7333333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J170" t="n">
-        <v>201</v>
-      </c>
-      <c r="K170" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L170" t="n">
-        <v>950.6</v>
-      </c>
-      <c r="M170" t="n">
-        <v>951.4</v>
-      </c>
-      <c r="N170" t="n">
-        <v>953.0333333333333</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>950</v>
-      </c>
-      <c r="C171" t="n">
-        <v>950</v>
-      </c>
-      <c r="D171" t="n">
-        <v>950</v>
-      </c>
-      <c r="E171" t="n">
-        <v>950</v>
-      </c>
-      <c r="F171" t="n">
-        <v>92.70480000000001</v>
-      </c>
-      <c r="G171" t="n">
-        <v>956.55</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J171" t="n">
-        <v>202</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>950.6</v>
-      </c>
-      <c r="M171" t="n">
-        <v>951.25</v>
-      </c>
-      <c r="N171" t="n">
-        <v>952.7</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>950</v>
-      </c>
-      <c r="C172" t="n">
-        <v>951</v>
-      </c>
-      <c r="D172" t="n">
-        <v>951</v>
-      </c>
-      <c r="E172" t="n">
-        <v>950</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1595.653</v>
-      </c>
-      <c r="G172" t="n">
-        <v>956.4</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J172" t="n">
-        <v>203</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L172" t="n">
-        <v>950.7</v>
-      </c>
-      <c r="M172" t="n">
-        <v>951.2</v>
-      </c>
-      <c r="N172" t="n">
-        <v>952.4333333333333</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>950</v>
-      </c>
-      <c r="C173" t="n">
-        <v>950</v>
-      </c>
-      <c r="D173" t="n">
-        <v>950</v>
-      </c>
-      <c r="E173" t="n">
-        <v>950</v>
-      </c>
-      <c r="F173" t="n">
-        <v>133.8119</v>
-      </c>
-      <c r="G173" t="n">
-        <v>956.2333333333333</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J173" t="n">
-        <v>204</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L173" t="n">
-        <v>950.5</v>
-      </c>
-      <c r="M173" t="n">
-        <v>951.05</v>
-      </c>
-      <c r="N173" t="n">
-        <v>952.1</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>951</v>
-      </c>
-      <c r="C174" t="n">
-        <v>951</v>
-      </c>
-      <c r="D174" t="n">
-        <v>951</v>
-      </c>
-      <c r="E174" t="n">
-        <v>951</v>
-      </c>
-      <c r="F174" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="G174" t="n">
-        <v>956.0333333333333</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J174" t="n">
-        <v>205</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L174" t="n">
-        <v>950.5</v>
-      </c>
-      <c r="M174" t="n">
-        <v>951</v>
-      </c>
-      <c r="N174" t="n">
-        <v>951.8666666666667</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>951</v>
-      </c>
-      <c r="C175" t="n">
-        <v>951</v>
-      </c>
-      <c r="D175" t="n">
-        <v>951</v>
-      </c>
-      <c r="E175" t="n">
-        <v>951</v>
-      </c>
-      <c r="F175" t="n">
-        <v>855.778</v>
-      </c>
-      <c r="G175" t="n">
-        <v>955.8833333333333</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J175" t="n">
-        <v>205</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>950.4</v>
-      </c>
-      <c r="M175" t="n">
-        <v>950.95</v>
-      </c>
-      <c r="N175" t="n">
-        <v>951.6666666666666</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>951</v>
-      </c>
-      <c r="C176" t="n">
-        <v>951</v>
-      </c>
-      <c r="D176" t="n">
-        <v>951</v>
-      </c>
-      <c r="E176" t="n">
-        <v>951</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11.222</v>
-      </c>
-      <c r="G176" t="n">
-        <v>955.7666666666667</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J176" t="n">
-        <v>205</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0</v>
-      </c>
-      <c r="L176" t="n">
-        <v>950.4</v>
-      </c>
-      <c r="M176" t="n">
-        <v>950.9</v>
-      </c>
-      <c r="N176" t="n">
-        <v>951.5</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>947</v>
-      </c>
-      <c r="C177" t="n">
-        <v>947</v>
-      </c>
-      <c r="D177" t="n">
-        <v>947</v>
-      </c>
-      <c r="E177" t="n">
-        <v>947</v>
-      </c>
-      <c r="F177" t="n">
-        <v>51</v>
-      </c>
-      <c r="G177" t="n">
-        <v>955.5833333333334</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J177" t="n">
-        <v>209</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L177" t="n">
-        <v>950</v>
-      </c>
-      <c r="M177" t="n">
-        <v>950.65</v>
-      </c>
-      <c r="N177" t="n">
-        <v>951.2666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>950</v>
-      </c>
-      <c r="C178" t="n">
-        <v>950</v>
-      </c>
-      <c r="D178" t="n">
-        <v>950</v>
-      </c>
-      <c r="E178" t="n">
-        <v>950</v>
-      </c>
-      <c r="F178" t="n">
-        <v>10.7208</v>
-      </c>
-      <c r="G178" t="n">
-        <v>955.4666666666667</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J178" t="n">
-        <v>212</v>
-      </c>
-      <c r="K178" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L178" t="n">
-        <v>950.1</v>
-      </c>
-      <c r="M178" t="n">
-        <v>950.55</v>
-      </c>
-      <c r="N178" t="n">
-        <v>951.1666666666666</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>950</v>
-      </c>
-      <c r="C179" t="n">
-        <v>950</v>
-      </c>
-      <c r="D179" t="n">
-        <v>950</v>
-      </c>
-      <c r="E179" t="n">
-        <v>950</v>
-      </c>
-      <c r="F179" t="n">
-        <v>201.4181</v>
-      </c>
-      <c r="G179" t="n">
-        <v>955.35</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J179" t="n">
-        <v>212</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L179" t="n">
-        <v>950.2</v>
-      </c>
-      <c r="M179" t="n">
-        <v>950.45</v>
-      </c>
-      <c r="N179" t="n">
-        <v>951</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>950</v>
-      </c>
-      <c r="C180" t="n">
-        <v>950</v>
-      </c>
-      <c r="D180" t="n">
-        <v>950</v>
-      </c>
-      <c r="E180" t="n">
-        <v>950</v>
-      </c>
-      <c r="F180" t="n">
-        <v>20.8645</v>
-      </c>
-      <c r="G180" t="n">
-        <v>955.2</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J180" t="n">
-        <v>212</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>950.1</v>
-      </c>
-      <c r="M180" t="n">
-        <v>950.35</v>
-      </c>
-      <c r="N180" t="n">
-        <v>950.9666666666667</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>950</v>
-      </c>
-      <c r="C181" t="n">
-        <v>955</v>
-      </c>
-      <c r="D181" t="n">
-        <v>955</v>
-      </c>
-      <c r="E181" t="n">
-        <v>950</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1838.559653830011</v>
-      </c>
-      <c r="G181" t="n">
-        <v>955.0833333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J181" t="n">
-        <v>217</v>
-      </c>
-      <c r="K181" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L181" t="n">
-        <v>950.6</v>
-      </c>
-      <c r="M181" t="n">
-        <v>950.6</v>
-      </c>
-      <c r="N181" t="n">
-        <v>951.0333333333333</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>957</v>
-      </c>
-      <c r="C182" t="n">
-        <v>956</v>
-      </c>
-      <c r="D182" t="n">
-        <v>957</v>
-      </c>
-      <c r="E182" t="n">
-        <v>956</v>
-      </c>
-      <c r="F182" t="n">
-        <v>62.6445</v>
-      </c>
-      <c r="G182" t="n">
-        <v>954.9833333333333</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J182" t="n">
-        <v>218</v>
-      </c>
-      <c r="K182" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L182" t="n">
-        <v>951.1</v>
-      </c>
-      <c r="M182" t="n">
-        <v>950.9</v>
-      </c>
-      <c r="N182" t="n">
-        <v>951.1666666666666</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>955</v>
-      </c>
-      <c r="C183" t="n">
-        <v>955</v>
-      </c>
-      <c r="D183" t="n">
-        <v>955</v>
-      </c>
-      <c r="E183" t="n">
-        <v>955</v>
-      </c>
-      <c r="F183" t="n">
-        <v>36.7205</v>
-      </c>
-      <c r="G183" t="n">
-        <v>954.8833333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J183" t="n">
-        <v>219</v>
-      </c>
-      <c r="K183" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L183" t="n">
-        <v>951.6</v>
-      </c>
-      <c r="M183" t="n">
-        <v>951.05</v>
-      </c>
-      <c r="N183" t="n">
-        <v>951.2333333333333</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>956</v>
-      </c>
-      <c r="C184" t="n">
-        <v>955</v>
-      </c>
-      <c r="D184" t="n">
-        <v>956</v>
-      </c>
-      <c r="E184" t="n">
-        <v>955</v>
-      </c>
-      <c r="F184" t="n">
-        <v>77.20869999999999</v>
-      </c>
-      <c r="G184" t="n">
-        <v>954.7666666666667</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J184" t="n">
-        <v>219</v>
-      </c>
-      <c r="K184" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L184" t="n">
-        <v>952</v>
-      </c>
-      <c r="M184" t="n">
-        <v>951.25</v>
-      </c>
-      <c r="N184" t="n">
-        <v>951.3333333333334</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>956</v>
-      </c>
-      <c r="C185" t="n">
-        <v>955</v>
-      </c>
-      <c r="D185" t="n">
-        <v>956</v>
-      </c>
-      <c r="E185" t="n">
-        <v>955</v>
-      </c>
-      <c r="F185" t="n">
-        <v>339.5944</v>
-      </c>
-      <c r="G185" t="n">
-        <v>954.6833333333333</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J185" t="n">
-        <v>219</v>
-      </c>
-      <c r="K185" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L185" t="n">
-        <v>952.4</v>
-      </c>
-      <c r="M185" t="n">
-        <v>951.4</v>
-      </c>
-      <c r="N185" t="n">
-        <v>951.4333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>955</v>
-      </c>
-      <c r="C186" t="n">
-        <v>955</v>
-      </c>
-      <c r="D186" t="n">
-        <v>955</v>
-      </c>
-      <c r="E186" t="n">
-        <v>955</v>
-      </c>
-      <c r="F186" t="n">
-        <v>463.448</v>
-      </c>
-      <c r="G186" t="n">
-        <v>954.5833333333334</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J186" t="n">
-        <v>219</v>
-      </c>
-      <c r="K186" t="n">
-        <v>80</v>
-      </c>
-      <c r="L186" t="n">
-        <v>952.8</v>
-      </c>
-      <c r="M186" t="n">
-        <v>951.6</v>
-      </c>
-      <c r="N186" t="n">
-        <v>951.5333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>951</v>
-      </c>
-      <c r="C187" t="n">
-        <v>951</v>
-      </c>
-      <c r="D187" t="n">
-        <v>951</v>
-      </c>
-      <c r="E187" t="n">
-        <v>951</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2.351</v>
-      </c>
-      <c r="G187" t="n">
-        <v>954.4166666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J187" t="n">
-        <v>223</v>
-      </c>
-      <c r="K187" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L187" t="n">
-        <v>953.2</v>
-      </c>
-      <c r="M187" t="n">
-        <v>951.6</v>
-      </c>
-      <c r="N187" t="n">
-        <v>951.5</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>951</v>
-      </c>
-      <c r="C188" t="n">
-        <v>951</v>
-      </c>
-      <c r="D188" t="n">
-        <v>951</v>
-      </c>
-      <c r="E188" t="n">
-        <v>951</v>
-      </c>
-      <c r="F188" t="n">
-        <v>37.6669</v>
-      </c>
-      <c r="G188" t="n">
-        <v>954.3</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J188" t="n">
-        <v>223</v>
-      </c>
-      <c r="K188" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L188" t="n">
-        <v>953.3</v>
-      </c>
-      <c r="M188" t="n">
-        <v>951.7</v>
-      </c>
-      <c r="N188" t="n">
-        <v>951.4666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5701,20 +5701,14 @@
         <v>959.75</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>952</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,20 +5736,14 @@
         <v>959.6333333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>953</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5783,20 +5771,14 @@
         <v>959.5</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>952</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5824,20 +5806,14 @@
         <v>959.3333333333334</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>952</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5873,12 +5849,10 @@
       <c r="J156" t="n">
         <v>952</v>
       </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="n">
+        <v>952</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5914,10 +5888,12 @@
       <c r="J157" t="n">
         <v>952</v>
       </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>952</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -5955,10 +5931,12 @@
       <c r="J158" t="n">
         <v>952</v>
       </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>952</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -5996,12 +5974,10 @@
       <c r="J159" t="n">
         <v>952</v>
       </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="n">
+        <v>952</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6037,10 +6013,12 @@
       <c r="J160" t="n">
         <v>952</v>
       </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>952</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -6076,12 +6054,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>950</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K161" t="n">
+        <v>952</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -6119,12 +6099,10 @@
       <c r="J162" t="n">
         <v>950</v>
       </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="n">
+        <v>950</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6158,12 +6136,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>952</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+        <v>950</v>
+      </c>
+      <c r="K163" t="n">
+        <v>950</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M163" t="n">
@@ -6193,18 +6173,18 @@
         <v>957.9666666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>951</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>950</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M164" t="n">
@@ -6234,20 +6214,14 @@
         <v>957.8333333333334</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>952</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6275,20 +6249,14 @@
         <v>957.7</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>951</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6316,20 +6284,14 @@
         <v>957.5</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>951</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="D2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="F2" t="n">
-        <v>46.3999</v>
+        <v>32.3571</v>
       </c>
       <c r="G2" t="n">
-        <v>970.15</v>
+        <v>969.5833333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -480,10 +480,10 @@
         <v>970</v>
       </c>
       <c r="F3" t="n">
-        <v>166.4948</v>
+        <v>46.3999</v>
       </c>
       <c r="G3" t="n">
-        <v>970.55</v>
+        <v>970.15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="F4" t="n">
-        <v>5.4968</v>
+        <v>166.4948</v>
       </c>
       <c r="G4" t="n">
-        <v>970.8333333333334</v>
+        <v>970.55</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F5" t="n">
-        <v>3.2252</v>
+        <v>5.4968</v>
       </c>
       <c r="G5" t="n">
-        <v>970.95</v>
+        <v>970.8333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F6" t="n">
-        <v>2.0513</v>
+        <v>3.2252</v>
       </c>
       <c r="G6" t="n">
-        <v>971.1333333333333</v>
+        <v>970.95</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F7" t="n">
-        <v>66.04049999999999</v>
+        <v>2.0513</v>
       </c>
       <c r="G7" t="n">
-        <v>971.3</v>
+        <v>971.1333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>972</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1796</v>
+        <v>66.04049999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>971.1333333333333</v>
+        <v>971.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C9" t="n">
         <v>972</v>
@@ -687,13 +687,13 @@
         <v>972</v>
       </c>
       <c r="E9" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F9" t="n">
-        <v>171.6203</v>
+        <v>1.1796</v>
       </c>
       <c r="G9" t="n">
-        <v>971.2666666666667</v>
+        <v>971.1333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>971</v>
       </c>
       <c r="C10" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D10" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E10" t="n">
         <v>971</v>
       </c>
       <c r="F10" t="n">
-        <v>48.1576</v>
+        <v>171.6203</v>
       </c>
       <c r="G10" t="n">
-        <v>971.35</v>
+        <v>971.2666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F11" t="n">
-        <v>62.6</v>
+        <v>48.1576</v>
       </c>
       <c r="G11" t="n">
-        <v>971.3666666666667</v>
+        <v>971.35</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F12" t="n">
-        <v>4.452</v>
+        <v>62.6</v>
       </c>
       <c r="G12" t="n">
         <v>971.3666666666667</v>
@@ -830,7 +830,7 @@
         <v>967</v>
       </c>
       <c r="F13" t="n">
-        <v>248.9999</v>
+        <v>4.452</v>
       </c>
       <c r="G13" t="n">
         <v>971.3666666666667</v>
@@ -856,28 +856,32 @@
         <v>967</v>
       </c>
       <c r="C14" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D14" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E14" t="n">
         <v>967</v>
       </c>
       <c r="F14" t="n">
-        <v>46.0319</v>
+        <v>248.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>971.4166666666666</v>
+        <v>971.3666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>967</v>
+      </c>
+      <c r="K14" t="n">
+        <v>967</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -888,7 +892,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C15" t="n">
         <v>970</v>
@@ -897,23 +901,31 @@
         <v>970</v>
       </c>
       <c r="E15" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F15" t="n">
-        <v>75.3878</v>
+        <v>46.0319</v>
       </c>
       <c r="G15" t="n">
-        <v>971.5166666666667</v>
+        <v>971.4166666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>967</v>
+      </c>
+      <c r="K15" t="n">
+        <v>967</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +935,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F16" t="n">
-        <v>331.9151</v>
+        <v>75.3878</v>
       </c>
       <c r="G16" t="n">
-        <v>971.5333333333333</v>
+        <v>971.5166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>967</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -961,19 +979,19 @@
         <v>969</v>
       </c>
       <c r="C17" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D17" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E17" t="n">
         <v>969</v>
       </c>
       <c r="F17" t="n">
-        <v>182.5151</v>
+        <v>331.9151</v>
       </c>
       <c r="G17" t="n">
-        <v>971.5833333333334</v>
+        <v>971.5333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>967</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1017,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>969</v>
+      </c>
+      <c r="C18" t="n">
         <v>970</v>
       </c>
-      <c r="C18" t="n">
-        <v>972</v>
-      </c>
       <c r="D18" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E18" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F18" t="n">
-        <v>2283.3138</v>
+        <v>182.5151</v>
       </c>
       <c r="G18" t="n">
-        <v>971.65</v>
+        <v>971.5833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>967</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C19" t="n">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="D19" t="n">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="E19" t="n">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F19" t="n">
-        <v>42.8</v>
+        <v>2283.3138</v>
       </c>
       <c r="G19" t="n">
-        <v>971.5666666666667</v>
+        <v>971.65</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1082,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>967</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1099,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C20" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D20" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E20" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F20" t="n">
-        <v>272.0388</v>
+        <v>42.8</v>
       </c>
       <c r="G20" t="n">
-        <v>971.4166666666666</v>
+        <v>971.5666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1123,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>967</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1140,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C21" t="n">
         <v>965</v>
       </c>
       <c r="D21" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E21" t="n">
         <v>965</v>
       </c>
       <c r="F21" t="n">
-        <v>113.44</v>
+        <v>272.0388</v>
       </c>
       <c r="G21" t="n">
-        <v>971.2666666666667</v>
+        <v>971.4166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1164,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>967</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1145,10 +1193,10 @@
         <v>965</v>
       </c>
       <c r="F22" t="n">
-        <v>5124.6505</v>
+        <v>113.44</v>
       </c>
       <c r="G22" t="n">
-        <v>971.1166666666667</v>
+        <v>971.2666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1205,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>967</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1222,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>5124.6505</v>
       </c>
       <c r="G23" t="n">
-        <v>970.8833333333333</v>
+        <v>971.1166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1246,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>967</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1263,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C24" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D24" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E24" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F24" t="n">
-        <v>102.8414</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>970.7333333333333</v>
+        <v>970.8833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1287,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>967</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,7 +1304,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C25" t="n">
         <v>965</v>
@@ -1247,13 +1313,13 @@
         <v>965</v>
       </c>
       <c r="E25" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F25" t="n">
-        <v>142.5</v>
+        <v>102.8414</v>
       </c>
       <c r="G25" t="n">
-        <v>970.5833333333334</v>
+        <v>970.7333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1328,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>967</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1345,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="F26" t="n">
-        <v>119.5177</v>
+        <v>142.5</v>
       </c>
       <c r="G26" t="n">
-        <v>970.35</v>
+        <v>970.5833333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1369,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>967</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,10 +1398,10 @@
         <v>961</v>
       </c>
       <c r="F27" t="n">
-        <v>360.2758</v>
+        <v>119.5177</v>
       </c>
       <c r="G27" t="n">
-        <v>970.1333333333333</v>
+        <v>970.35</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1410,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>967</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1346,19 +1430,19 @@
         <v>961</v>
       </c>
       <c r="C28" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D28" t="n">
         <v>961</v>
       </c>
       <c r="E28" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F28" t="n">
-        <v>1635.6548</v>
+        <v>360.2758</v>
       </c>
       <c r="G28" t="n">
-        <v>969.8666666666667</v>
+        <v>970.1333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1451,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>967</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1468,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C29" t="n">
         <v>960</v>
       </c>
       <c r="D29" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E29" t="n">
         <v>960</v>
       </c>
       <c r="F29" t="n">
-        <v>385.8622</v>
+        <v>1635.6548</v>
       </c>
       <c r="G29" t="n">
-        <v>969.6166666666667</v>
+        <v>969.8666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1492,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>967</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1416,19 +1512,19 @@
         <v>963</v>
       </c>
       <c r="C30" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D30" t="n">
         <v>963</v>
       </c>
       <c r="E30" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F30" t="n">
-        <v>16.2678</v>
+        <v>385.8622</v>
       </c>
       <c r="G30" t="n">
-        <v>969.4166666666666</v>
+        <v>969.6166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1533,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>967</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1460,10 +1562,10 @@
         <v>963</v>
       </c>
       <c r="F31" t="n">
-        <v>38.15</v>
+        <v>16.2678</v>
       </c>
       <c r="G31" t="n">
-        <v>969.2833333333333</v>
+        <v>969.4166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1574,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>967</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1603,10 @@
         <v>963</v>
       </c>
       <c r="F32" t="n">
-        <v>1.3032</v>
+        <v>38.15</v>
       </c>
       <c r="G32" t="n">
-        <v>969.2666666666667</v>
+        <v>969.2833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1615,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>967</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1644,10 @@
         <v>963</v>
       </c>
       <c r="F33" t="n">
-        <v>28.9496</v>
+        <v>1.3032</v>
       </c>
       <c r="G33" t="n">
-        <v>969.25</v>
+        <v>969.2666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1656,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>967</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1676,19 @@
         <v>963</v>
       </c>
       <c r="C34" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D34" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E34" t="n">
         <v>963</v>
       </c>
       <c r="F34" t="n">
-        <v>139.5</v>
+        <v>28.9496</v>
       </c>
       <c r="G34" t="n">
-        <v>969.2666666666667</v>
+        <v>969.25</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1697,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>967</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1714,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C35" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D35" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E35" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F35" t="n">
-        <v>26.5249</v>
+        <v>139.5</v>
       </c>
       <c r="G35" t="n">
-        <v>969.2166666666667</v>
+        <v>969.2666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1738,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>967</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1626,19 +1758,19 @@
         <v>961</v>
       </c>
       <c r="C36" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D36" t="n">
         <v>961</v>
       </c>
       <c r="E36" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F36" t="n">
-        <v>11.3402</v>
+        <v>26.5249</v>
       </c>
       <c r="G36" t="n">
-        <v>969.15</v>
+        <v>969.2166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1779,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>967</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1796,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C37" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D37" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E37" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F37" t="n">
-        <v>1528.2473</v>
+        <v>11.3402</v>
       </c>
       <c r="G37" t="n">
-        <v>969.0333333333333</v>
+        <v>969.15</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1820,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>967</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1840,19 @@
         <v>959</v>
       </c>
       <c r="C38" t="n">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D38" t="n">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E38" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F38" t="n">
-        <v>384.9122</v>
+        <v>1528.2473</v>
       </c>
       <c r="G38" t="n">
-        <v>969.0166666666667</v>
+        <v>969.0333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1861,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>967</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,7 +1878,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C39" t="n">
         <v>964</v>
@@ -1737,13 +1887,13 @@
         <v>964</v>
       </c>
       <c r="E39" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F39" t="n">
-        <v>76.2025</v>
+        <v>384.9122</v>
       </c>
       <c r="G39" t="n">
-        <v>969</v>
+        <v>969.0166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1902,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>967</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1919,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C40" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D40" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="E40" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F40" t="n">
-        <v>1.2999</v>
+        <v>76.2025</v>
       </c>
       <c r="G40" t="n">
-        <v>968.8333333333334</v>
+        <v>969</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1943,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>967</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1963,19 @@
         <v>960</v>
       </c>
       <c r="C41" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D41" t="n">
         <v>960</v>
       </c>
       <c r="E41" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F41" t="n">
-        <v>420.9377</v>
+        <v>1.2999</v>
       </c>
       <c r="G41" t="n">
-        <v>968.5833333333334</v>
+        <v>968.8333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1984,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>967</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +2001,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C42" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D42" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E42" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0772</v>
+        <v>420.9377</v>
       </c>
       <c r="G42" t="n">
-        <v>968.3333333333334</v>
+        <v>968.5833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +2025,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>967</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1871,19 +2045,19 @@
         <v>959</v>
       </c>
       <c r="C43" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D43" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E43" t="n">
         <v>959</v>
       </c>
       <c r="F43" t="n">
-        <v>2733.3036</v>
+        <v>1.0772</v>
       </c>
       <c r="G43" t="n">
-        <v>968.0833333333334</v>
+        <v>968.3333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +2066,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>967</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +2083,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C44" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D44" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E44" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F44" t="n">
-        <v>1949.6668</v>
+        <v>2733.3036</v>
       </c>
       <c r="G44" t="n">
-        <v>967.9</v>
+        <v>968.0833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2107,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>967</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2124,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C45" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D45" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E45" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F45" t="n">
-        <v>5.6765</v>
+        <v>1949.6668</v>
       </c>
       <c r="G45" t="n">
-        <v>967.7333333333333</v>
+        <v>967.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2148,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>967</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2165,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C46" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D46" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E46" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F46" t="n">
-        <v>2751.129</v>
+        <v>5.6765</v>
       </c>
       <c r="G46" t="n">
-        <v>967.45</v>
+        <v>967.7333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2189,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>967</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2011,19 +2209,19 @@
         <v>961</v>
       </c>
       <c r="C47" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D47" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E47" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F47" t="n">
-        <v>39.7808</v>
+        <v>2751.129</v>
       </c>
       <c r="G47" t="n">
-        <v>967.15</v>
+        <v>967.45</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2230,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>967</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2247,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F48" t="n">
-        <v>1110</v>
+        <v>39.7808</v>
       </c>
       <c r="G48" t="n">
-        <v>966.85</v>
+        <v>967.15</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2271,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>967</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2288,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F49" t="n">
-        <v>5436.4826</v>
+        <v>1110</v>
       </c>
       <c r="G49" t="n">
-        <v>966.65</v>
+        <v>966.85</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2312,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>967</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2329,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C50" t="n">
         <v>959</v>
       </c>
       <c r="D50" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E50" t="n">
         <v>959</v>
       </c>
       <c r="F50" t="n">
-        <v>1975.2209</v>
+        <v>5436.4826</v>
       </c>
       <c r="G50" t="n">
-        <v>966.4</v>
+        <v>966.65</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2353,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>967</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2370,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C51" t="n">
         <v>959</v>
       </c>
       <c r="D51" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E51" t="n">
         <v>959</v>
       </c>
       <c r="F51" t="n">
-        <v>1.7847</v>
+        <v>1975.2209</v>
       </c>
       <c r="G51" t="n">
-        <v>966.2</v>
+        <v>966.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2394,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>967</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2423,10 @@
         <v>959</v>
       </c>
       <c r="F52" t="n">
-        <v>476.4497</v>
+        <v>1.7847</v>
       </c>
       <c r="G52" t="n">
-        <v>965.95</v>
+        <v>966.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2435,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>967</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2452,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F53" t="n">
-        <v>49.1589</v>
+        <v>476.4497</v>
       </c>
       <c r="G53" t="n">
-        <v>965.8</v>
+        <v>965.95</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>967</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2505,10 @@
         <v>961</v>
       </c>
       <c r="F54" t="n">
-        <v>343.2705</v>
+        <v>49.1589</v>
       </c>
       <c r="G54" t="n">
-        <v>965.65</v>
+        <v>965.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2517,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>967</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2546,10 @@
         <v>961</v>
       </c>
       <c r="F55" t="n">
-        <v>827.2997</v>
+        <v>343.2705</v>
       </c>
       <c r="G55" t="n">
-        <v>965.5</v>
+        <v>965.65</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>967</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,10 +2587,10 @@
         <v>961</v>
       </c>
       <c r="F56" t="n">
-        <v>438.8095</v>
+        <v>827.2997</v>
       </c>
       <c r="G56" t="n">
-        <v>965.35</v>
+        <v>965.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2599,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>967</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2616,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C57" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D57" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E57" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="F57" t="n">
-        <v>6459.3</v>
+        <v>438.8095</v>
       </c>
       <c r="G57" t="n">
-        <v>965.15</v>
+        <v>965.35</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>967</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2657,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C58" t="n">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="D58" t="n">
         <v>960</v>
       </c>
       <c r="E58" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F58" t="n">
-        <v>10229.2744</v>
+        <v>6459.3</v>
       </c>
       <c r="G58" t="n">
-        <v>964.7166666666667</v>
+        <v>965.15</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2681,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>967</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2698,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>959</v>
+      </c>
+      <c r="C59" t="n">
         <v>954</v>
       </c>
-      <c r="C59" t="n">
-        <v>960</v>
-      </c>
       <c r="D59" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E59" t="n">
         <v>954</v>
       </c>
       <c r="F59" t="n">
-        <v>4602.8805</v>
+        <v>10229.2744</v>
       </c>
       <c r="G59" t="n">
-        <v>964.3833333333333</v>
+        <v>964.7166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2722,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>967</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,7 +2739,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C60" t="n">
         <v>960</v>
@@ -2472,13 +2748,13 @@
         <v>962</v>
       </c>
       <c r="E60" t="n">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F60" t="n">
-        <v>3401.8626</v>
+        <v>4602.8805</v>
       </c>
       <c r="G60" t="n">
-        <v>964.05</v>
+        <v>964.3833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2763,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>967</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2780,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C61" t="n">
         <v>960</v>
       </c>
       <c r="D61" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E61" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F61" t="n">
-        <v>511.1814</v>
+        <v>3401.8626</v>
       </c>
       <c r="G61" t="n">
-        <v>963.8333333333334</v>
+        <v>964.05</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2804,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>967</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2833,10 @@
         <v>960</v>
       </c>
       <c r="F62" t="n">
-        <v>258.6871</v>
+        <v>511.1814</v>
       </c>
       <c r="G62" t="n">
-        <v>963.6666666666666</v>
+        <v>963.8333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2845,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>967</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2862,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F63" t="n">
-        <v>3.1832</v>
+        <v>258.6871</v>
       </c>
       <c r="G63" t="n">
-        <v>963.4666666666667</v>
+        <v>963.6666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2886,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>967</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2903,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F64" t="n">
-        <v>160.3678</v>
+        <v>3.1832</v>
       </c>
       <c r="G64" t="n">
-        <v>963.3333333333334</v>
+        <v>963.4666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>967</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2944,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C65" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D65" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E65" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F65" t="n">
-        <v>1050.7436</v>
+        <v>160.3678</v>
       </c>
       <c r="G65" t="n">
-        <v>963.1833333333333</v>
+        <v>963.3333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>967</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2988,19 @@
         <v>961</v>
       </c>
       <c r="C66" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D66" t="n">
         <v>961</v>
       </c>
       <c r="E66" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F66" t="n">
-        <v>342.6865</v>
+        <v>1050.7436</v>
       </c>
       <c r="G66" t="n">
-        <v>962.9833333333333</v>
+        <v>963.1833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +3009,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>967</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2711,19 +3029,19 @@
         <v>961</v>
       </c>
       <c r="C67" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D67" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E67" t="n">
         <v>961</v>
       </c>
       <c r="F67" t="n">
-        <v>1691.9061</v>
+        <v>342.6865</v>
       </c>
       <c r="G67" t="n">
-        <v>962.8166666666667</v>
+        <v>962.9833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>967</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,7 +3067,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C68" t="n">
         <v>962</v>
@@ -2752,13 +3076,13 @@
         <v>962</v>
       </c>
       <c r="E68" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1691.9061</v>
       </c>
       <c r="G68" t="n">
-        <v>962.65</v>
+        <v>962.8166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +3091,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>967</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3108,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F69" t="n">
-        <v>910.4103</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>962.4666666666667</v>
+        <v>962.65</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3132,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>967</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +3161,10 @@
         <v>961</v>
       </c>
       <c r="F70" t="n">
-        <v>171.806</v>
+        <v>910.4103</v>
       </c>
       <c r="G70" t="n">
-        <v>962.3</v>
+        <v>962.4666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3173,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>967</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +3202,10 @@
         <v>961</v>
       </c>
       <c r="F71" t="n">
-        <v>12.6413</v>
+        <v>171.806</v>
       </c>
       <c r="G71" t="n">
-        <v>962.1833333333333</v>
+        <v>962.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3214,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>967</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3243,10 @@
         <v>961</v>
       </c>
       <c r="F72" t="n">
-        <v>46.7896</v>
+        <v>12.6413</v>
       </c>
       <c r="G72" t="n">
-        <v>962.0833333333334</v>
+        <v>962.1833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3255,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>967</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +3284,10 @@
         <v>961</v>
       </c>
       <c r="F73" t="n">
-        <v>174.9233</v>
+        <v>46.7896</v>
       </c>
       <c r="G73" t="n">
-        <v>961.9833333333333</v>
+        <v>962.0833333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>967</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3313,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>174.9233</v>
       </c>
       <c r="G74" t="n">
-        <v>961.85</v>
+        <v>961.9833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>967</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,10 +3366,10 @@
         <v>962</v>
       </c>
       <c r="F75" t="n">
-        <v>181.0859</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>961.7166666666667</v>
+        <v>961.85</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3378,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>967</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3395,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F76" t="n">
-        <v>450</v>
+        <v>181.0859</v>
       </c>
       <c r="G76" t="n">
-        <v>961.5833333333334</v>
+        <v>961.7166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3419,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>967</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3448,10 @@
         <v>961</v>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="G77" t="n">
-        <v>961.4333333333333</v>
+        <v>961.5833333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>967</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3489,10 @@
         <v>961</v>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>961.25</v>
+        <v>961.4333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3501,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>967</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3518,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F79" t="n">
         <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>961.1166666666667</v>
+        <v>961.25</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3542,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>967</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3571,10 @@
         <v>960</v>
       </c>
       <c r="F80" t="n">
-        <v>8.305400000000001</v>
+        <v>500</v>
       </c>
       <c r="G80" t="n">
-        <v>961.0333333333333</v>
+        <v>961.1166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3583,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>967</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3612,10 @@
         <v>960</v>
       </c>
       <c r="F81" t="n">
-        <v>64.9418</v>
+        <v>8.305400000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>960.95</v>
+        <v>961.0333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3624,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>967</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3653,10 @@
         <v>960</v>
       </c>
       <c r="F82" t="n">
-        <v>288.9365</v>
+        <v>64.9418</v>
       </c>
       <c r="G82" t="n">
-        <v>960.8666666666667</v>
+        <v>960.95</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3665,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>967</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3271,19 +3685,19 @@
         <v>960</v>
       </c>
       <c r="C83" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D83" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E83" t="n">
         <v>960</v>
       </c>
       <c r="F83" t="n">
-        <v>224.6161</v>
+        <v>288.9365</v>
       </c>
       <c r="G83" t="n">
-        <v>960.8833333333333</v>
+        <v>960.8666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3706,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>967</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3723,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C84" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D84" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E84" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F84" t="n">
-        <v>195.9564</v>
+        <v>224.6161</v>
       </c>
       <c r="G84" t="n">
-        <v>960.8333333333334</v>
+        <v>960.8833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>967</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3776,10 @@
         <v>962</v>
       </c>
       <c r="F85" t="n">
-        <v>1089.6797</v>
+        <v>195.9564</v>
       </c>
       <c r="G85" t="n">
-        <v>960.7833333333333</v>
+        <v>960.8333333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3788,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>967</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3817,10 @@
         <v>962</v>
       </c>
       <c r="F86" t="n">
-        <v>2.3</v>
+        <v>1089.6797</v>
       </c>
       <c r="G86" t="n">
-        <v>960.8</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3829,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>967</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3858,10 @@
         <v>962</v>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>2.3</v>
       </c>
       <c r="G87" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>967</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3887,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F88" t="n">
-        <v>1.2</v>
+        <v>500</v>
       </c>
       <c r="G88" t="n">
-        <v>960.8666666666667</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>967</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,19 +3928,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F89" t="n">
-        <v>40.5749</v>
+        <v>1.2</v>
       </c>
       <c r="G89" t="n">
         <v>960.8666666666667</v>
@@ -3502,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>967</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3981,10 @@
         <v>960</v>
       </c>
       <c r="F90" t="n">
-        <v>1088.5737</v>
+        <v>40.5749</v>
       </c>
       <c r="G90" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>967</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +4022,10 @@
         <v>960</v>
       </c>
       <c r="F91" t="n">
-        <v>569.2968</v>
+        <v>1088.5737</v>
       </c>
       <c r="G91" t="n">
-        <v>960.7666666666667</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>967</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +4063,10 @@
         <v>960</v>
       </c>
       <c r="F92" t="n">
-        <v>33.5</v>
+        <v>569.2968</v>
       </c>
       <c r="G92" t="n">
-        <v>960.7166666666667</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +4075,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>967</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +4104,10 @@
         <v>960</v>
       </c>
       <c r="F93" t="n">
-        <v>23.8018</v>
+        <v>33.5</v>
       </c>
       <c r="G93" t="n">
-        <v>960.6666666666666</v>
+        <v>960.7166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>967</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3665,10 +4145,10 @@
         <v>960</v>
       </c>
       <c r="F94" t="n">
-        <v>136.8476</v>
+        <v>23.8018</v>
       </c>
       <c r="G94" t="n">
-        <v>960.5833333333334</v>
+        <v>960.6666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>967</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +4174,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C95" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D95" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E95" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F95" t="n">
-        <v>1817.246</v>
+        <v>136.8476</v>
       </c>
       <c r="G95" t="n">
-        <v>960.6</v>
+        <v>960.5833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>967</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,19 +4215,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C96" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D96" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E96" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F96" t="n">
-        <v>501.3056</v>
+        <v>1817.246</v>
       </c>
       <c r="G96" t="n">
         <v>960.6</v>
@@ -3747,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>967</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,19 +4256,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F97" t="n">
-        <v>99.75</v>
+        <v>501.3056</v>
       </c>
       <c r="G97" t="n">
         <v>960.6</v>
@@ -3782,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>967</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4297,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F98" t="n">
-        <v>35.8442</v>
+        <v>99.75</v>
       </c>
       <c r="G98" t="n">
-        <v>960.55</v>
+        <v>960.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4321,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>967</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +4350,10 @@
         <v>961</v>
       </c>
       <c r="F99" t="n">
-        <v>5.965</v>
+        <v>35.8442</v>
       </c>
       <c r="G99" t="n">
-        <v>960.5</v>
+        <v>960.55</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4362,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>967</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +4391,10 @@
         <v>961</v>
       </c>
       <c r="F100" t="n">
-        <v>44.3</v>
+        <v>5.965</v>
       </c>
       <c r="G100" t="n">
-        <v>960.5166666666667</v>
+        <v>960.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4403,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>967</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4420,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>44.3</v>
       </c>
       <c r="G101" t="n">
-        <v>960.5333333333333</v>
+        <v>960.5166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>967</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +4464,19 @@
         <v>959</v>
       </c>
       <c r="C102" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D102" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E102" t="n">
         <v>959</v>
       </c>
       <c r="F102" t="n">
-        <v>459.5688</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>960.5666666666667</v>
+        <v>960.5333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>967</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4502,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C103" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D103" t="n">
         <v>962</v>
       </c>
       <c r="E103" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F103" t="n">
-        <v>710.4184</v>
+        <v>459.5688</v>
       </c>
       <c r="G103" t="n">
-        <v>960.55</v>
+        <v>960.5666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>967</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,7 +4543,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C104" t="n">
         <v>962</v>
@@ -4012,13 +4552,13 @@
         <v>962</v>
       </c>
       <c r="E104" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F104" t="n">
-        <v>916.3987</v>
+        <v>710.4184</v>
       </c>
       <c r="G104" t="n">
-        <v>960.5166666666667</v>
+        <v>960.55</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>967</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4584,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F105" t="n">
-        <v>30</v>
+        <v>916.3987</v>
       </c>
       <c r="G105" t="n">
-        <v>960.4666666666667</v>
+        <v>960.5166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4608,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>967</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4076,19 +4628,19 @@
         <v>960</v>
       </c>
       <c r="C106" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D106" t="n">
         <v>960</v>
       </c>
       <c r="E106" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F106" t="n">
-        <v>573.5309</v>
+        <v>30</v>
       </c>
       <c r="G106" t="n">
-        <v>960.45</v>
+        <v>960.4666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>967</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4666,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C107" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D107" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E107" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>573.5309</v>
       </c>
       <c r="G107" t="n">
-        <v>960.4833333333333</v>
+        <v>960.45</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>967</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4707,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C108" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D108" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E108" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F108" t="n">
-        <v>817.1108</v>
+        <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>960.5666666666667</v>
+        <v>960.4833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>967</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,7 +4748,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C109" t="n">
         <v>965</v>
@@ -4187,13 +4757,13 @@
         <v>965</v>
       </c>
       <c r="E109" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F109" t="n">
-        <v>134.2638</v>
+        <v>817.1108</v>
       </c>
       <c r="G109" t="n">
-        <v>960.6666666666666</v>
+        <v>960.5666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>967</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4225,20 +4801,26 @@
         <v>965</v>
       </c>
       <c r="F110" t="n">
-        <v>114.743</v>
+        <v>134.2638</v>
       </c>
       <c r="G110" t="n">
-        <v>960.7666666666667</v>
+        <v>960.6666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>967</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4830,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="F111" t="n">
-        <v>34.7394</v>
+        <v>114.743</v>
       </c>
       <c r="G111" t="n">
-        <v>960.8</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,10 +4854,16 @@
         <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>967</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>0.9929317476732161</v>
       </c>
     </row>
     <row r="112">
@@ -4283,22 +4871,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F112" t="n">
-        <v>29.925</v>
+        <v>34.7394</v>
       </c>
       <c r="G112" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,16 +4918,16 @@
         <v>960</v>
       </c>
       <c r="F113" t="n">
-        <v>102.7337</v>
+        <v>29.925</v>
       </c>
       <c r="G113" t="n">
-        <v>960.8</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4353,22 +4941,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F114" t="n">
-        <v>50.2305</v>
+        <v>102.7337</v>
       </c>
       <c r="G114" t="n">
-        <v>960.8333333333334</v>
+        <v>960.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4976,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>50.2305</v>
       </c>
       <c r="G115" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +5014,19 @@
         <v>960</v>
       </c>
       <c r="C116" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D116" t="n">
         <v>960</v>
       </c>
       <c r="E116" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F116" t="n">
-        <v>2257.4666</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>960.7666666666667</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +5046,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C117" t="n">
         <v>958</v>
       </c>
       <c r="D117" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E117" t="n">
         <v>958</v>
       </c>
       <c r="F117" t="n">
-        <v>866</v>
+        <v>2257.4666</v>
       </c>
       <c r="G117" t="n">
-        <v>960.7333333333333</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +5084,19 @@
         <v>958</v>
       </c>
       <c r="C118" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D118" t="n">
         <v>958</v>
       </c>
       <c r="E118" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F118" t="n">
-        <v>4415</v>
+        <v>866</v>
       </c>
       <c r="G118" t="n">
-        <v>960.7833333333333</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +5116,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C119" t="n">
         <v>957</v>
       </c>
       <c r="D119" t="n">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E119" t="n">
         <v>957</v>
       </c>
       <c r="F119" t="n">
-        <v>1910.5423</v>
+        <v>4415</v>
       </c>
       <c r="G119" t="n">
-        <v>960.7333333333333</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +5151,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C120" t="n">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D120" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E120" t="n">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F120" t="n">
-        <v>2515.8369</v>
+        <v>1910.5423</v>
       </c>
       <c r="G120" t="n">
-        <v>960.7166666666667</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +5186,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C121" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D121" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E121" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F121" t="n">
-        <v>4070.038</v>
+        <v>2515.8369</v>
       </c>
       <c r="G121" t="n">
-        <v>960.75</v>
+        <v>960.7166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,7 +5221,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C122" t="n">
         <v>962</v>
@@ -4642,13 +5230,13 @@
         <v>962</v>
       </c>
       <c r="E122" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F122" t="n">
-        <v>9.5448</v>
+        <v>4070.038</v>
       </c>
       <c r="G122" t="n">
-        <v>960.7833333333333</v>
+        <v>960.75</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +5256,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F123" t="n">
-        <v>74.3319</v>
+        <v>9.5448</v>
       </c>
       <c r="G123" t="n">
-        <v>960.8333333333334</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +5291,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F124" t="n">
-        <v>366.7701</v>
+        <v>74.3319</v>
       </c>
       <c r="G124" t="n">
-        <v>960.8833333333333</v>
+        <v>960.8333333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,19 +5326,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C125" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D125" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E125" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F125" t="n">
-        <v>400.0618</v>
+        <v>366.7701</v>
       </c>
       <c r="G125" t="n">
         <v>960.8833333333333</v>
@@ -4776,16 +5364,16 @@
         <v>961</v>
       </c>
       <c r="C126" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D126" t="n">
         <v>961</v>
       </c>
       <c r="E126" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F126" t="n">
-        <v>803.8224</v>
+        <v>400.0618</v>
       </c>
       <c r="G126" t="n">
         <v>960.8833333333333</v>
@@ -4820,10 +5408,10 @@
         <v>961</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>803.8224</v>
       </c>
       <c r="G127" t="n">
-        <v>960.8666666666667</v>
+        <v>960.8833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5431,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F128" t="n">
-        <v>1.8296</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>960.8</v>
+        <v>960.8666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +5478,10 @@
         <v>958</v>
       </c>
       <c r="F129" t="n">
-        <v>4407.7383</v>
+        <v>1.8296</v>
       </c>
       <c r="G129" t="n">
-        <v>960.75</v>
+        <v>960.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +5501,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C130" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D130" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E130" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F130" t="n">
-        <v>125.0985</v>
+        <v>4407.7383</v>
       </c>
       <c r="G130" t="n">
-        <v>960.7666666666667</v>
+        <v>960.75</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,16 +5539,16 @@
         <v>961</v>
       </c>
       <c r="C131" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D131" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E131" t="n">
         <v>961</v>
       </c>
       <c r="F131" t="n">
-        <v>436.6337</v>
+        <v>125.0985</v>
       </c>
       <c r="G131" t="n">
         <v>960.7666666666667</v>
@@ -4995,7 +5583,7 @@
         <v>961</v>
       </c>
       <c r="F132" t="n">
-        <v>130.8192</v>
+        <v>436.6337</v>
       </c>
       <c r="G132" t="n">
         <v>960.7666666666667</v>
@@ -5030,7 +5618,7 @@
         <v>961</v>
       </c>
       <c r="F133" t="n">
-        <v>2046.8227</v>
+        <v>130.8192</v>
       </c>
       <c r="G133" t="n">
         <v>960.7666666666667</v>
@@ -5065,10 +5653,10 @@
         <v>961</v>
       </c>
       <c r="F134" t="n">
-        <v>236.4</v>
+        <v>2046.8227</v>
       </c>
       <c r="G134" t="n">
-        <v>960.75</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5688,10 @@
         <v>961</v>
       </c>
       <c r="F135" t="n">
-        <v>95.5247</v>
+        <v>236.4</v>
       </c>
       <c r="G135" t="n">
-        <v>960.7333333333333</v>
+        <v>960.75</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,7 +5723,7 @@
         <v>961</v>
       </c>
       <c r="F136" t="n">
-        <v>24.9976</v>
+        <v>95.5247</v>
       </c>
       <c r="G136" t="n">
         <v>960.7333333333333</v>
@@ -5170,7 +5758,7 @@
         <v>961</v>
       </c>
       <c r="F137" t="n">
-        <v>8.4659</v>
+        <v>24.9976</v>
       </c>
       <c r="G137" t="n">
         <v>960.7333333333333</v>
@@ -5196,19 +5784,19 @@
         <v>961</v>
       </c>
       <c r="C138" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D138" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E138" t="n">
         <v>961</v>
       </c>
       <c r="F138" t="n">
-        <v>1224.0701</v>
+        <v>8.4659</v>
       </c>
       <c r="G138" t="n">
-        <v>960.75</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,7 +5816,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C139" t="n">
         <v>962</v>
@@ -5237,13 +5825,13 @@
         <v>962</v>
       </c>
       <c r="E139" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F139" t="n">
-        <v>43.3463</v>
+        <v>1224.0701</v>
       </c>
       <c r="G139" t="n">
-        <v>960.7833333333333</v>
+        <v>960.75</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5863,10 @@
         <v>962</v>
       </c>
       <c r="F140" t="n">
-        <v>23.3905</v>
+        <v>43.3463</v>
       </c>
       <c r="G140" t="n">
-        <v>960.8166666666667</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,19 +5886,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C141" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D141" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E141" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="F141" t="n">
-        <v>153.8247</v>
+        <v>23.3905</v>
       </c>
       <c r="G141" t="n">
         <v>960.8166666666667</v>
@@ -5333,22 +5921,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C142" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D142" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E142" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F142" t="n">
-        <v>27.1748</v>
+        <v>153.8247</v>
       </c>
       <c r="G142" t="n">
-        <v>960.8</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5956,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C143" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D143" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E143" t="n">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F143" t="n">
-        <v>59.9973</v>
+        <v>27.1748</v>
       </c>
       <c r="G143" t="n">
-        <v>960.7833333333333</v>
+        <v>960.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5991,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C144" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D144" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E144" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F144" t="n">
-        <v>10.3732</v>
+        <v>59.9973</v>
       </c>
       <c r="G144" t="n">
-        <v>960.7166666666667</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +6026,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C145" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D145" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E145" t="n">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="F145" t="n">
-        <v>1140.1455</v>
+        <v>10.3732</v>
       </c>
       <c r="G145" t="n">
-        <v>960.6333333333333</v>
+        <v>960.7166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +6061,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C146" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D146" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E146" t="n">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F146" t="n">
-        <v>57.0609</v>
+        <v>1140.1455</v>
       </c>
       <c r="G146" t="n">
-        <v>960.5333333333333</v>
+        <v>960.6333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +6096,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F147" t="n">
-        <v>58.1922</v>
+        <v>57.0609</v>
       </c>
       <c r="G147" t="n">
-        <v>960.4</v>
+        <v>960.5333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +6131,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F148" t="n">
-        <v>918.9503</v>
+        <v>58.1922</v>
       </c>
       <c r="G148" t="n">
-        <v>960.2333333333333</v>
+        <v>960.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +6169,19 @@
         <v>953</v>
       </c>
       <c r="C149" t="n">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D149" t="n">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E149" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F149" t="n">
-        <v>2703.8289</v>
+        <v>918.9503</v>
       </c>
       <c r="G149" t="n">
-        <v>960.15</v>
+        <v>960.2333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +6201,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C150" t="n">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="D150" t="n">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E150" t="n">
         <v>951</v>
       </c>
       <c r="F150" t="n">
-        <v>76.4623</v>
+        <v>2703.8289</v>
       </c>
       <c r="G150" t="n">
-        <v>960</v>
+        <v>960.15</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +6236,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C151" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D151" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E151" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F151" t="n">
-        <v>58.9835</v>
+        <v>76.4623</v>
       </c>
       <c r="G151" t="n">
-        <v>959.8833333333333</v>
+        <v>960</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +6271,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C152" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D152" t="n">
         <v>953</v>
       </c>
       <c r="E152" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F152" t="n">
-        <v>99.226</v>
+        <v>58.9835</v>
       </c>
       <c r="G152" t="n">
-        <v>959.75</v>
+        <v>959.8833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +6306,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C153" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D153" t="n">
         <v>953</v>
       </c>
       <c r="E153" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F153" t="n">
-        <v>151.2417461699895</v>
+        <v>99.226</v>
       </c>
       <c r="G153" t="n">
-        <v>959.6333333333333</v>
+        <v>959.75</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +6341,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F154" t="n">
-        <v>39.6032</v>
+        <v>151.2417461699895</v>
       </c>
       <c r="G154" t="n">
-        <v>959.5</v>
+        <v>959.6333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +6388,10 @@
         <v>952</v>
       </c>
       <c r="F155" t="n">
-        <v>579.8353</v>
+        <v>39.6032</v>
       </c>
       <c r="G155" t="n">
-        <v>959.3333333333334</v>
+        <v>959.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,23 +6423,19 @@
         <v>952</v>
       </c>
       <c r="F156" t="n">
-        <v>596.5214999999999</v>
+        <v>579.8353</v>
       </c>
       <c r="G156" t="n">
-        <v>959.2</v>
+        <v>959.3333333333334</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>952</v>
-      </c>
-      <c r="K156" t="n">
-        <v>952</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
@@ -5874,28 +6458,20 @@
         <v>952</v>
       </c>
       <c r="F157" t="n">
-        <v>167.3635</v>
+        <v>596.5214999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>959.1</v>
+        <v>959.2</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>952</v>
-      </c>
-      <c r="K157" t="n">
-        <v>952</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5917,28 +6493,20 @@
         <v>952</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>167.3635</v>
       </c>
       <c r="G158" t="n">
-        <v>958.95</v>
+        <v>959.1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>952</v>
-      </c>
-      <c r="K158" t="n">
-        <v>952</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5960,23 +6528,19 @@
         <v>952</v>
       </c>
       <c r="F159" t="n">
-        <v>351.4814</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>958.8</v>
+        <v>958.95</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>952</v>
-      </c>
-      <c r="K159" t="n">
-        <v>952</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
@@ -5999,28 +6563,20 @@
         <v>952</v>
       </c>
       <c r="F160" t="n">
-        <v>1078.6336</v>
+        <v>351.4814</v>
       </c>
       <c r="G160" t="n">
-        <v>958.65</v>
+        <v>958.8</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>952</v>
-      </c>
-      <c r="K160" t="n">
-        <v>952</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6030,40 +6586,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F161" t="n">
-        <v>106.9957</v>
+        <v>1078.6336</v>
       </c>
       <c r="G161" t="n">
-        <v>958.5</v>
+        <v>958.65</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>952</v>
-      </c>
-      <c r="K161" t="n">
-        <v>952</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6085,23 +6633,19 @@
         <v>950</v>
       </c>
       <c r="F162" t="n">
-        <v>160.2662</v>
+        <v>106.9957</v>
       </c>
       <c r="G162" t="n">
-        <v>958.3166666666667</v>
+        <v>958.5</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>950</v>
-      </c>
-      <c r="K162" t="n">
-        <v>950</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
@@ -6112,40 +6656,32 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F163" t="n">
-        <v>82.1401</v>
+        <v>160.2662</v>
       </c>
       <c r="G163" t="n">
-        <v>958.15</v>
+        <v>958.3166666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>950</v>
-      </c>
-      <c r="K163" t="n">
-        <v>950</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6155,22 +6691,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F164" t="n">
-        <v>14.0042</v>
+        <v>82.1401</v>
       </c>
       <c r="G164" t="n">
-        <v>957.9666666666667</v>
+        <v>958.15</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6179,14 +6715,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>950</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6196,31 +6726,35 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>951</v>
+      </c>
+      <c r="C165" t="n">
+        <v>951</v>
+      </c>
+      <c r="D165" t="n">
+        <v>951</v>
+      </c>
+      <c r="E165" t="n">
+        <v>951</v>
+      </c>
+      <c r="F165" t="n">
+        <v>14.0042</v>
+      </c>
+      <c r="G165" t="n">
+        <v>957.9666666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
         <v>952</v>
       </c>
-      <c r="C165" t="n">
+      <c r="K165" t="n">
         <v>952</v>
       </c>
-      <c r="D165" t="n">
-        <v>952</v>
-      </c>
-      <c r="E165" t="n">
-        <v>952</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1052</v>
-      </c>
-      <c r="G165" t="n">
-        <v>957.8333333333334</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
@@ -6231,22 +6765,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F166" t="n">
-        <v>1000</v>
+        <v>1052</v>
       </c>
       <c r="G166" t="n">
-        <v>957.7</v>
+        <v>957.8333333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6255,8 +6789,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>952</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6278,21 +6818,64 @@
         <v>951</v>
       </c>
       <c r="F167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>957.7</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>952</v>
+      </c>
+      <c r="K167" t="n">
+        <v>952</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>951</v>
+      </c>
+      <c r="C168" t="n">
+        <v>951</v>
+      </c>
+      <c r="D168" t="n">
+        <v>951</v>
+      </c>
+      <c r="E168" t="n">
+        <v>951</v>
+      </c>
+      <c r="F168" t="n">
         <v>51.5247</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G168" t="n">
         <v>957.5</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>32.3571</v>
       </c>
       <c r="G2" t="n">
+        <v>974.1333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>969.5833333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>46.3999</v>
       </c>
       <c r="G3" t="n">
+        <v>973.5333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>970.15</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>166.4948</v>
       </c>
       <c r="G4" t="n">
+        <v>973</v>
+      </c>
+      <c r="H4" t="n">
         <v>970.55</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5.4968</v>
       </c>
       <c r="G5" t="n">
+        <v>972.7333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>970.8333333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3.2252</v>
       </c>
       <c r="G6" t="n">
+        <v>972.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>970.95</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2.0513</v>
       </c>
       <c r="G7" t="n">
+        <v>972.5333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>971.1333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>66.04049999999999</v>
       </c>
       <c r="G8" t="n">
+        <v>972.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>971.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1.1796</v>
       </c>
       <c r="G9" t="n">
+        <v>972.5333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>971.1333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>171.6203</v>
       </c>
       <c r="G10" t="n">
+        <v>972.6666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>971.2666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>48.1576</v>
       </c>
       <c r="G11" t="n">
+        <v>972.7333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>971.35</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>62.6</v>
       </c>
       <c r="G12" t="n">
+        <v>972.6</v>
+      </c>
+      <c r="H12" t="n">
         <v>971.3666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>4.452</v>
       </c>
       <c r="G13" t="n">
+        <v>972.2666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>971.3666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,22 +909,21 @@
         <v>248.9999</v>
       </c>
       <c r="G14" t="n">
+        <v>971.4</v>
+      </c>
+      <c r="H14" t="n">
         <v>971.3666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>967</v>
-      </c>
-      <c r="K14" t="n">
-        <v>967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -907,26 +947,21 @@
         <v>46.0319</v>
       </c>
       <c r="G15" t="n">
+        <v>970.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>971.4166666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>967</v>
-      </c>
-      <c r="K15" t="n">
-        <v>967</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,24 +985,21 @@
         <v>75.3878</v>
       </c>
       <c r="G16" t="n">
+        <v>970.0666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>971.5166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>967</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,24 +1023,21 @@
         <v>331.9151</v>
       </c>
       <c r="G17" t="n">
+        <v>969.8</v>
+      </c>
+      <c r="H17" t="n">
         <v>971.5333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>967</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,24 +1061,21 @@
         <v>182.5151</v>
       </c>
       <c r="G18" t="n">
+        <v>969.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>971.5833333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>967</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1073,24 +1099,21 @@
         <v>2283.3138</v>
       </c>
       <c r="G19" t="n">
+        <v>969.9333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>971.65</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>967</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1114,24 +1137,21 @@
         <v>42.8</v>
       </c>
       <c r="G20" t="n">
+        <v>970</v>
+      </c>
+      <c r="H20" t="n">
         <v>971.5666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>967</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1155,24 +1175,21 @@
         <v>272.0388</v>
       </c>
       <c r="G21" t="n">
+        <v>969.7333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>971.4166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>967</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,24 +1213,21 @@
         <v>113.44</v>
       </c>
       <c r="G22" t="n">
+        <v>969.2</v>
+      </c>
+      <c r="H22" t="n">
         <v>971.2666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>967</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1237,24 +1251,21 @@
         <v>5124.6505</v>
       </c>
       <c r="G23" t="n">
+        <v>968.7333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>971.1166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>967</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1278,24 +1289,21 @@
         <v>2.06</v>
       </c>
       <c r="G24" t="n">
+        <v>967.9333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>970.8833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>967</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1319,24 +1327,21 @@
         <v>102.8414</v>
       </c>
       <c r="G25" t="n">
+        <v>967.4666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>970.7333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>967</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,24 +1365,21 @@
         <v>142.5</v>
       </c>
       <c r="G26" t="n">
+        <v>967.0666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>970.5833333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>967</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1401,24 +1403,21 @@
         <v>119.5177</v>
       </c>
       <c r="G27" t="n">
+        <v>966.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>970.35</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>967</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,24 +1441,21 @@
         <v>360.2758</v>
       </c>
       <c r="G28" t="n">
+        <v>966.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>970.1333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>967</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,24 +1479,21 @@
         <v>1635.6548</v>
       </c>
       <c r="G29" t="n">
+        <v>965.7333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>969.8666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>967</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1524,24 +1517,21 @@
         <v>385.8622</v>
       </c>
       <c r="G30" t="n">
+        <v>965.0666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>969.6166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>967</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1565,24 +1555,21 @@
         <v>16.2678</v>
       </c>
       <c r="G31" t="n">
+        <v>964.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>969.4166666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>967</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,24 +1593,21 @@
         <v>38.15</v>
       </c>
       <c r="G32" t="n">
+        <v>964.2</v>
+      </c>
+      <c r="H32" t="n">
         <v>969.2833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>967</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1647,24 +1631,21 @@
         <v>1.3032</v>
       </c>
       <c r="G33" t="n">
+        <v>963.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>969.2666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>967</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,24 +1669,21 @@
         <v>28.9496</v>
       </c>
       <c r="G34" t="n">
+        <v>963.1333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>969.25</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>967</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,24 +1707,21 @@
         <v>139.5</v>
       </c>
       <c r="G35" t="n">
+        <v>962.9333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>969.2666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>967</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,24 +1745,21 @@
         <v>26.5249</v>
       </c>
       <c r="G36" t="n">
+        <v>962.6666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>969.2166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>967</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1811,24 +1783,21 @@
         <v>11.3402</v>
       </c>
       <c r="G37" t="n">
+        <v>962.3333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>969.15</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>967</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1852,24 +1821,21 @@
         <v>1528.2473</v>
       </c>
       <c r="G38" t="n">
+        <v>961.8666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>969.0333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>967</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1893,24 +1859,21 @@
         <v>384.9122</v>
       </c>
       <c r="G39" t="n">
+        <v>962.1333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>969.0166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>967</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,24 +1897,21 @@
         <v>76.2025</v>
       </c>
       <c r="G40" t="n">
+        <v>962.0666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>969</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>967</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,24 +1935,21 @@
         <v>1.2999</v>
       </c>
       <c r="G41" t="n">
+        <v>961.7333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>968.8333333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>967</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,24 +1973,21 @@
         <v>420.9377</v>
       </c>
       <c r="G42" t="n">
+        <v>961.5333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>968.5833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>967</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2057,24 +2011,21 @@
         <v>1.0772</v>
       </c>
       <c r="G43" t="n">
+        <v>961.4</v>
+      </c>
+      <c r="H43" t="n">
         <v>968.3333333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>967</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2098,24 +2049,21 @@
         <v>2733.3036</v>
       </c>
       <c r="G44" t="n">
+        <v>961.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>968.0833333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>967</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2139,24 +2087,21 @@
         <v>1949.6668</v>
       </c>
       <c r="G45" t="n">
+        <v>961.8666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>967.9</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>967</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,24 +2125,21 @@
         <v>5.6765</v>
       </c>
       <c r="G46" t="n">
+        <v>961.8666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>967.7333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>967</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2221,24 +2163,21 @@
         <v>2751.129</v>
       </c>
       <c r="G47" t="n">
+        <v>961.6666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>967.45</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>967</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,24 +2201,21 @@
         <v>39.7808</v>
       </c>
       <c r="G48" t="n">
+        <v>961.5333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>967.15</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>967</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,24 +2239,21 @@
         <v>1110</v>
       </c>
       <c r="G49" t="n">
+        <v>961.3333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>966.85</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>967</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,24 +2277,21 @@
         <v>5436.4826</v>
       </c>
       <c r="G50" t="n">
+        <v>960.9333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>966.65</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>967</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2385,24 +2315,21 @@
         <v>1975.2209</v>
       </c>
       <c r="G51" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H51" t="n">
         <v>966.4</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>967</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,24 +2353,21 @@
         <v>1.7847</v>
       </c>
       <c r="G52" t="n">
+        <v>960.7333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>966.2</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>967</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,24 +2391,21 @@
         <v>476.4497</v>
       </c>
       <c r="G53" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>965.95</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>967</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,24 +2429,21 @@
         <v>49.1589</v>
       </c>
       <c r="G54" t="n">
+        <v>960.6</v>
+      </c>
+      <c r="H54" t="n">
         <v>965.8</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>967</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,24 +2467,21 @@
         <v>343.2705</v>
       </c>
       <c r="G55" t="n">
+        <v>960.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>965.65</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>967</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,24 +2505,21 @@
         <v>827.2997</v>
       </c>
       <c r="G56" t="n">
+        <v>960.4666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>965.5</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>967</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2631,24 +2543,21 @@
         <v>438.8095</v>
       </c>
       <c r="G57" t="n">
+        <v>960.6666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>965.35</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>967</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,24 +2581,21 @@
         <v>6459.3</v>
       </c>
       <c r="G58" t="n">
+        <v>960.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>965.15</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>967</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2713,24 +2619,21 @@
         <v>10229.2744</v>
       </c>
       <c r="G59" t="n">
+        <v>960.1333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>964.7166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>967</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,24 +2657,21 @@
         <v>4602.8805</v>
       </c>
       <c r="G60" t="n">
+        <v>959.8666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>964.3833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>967</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2795,24 +2695,21 @@
         <v>3401.8626</v>
       </c>
       <c r="G61" t="n">
+        <v>959.6666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>964.05</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>967</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,24 +2733,21 @@
         <v>511.1814</v>
       </c>
       <c r="G62" t="n">
+        <v>959.6666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>963.8333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>967</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2877,24 +2771,21 @@
         <v>258.6871</v>
       </c>
       <c r="G63" t="n">
+        <v>959.6</v>
+      </c>
+      <c r="H63" t="n">
         <v>963.6666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>967</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,24 +2809,21 @@
         <v>3.1832</v>
       </c>
       <c r="G64" t="n">
+        <v>959.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>963.4666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>967</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2959,24 +2847,21 @@
         <v>160.3678</v>
       </c>
       <c r="G65" t="n">
+        <v>959.4666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>963.3333333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>967</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,24 +2885,21 @@
         <v>1050.7436</v>
       </c>
       <c r="G66" t="n">
+        <v>959.5333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>963.1833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>967</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3041,24 +2923,21 @@
         <v>342.6865</v>
       </c>
       <c r="G67" t="n">
+        <v>959.6666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>962.9833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>967</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,24 +2961,21 @@
         <v>1691.9061</v>
       </c>
       <c r="G68" t="n">
+        <v>959.8666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>962.8166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>967</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3123,24 +2999,21 @@
         <v>2</v>
       </c>
       <c r="G69" t="n">
+        <v>959.9333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>962.65</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>967</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,24 +3037,21 @@
         <v>910.4103</v>
       </c>
       <c r="G70" t="n">
+        <v>959.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>962.4666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>967</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3205,24 +3075,21 @@
         <v>171.806</v>
       </c>
       <c r="G71" t="n">
+        <v>959.9333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>962.3</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>967</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3246,24 +3113,21 @@
         <v>12.6413</v>
       </c>
       <c r="G72" t="n">
+        <v>959.9333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>962.1833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>967</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3287,24 +3151,21 @@
         <v>46.7896</v>
       </c>
       <c r="G73" t="n">
+        <v>960</v>
+      </c>
+      <c r="H73" t="n">
         <v>962.0833333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>967</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,24 +3189,21 @@
         <v>174.9233</v>
       </c>
       <c r="G74" t="n">
+        <v>960.4666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>961.9833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>967</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,24 +3227,21 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
+        <v>960.6</v>
+      </c>
+      <c r="H75" t="n">
         <v>961.85</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>967</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,24 +3265,21 @@
         <v>181.0859</v>
       </c>
       <c r="G76" t="n">
+        <v>960.7333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>961.7166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>967</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3451,24 +3303,21 @@
         <v>450</v>
       </c>
       <c r="G77" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H77" t="n">
         <v>961.5833333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>967</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,24 +3341,21 @@
         <v>50</v>
       </c>
       <c r="G78" t="n">
+        <v>960.8666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>961.4333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>967</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,24 +3379,21 @@
         <v>500</v>
       </c>
       <c r="G79" t="n">
+        <v>961.0666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>961.25</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>967</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,24 +3417,21 @@
         <v>500</v>
       </c>
       <c r="G80" t="n">
+        <v>961.1333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>961.1166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>967</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,24 +3455,21 @@
         <v>8.305400000000001</v>
       </c>
       <c r="G81" t="n">
+        <v>961.1333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>961.0333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>967</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,24 +3493,21 @@
         <v>64.9418</v>
       </c>
       <c r="G82" t="n">
+        <v>961.0666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>960.95</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>967</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3697,24 +3531,25 @@
         <v>288.9365</v>
       </c>
       <c r="G83" t="n">
+        <v>960.9333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>960.8666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>967</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>960</v>
+      </c>
+      <c r="L83" t="n">
+        <v>960</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,24 +3573,27 @@
         <v>224.6161</v>
       </c>
       <c r="G84" t="n">
+        <v>960.8666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>960.8833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>967</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>960</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3779,24 +3617,27 @@
         <v>195.9564</v>
       </c>
       <c r="G85" t="n">
+        <v>960.9333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>960.8333333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>967</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>960</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,24 +3661,27 @@
         <v>1089.6797</v>
       </c>
       <c r="G86" t="n">
+        <v>961</v>
+      </c>
+      <c r="H86" t="n">
         <v>960.7833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>967</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>960</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,24 +3705,27 @@
         <v>2.3</v>
       </c>
       <c r="G87" t="n">
+        <v>961.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>960.8</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>967</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>960</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,24 +3749,27 @@
         <v>500</v>
       </c>
       <c r="G88" t="n">
+        <v>961.1333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>960.8166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>967</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>960</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3943,24 +3793,27 @@
         <v>1.2</v>
       </c>
       <c r="G89" t="n">
+        <v>961.2666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>960.8666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>967</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>960</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,24 +3837,27 @@
         <v>40.5749</v>
       </c>
       <c r="G90" t="n">
+        <v>961.1333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>960.8666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>967</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>960</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,24 +3881,27 @@
         <v>1088.5737</v>
       </c>
       <c r="G91" t="n">
+        <v>961</v>
+      </c>
+      <c r="H91" t="n">
         <v>960.8166666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>967</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>960</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,24 +3925,27 @@
         <v>569.2968</v>
       </c>
       <c r="G92" t="n">
+        <v>960.9333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>960.7666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>967</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>960</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,24 +3969,27 @@
         <v>33.5</v>
       </c>
       <c r="G93" t="n">
+        <v>960.8666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>960.7166666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>967</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>960</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,24 +4013,27 @@
         <v>23.8018</v>
       </c>
       <c r="G94" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>960.6666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>967</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>960</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4189,24 +4057,27 @@
         <v>136.8476</v>
       </c>
       <c r="G95" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H95" t="n">
         <v>960.5833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>967</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>960</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,24 +4101,27 @@
         <v>1817.246</v>
       </c>
       <c r="G96" t="n">
+        <v>960.9333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>960.6</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>967</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>960</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,24 +4145,27 @@
         <v>501.3056</v>
       </c>
       <c r="G97" t="n">
+        <v>960.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>960.6</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>967</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>960</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,24 +4189,29 @@
         <v>99.75</v>
       </c>
       <c r="G98" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H98" t="n">
         <v>960.6</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="n">
-        <v>967</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>960</v>
+      </c>
+      <c r="L98" t="n">
+        <v>960</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,24 +4235,29 @@
         <v>35.8442</v>
       </c>
       <c r="G99" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H99" t="n">
         <v>960.55</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>967</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>958</v>
+      </c>
+      <c r="L99" t="n">
+        <v>960</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,24 +4281,27 @@
         <v>5.965</v>
       </c>
       <c r="G100" t="n">
+        <v>960.7333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>960.5</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>967</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>960</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4435,24 +4325,27 @@
         <v>44.3</v>
       </c>
       <c r="G101" t="n">
+        <v>960.6666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>960.5166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>967</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>960</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,24 +4369,27 @@
         <v>20</v>
       </c>
       <c r="G102" t="n">
+        <v>960.4666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>960.5333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>967</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>960</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,24 +4413,27 @@
         <v>459.5688</v>
       </c>
       <c r="G103" t="n">
+        <v>960.4</v>
+      </c>
+      <c r="H103" t="n">
         <v>960.5666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>967</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>960</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,24 +4457,27 @@
         <v>710.4184</v>
       </c>
       <c r="G104" t="n">
+        <v>960.3333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>960.55</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>967</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>960</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4599,24 +4501,27 @@
         <v>916.3987</v>
       </c>
       <c r="G105" t="n">
+        <v>960.4666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>960.5166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>967</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>960</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4643,21 +4548,24 @@
         <v>960.4666666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>960.4666666666667</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>967</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>960</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,24 +4589,27 @@
         <v>573.5309</v>
       </c>
       <c r="G107" t="n">
+        <v>960.4</v>
+      </c>
+      <c r="H107" t="n">
         <v>960.45</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>967</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>960</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,24 +4633,27 @@
         <v>30</v>
       </c>
       <c r="G108" t="n">
+        <v>960.6</v>
+      </c>
+      <c r="H108" t="n">
         <v>960.4833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>967</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>960</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,24 +4677,27 @@
         <v>817.1108</v>
       </c>
       <c r="G109" t="n">
+        <v>960.9333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>960.5666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>967</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>960</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,24 +4721,27 @@
         <v>134.2638</v>
       </c>
       <c r="G110" t="n">
+        <v>961.2666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>960.6666666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>967</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>960</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,25 +4765,28 @@
         <v>114.743</v>
       </c>
       <c r="G111" t="n">
+        <v>961.4666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>960.7666666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>967</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>0.9929317476732161</v>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>960</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4886,18 +4809,27 @@
         <v>34.7394</v>
       </c>
       <c r="G112" t="n">
+        <v>961.5333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>960.8</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>960</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4921,18 +4853,27 @@
         <v>29.925</v>
       </c>
       <c r="G113" t="n">
+        <v>961.6666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>960.8166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>960</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4956,18 +4897,27 @@
         <v>102.7337</v>
       </c>
       <c r="G114" t="n">
+        <v>961.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>960.8</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>960</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4991,18 +4941,27 @@
         <v>50.2305</v>
       </c>
       <c r="G115" t="n">
+        <v>961.7333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>960.8333333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>960</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,18 +4985,27 @@
         <v>20</v>
       </c>
       <c r="G116" t="n">
+        <v>961.6666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>960.8166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>960</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5061,18 +5029,27 @@
         <v>2257.4666</v>
       </c>
       <c r="G117" t="n">
+        <v>961.6</v>
+      </c>
+      <c r="H117" t="n">
         <v>960.7666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>960</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,18 +5073,27 @@
         <v>866</v>
       </c>
       <c r="G118" t="n">
+        <v>961.4</v>
+      </c>
+      <c r="H118" t="n">
         <v>960.7333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>960</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5131,18 +5117,27 @@
         <v>4415</v>
       </c>
       <c r="G119" t="n">
+        <v>961.0666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>960.7833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>960</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5169,15 +5164,26 @@
         <v>960.7333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>957</v>
+      </c>
+      <c r="L120" t="n">
+        <v>960</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5201,18 +5207,29 @@
         <v>2515.8369</v>
       </c>
       <c r="G121" t="n">
+        <v>960.6666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>960.7166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>957</v>
+      </c>
+      <c r="L121" t="n">
+        <v>960</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,18 +5253,29 @@
         <v>4070.038</v>
       </c>
       <c r="G122" t="n">
+        <v>960.8666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>960.75</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>959</v>
+      </c>
+      <c r="L122" t="n">
+        <v>960</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5271,18 +5299,29 @@
         <v>9.5448</v>
       </c>
       <c r="G123" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H123" t="n">
         <v>960.7833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>962</v>
+      </c>
+      <c r="L123" t="n">
+        <v>960</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,18 +5345,27 @@
         <v>74.3319</v>
       </c>
       <c r="G124" t="n">
+        <v>960.5333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>960.8333333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>960</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,18 +5389,27 @@
         <v>366.7701</v>
       </c>
       <c r="G125" t="n">
+        <v>960.3333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>960.8833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>960</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,18 +5433,27 @@
         <v>400.0618</v>
       </c>
       <c r="G126" t="n">
+        <v>960</v>
+      </c>
+      <c r="H126" t="n">
         <v>960.8833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>960</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5411,18 +5477,27 @@
         <v>803.8224</v>
       </c>
       <c r="G127" t="n">
+        <v>960</v>
+      </c>
+      <c r="H127" t="n">
         <v>960.8833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>960</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,18 +5521,27 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
+        <v>960.0666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>960.8666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>960</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5481,18 +5565,27 @@
         <v>1.8296</v>
       </c>
       <c r="G129" t="n">
+        <v>959.9333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>960.8</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>960</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,18 +5609,27 @@
         <v>4407.7383</v>
       </c>
       <c r="G130" t="n">
+        <v>959.6</v>
+      </c>
+      <c r="H130" t="n">
         <v>960.75</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>960</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5551,18 +5653,27 @@
         <v>125.0985</v>
       </c>
       <c r="G131" t="n">
+        <v>959.7333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>960.7666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>960</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5586,18 +5697,27 @@
         <v>436.6337</v>
       </c>
       <c r="G132" t="n">
+        <v>959.9333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>960.7666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>960</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5621,18 +5741,27 @@
         <v>130.8192</v>
       </c>
       <c r="G133" t="n">
+        <v>960.1333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>960.7666666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>960</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,18 +5785,27 @@
         <v>2046.8227</v>
       </c>
       <c r="G134" t="n">
+        <v>960.4</v>
+      </c>
+      <c r="H134" t="n">
         <v>960.7666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>960</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5691,18 +5829,27 @@
         <v>236.4</v>
       </c>
       <c r="G135" t="n">
+        <v>960.6666666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>960.75</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>960</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5726,18 +5873,27 @@
         <v>95.5247</v>
       </c>
       <c r="G136" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>960.7333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>960</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5764,15 +5920,24 @@
         <v>960.7333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>960</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,18 +5961,27 @@
         <v>8.4659</v>
       </c>
       <c r="G138" t="n">
+        <v>960.6666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>960.7333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>960</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5831,18 +6005,27 @@
         <v>1224.0701</v>
       </c>
       <c r="G139" t="n">
+        <v>960.7333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>960.75</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>960</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5866,18 +6049,27 @@
         <v>43.3463</v>
       </c>
       <c r="G140" t="n">
+        <v>960.7333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>960.7833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>960</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5901,18 +6093,27 @@
         <v>23.3905</v>
       </c>
       <c r="G141" t="n">
+        <v>960.8666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>960.8166666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>960</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,18 +6137,27 @@
         <v>153.8247</v>
       </c>
       <c r="G142" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H142" t="n">
         <v>960.8166666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>960</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5971,18 +6181,27 @@
         <v>27.1748</v>
       </c>
       <c r="G143" t="n">
+        <v>960.6666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>960.8</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>960</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6006,18 +6225,27 @@
         <v>59.9973</v>
       </c>
       <c r="G144" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H144" t="n">
         <v>960.7833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>960</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6041,18 +6269,27 @@
         <v>10.3732</v>
       </c>
       <c r="G145" t="n">
+        <v>960.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>960.7166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>960</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,18 +6313,29 @@
         <v>1140.1455</v>
       </c>
       <c r="G146" t="n">
+        <v>960.4666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>960.6333333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>958</v>
+      </c>
+      <c r="L146" t="n">
+        <v>960</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,18 +6359,29 @@
         <v>57.0609</v>
       </c>
       <c r="G147" t="n">
+        <v>960.1333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>960.5333333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>957</v>
+      </c>
+      <c r="L147" t="n">
+        <v>960</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6146,18 +6405,29 @@
         <v>58.1922</v>
       </c>
       <c r="G148" t="n">
+        <v>959.6666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>960.4</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>956</v>
+      </c>
+      <c r="L148" t="n">
+        <v>960</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6181,18 +6451,29 @@
         <v>918.9503</v>
       </c>
       <c r="G149" t="n">
+        <v>959.1333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>960.2333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>954</v>
+      </c>
+      <c r="L149" t="n">
+        <v>960</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6216,18 +6497,29 @@
         <v>2703.8289</v>
       </c>
       <c r="G150" t="n">
+        <v>958.7333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>960.15</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>953</v>
+      </c>
+      <c r="L150" t="n">
+        <v>960</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6251,18 +6543,29 @@
         <v>76.4623</v>
       </c>
       <c r="G151" t="n">
-        <v>960</v>
+        <v>958.0666666666667</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>955</v>
+      </c>
+      <c r="L151" t="n">
+        <v>960</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6286,18 +6589,29 @@
         <v>58.9835</v>
       </c>
       <c r="G152" t="n">
+        <v>957.5333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>959.8833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>951</v>
+      </c>
+      <c r="L152" t="n">
+        <v>960</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6321,18 +6635,29 @@
         <v>99.226</v>
       </c>
       <c r="G153" t="n">
+        <v>956.9333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>959.75</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>953</v>
+      </c>
+      <c r="L153" t="n">
+        <v>960</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,18 +6681,29 @@
         <v>151.2417461699895</v>
       </c>
       <c r="G154" t="n">
+        <v>956.3333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>959.6333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>952</v>
+      </c>
+      <c r="L154" t="n">
+        <v>960</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6391,18 +6727,27 @@
         <v>39.6032</v>
       </c>
       <c r="G155" t="n">
+        <v>955.6666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>959.5</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>960</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6426,18 +6771,27 @@
         <v>579.8353</v>
       </c>
       <c r="G156" t="n">
+        <v>955</v>
+      </c>
+      <c r="H156" t="n">
         <v>959.3333333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>960</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6461,18 +6815,27 @@
         <v>596.5214999999999</v>
       </c>
       <c r="G157" t="n">
+        <v>954.4666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>959.2</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>960</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,18 +6859,27 @@
         <v>167.3635</v>
       </c>
       <c r="G158" t="n">
+        <v>954</v>
+      </c>
+      <c r="H158" t="n">
         <v>959.1</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>960</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6531,18 +6903,27 @@
         <v>2</v>
       </c>
       <c r="G159" t="n">
+        <v>953.4666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>958.95</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>960</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6566,18 +6947,27 @@
         <v>351.4814</v>
       </c>
       <c r="G160" t="n">
+        <v>953.0666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>958.8</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>960</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6601,18 +6991,27 @@
         <v>1078.6336</v>
       </c>
       <c r="G161" t="n">
+        <v>952.7333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>958.65</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>960</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6636,18 +7035,27 @@
         <v>106.9957</v>
       </c>
       <c r="G162" t="n">
+        <v>952.3333333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>958.5</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>960</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6671,18 +7079,27 @@
         <v>160.2662</v>
       </c>
       <c r="G163" t="n">
+        <v>952.0666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>958.3166666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>960</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6706,18 +7123,27 @@
         <v>82.1401</v>
       </c>
       <c r="G164" t="n">
+        <v>952</v>
+      </c>
+      <c r="H164" t="n">
         <v>958.15</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>960</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6741,22 +7167,27 @@
         <v>14.0042</v>
       </c>
       <c r="G165" t="n">
+        <v>951.7333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>957.9666666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>952</v>
-      </c>
-      <c r="K165" t="n">
-        <v>952</v>
-      </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>960</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,24 +7211,27 @@
         <v>1052</v>
       </c>
       <c r="G166" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="H166" t="n">
         <v>957.8333333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>952</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>960</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,26 +7255,27 @@
         <v>1000</v>
       </c>
       <c r="G167" t="n">
+        <v>951.6666666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>957.7</v>
       </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>952</v>
-      </c>
-      <c r="K167" t="n">
-        <v>952</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>960</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6864,18 +7299,467 @@
         <v>51.5247</v>
       </c>
       <c r="G168" t="n">
+        <v>951.6</v>
+      </c>
+      <c r="H168" t="n">
         <v>957.5</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>960</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>948</v>
+      </c>
+      <c r="C169" t="n">
+        <v>949</v>
+      </c>
+      <c r="D169" t="n">
+        <v>949</v>
+      </c>
+      <c r="E169" t="n">
+        <v>946</v>
+      </c>
+      <c r="F169" t="n">
+        <v>359.3</v>
+      </c>
+      <c r="G169" t="n">
+        <v>951.3333333333334</v>
+      </c>
+      <c r="H169" t="n">
+        <v>957.2333333333333</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>960</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>950</v>
+      </c>
+      <c r="C170" t="n">
+        <v>949</v>
+      </c>
+      <c r="D170" t="n">
+        <v>950</v>
+      </c>
+      <c r="E170" t="n">
+        <v>949</v>
+      </c>
+      <c r="F170" t="n">
+        <v>52.5626</v>
+      </c>
+      <c r="G170" t="n">
+        <v>951.1333333333333</v>
+      </c>
+      <c r="H170" t="n">
+        <v>956.9666666666667</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>960</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>946</v>
+      </c>
+      <c r="C171" t="n">
+        <v>951</v>
+      </c>
+      <c r="D171" t="n">
+        <v>951</v>
+      </c>
+      <c r="E171" t="n">
+        <v>946</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2134.3628</v>
+      </c>
+      <c r="G171" t="n">
+        <v>951.0666666666667</v>
+      </c>
+      <c r="H171" t="n">
+        <v>956.7333333333333</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>960</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>950</v>
+      </c>
+      <c r="C172" t="n">
+        <v>950</v>
+      </c>
+      <c r="D172" t="n">
+        <v>950</v>
+      </c>
+      <c r="E172" t="n">
+        <v>950</v>
+      </c>
+      <c r="F172" t="n">
+        <v>92.70480000000001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>950.9333333333333</v>
+      </c>
+      <c r="H172" t="n">
+        <v>956.55</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>960</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>950</v>
+      </c>
+      <c r="C173" t="n">
+        <v>951</v>
+      </c>
+      <c r="D173" t="n">
+        <v>951</v>
+      </c>
+      <c r="E173" t="n">
+        <v>950</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1595.653</v>
+      </c>
+      <c r="G173" t="n">
+        <v>950.8666666666667</v>
+      </c>
+      <c r="H173" t="n">
+        <v>956.4</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>960</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>950</v>
+      </c>
+      <c r="C174" t="n">
+        <v>950</v>
+      </c>
+      <c r="D174" t="n">
+        <v>950</v>
+      </c>
+      <c r="E174" t="n">
+        <v>950</v>
+      </c>
+      <c r="F174" t="n">
+        <v>133.8119</v>
+      </c>
+      <c r="G174" t="n">
+        <v>950.7333333333333</v>
+      </c>
+      <c r="H174" t="n">
+        <v>956.2333333333333</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>960</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>951</v>
+      </c>
+      <c r="C175" t="n">
+        <v>951</v>
+      </c>
+      <c r="D175" t="n">
+        <v>951</v>
+      </c>
+      <c r="E175" t="n">
+        <v>951</v>
+      </c>
+      <c r="F175" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="G175" t="n">
+        <v>950.6666666666666</v>
+      </c>
+      <c r="H175" t="n">
+        <v>956.0333333333333</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>960</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>951</v>
+      </c>
+      <c r="C176" t="n">
+        <v>951</v>
+      </c>
+      <c r="D176" t="n">
+        <v>951</v>
+      </c>
+      <c r="E176" t="n">
+        <v>951</v>
+      </c>
+      <c r="F176" t="n">
+        <v>855.778</v>
+      </c>
+      <c r="G176" t="n">
+        <v>950.6</v>
+      </c>
+      <c r="H176" t="n">
+        <v>955.8833333333333</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>960</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>951</v>
+      </c>
+      <c r="C177" t="n">
+        <v>951</v>
+      </c>
+      <c r="D177" t="n">
+        <v>951</v>
+      </c>
+      <c r="E177" t="n">
+        <v>951</v>
+      </c>
+      <c r="F177" t="n">
+        <v>11.222</v>
+      </c>
+      <c r="G177" t="n">
+        <v>950.6666666666666</v>
+      </c>
+      <c r="H177" t="n">
+        <v>955.7666666666667</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>960</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>947</v>
+      </c>
+      <c r="C178" t="n">
+        <v>947</v>
+      </c>
+      <c r="D178" t="n">
+        <v>947</v>
+      </c>
+      <c r="E178" t="n">
+        <v>947</v>
+      </c>
+      <c r="F178" t="n">
+        <v>51</v>
+      </c>
+      <c r="G178" t="n">
+        <v>950.4666666666667</v>
+      </c>
+      <c r="H178" t="n">
+        <v>955.5833333333334</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>960</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C2" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="D2" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="E2" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F2" t="n">
-        <v>3.9246</v>
+        <v>46.0319</v>
       </c>
       <c r="G2" t="n">
-        <v>25825.95283072651</v>
+        <v>30099.29392867943</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C3" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="D3" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="E3" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="F3" t="n">
-        <v>1069.6108</v>
+        <v>75.3878</v>
       </c>
       <c r="G3" t="n">
-        <v>25825.95283072651</v>
+        <v>30099.29392867943</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="C4" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="D4" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="E4" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="F4" t="n">
-        <v>729.277</v>
+        <v>331.9151</v>
       </c>
       <c r="G4" t="n">
-        <v>25825.95283072651</v>
+        <v>29767.37882867943</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="C5" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="D5" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="E5" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="F5" t="n">
-        <v>0.505</v>
+        <v>182.5151</v>
       </c>
       <c r="G5" t="n">
-        <v>25825.95283072651</v>
+        <v>29949.89392867943</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C6" t="n">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="D6" t="n">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="E6" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="F6" t="n">
-        <v>3330.9697</v>
+        <v>2283.3138</v>
       </c>
       <c r="G6" t="n">
-        <v>25825.95283072651</v>
+        <v>32233.20772867943</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C7" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D7" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E7" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F7" t="n">
-        <v>414</v>
+        <v>42.8</v>
       </c>
       <c r="G7" t="n">
-        <v>26239.95283072651</v>
+        <v>32190.40772867943</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C8" t="n">
         <v>965</v>
       </c>
       <c r="D8" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E8" t="n">
         <v>965</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1222</v>
+        <v>272.0388</v>
       </c>
       <c r="G8" t="n">
-        <v>26239.95283072651</v>
+        <v>31918.36892867943</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -690,16 +702,16 @@
         <v>965</v>
       </c>
       <c r="F9" t="n">
-        <v>565.437</v>
+        <v>113.44</v>
       </c>
       <c r="G9" t="n">
-        <v>26239.95283072651</v>
+        <v>31918.36892867943</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C10" t="n">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D10" t="n">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="E10" t="n">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F10" t="n">
-        <v>1704.5317</v>
+        <v>5124.6505</v>
       </c>
       <c r="G10" t="n">
-        <v>27944.48453072651</v>
+        <v>31918.36892867943</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C11" t="n">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="D11" t="n">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="E11" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F11" t="n">
-        <v>1160.9943</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
-        <v>29105.47883072651</v>
+        <v>31916.30892867943</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C12" t="n">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="D12" t="n">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="E12" t="n">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="F12" t="n">
-        <v>277.9215</v>
+        <v>102.8414</v>
       </c>
       <c r="G12" t="n">
-        <v>29383.40033072651</v>
+        <v>32019.15032867943</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="C13" t="n">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="D13" t="n">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="E13" t="n">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F13" t="n">
-        <v>30.8687</v>
+        <v>142.5</v>
       </c>
       <c r="G13" t="n">
-        <v>29414.26903072651</v>
+        <v>32019.15032867943</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="C14" t="n">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="D14" t="n">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="E14" t="n">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>119.5177</v>
       </c>
       <c r="G14" t="n">
-        <v>29364.26903072651</v>
+        <v>31899.63262867943</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="C15" t="n">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="D15" t="n">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="E15" t="n">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="F15" t="n">
-        <v>199.7221</v>
+        <v>360.2758</v>
       </c>
       <c r="G15" t="n">
-        <v>29164.54693072651</v>
+        <v>31899.63262867943</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="C16" t="n">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="D16" t="n">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="E16" t="n">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="F16" t="n">
-        <v>231.0659979529171</v>
+        <v>1635.6548</v>
       </c>
       <c r="G16" t="n">
-        <v>29395.61292867942</v>
+        <v>30263.97782867943</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="C17" t="n">
-        <v>979</v>
+        <v>960</v>
       </c>
       <c r="D17" t="n">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="E17" t="n">
-        <v>979</v>
+        <v>960</v>
       </c>
       <c r="F17" t="n">
-        <v>2755.9284</v>
+        <v>385.8622</v>
       </c>
       <c r="G17" t="n">
-        <v>32151.54132867942</v>
+        <v>30263.97782867943</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="C18" t="n">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="D18" t="n">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="E18" t="n">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>16.2678</v>
       </c>
       <c r="G18" t="n">
-        <v>31851.54132867942</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="C19" t="n">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D19" t="n">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="E19" t="n">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F19" t="n">
-        <v>93.0753</v>
+        <v>38.15</v>
       </c>
       <c r="G19" t="n">
-        <v>31758.46602867942</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C20" t="n">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="D20" t="n">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="E20" t="n">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="F20" t="n">
-        <v>15.7187</v>
+        <v>1.3032</v>
       </c>
       <c r="G20" t="n">
-        <v>31774.18472867943</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C21" t="n">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D21" t="n">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E21" t="n">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F21" t="n">
-        <v>1529.744</v>
+        <v>28.9496</v>
       </c>
       <c r="G21" t="n">
-        <v>30244.44072867943</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C22" t="n">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="D22" t="n">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="E22" t="n">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>139.5</v>
       </c>
       <c r="G22" t="n">
-        <v>30245.44072867943</v>
+        <v>30419.74562867943</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="C23" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="D23" t="n">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="E23" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="F23" t="n">
-        <v>57.6729</v>
+        <v>26.5249</v>
       </c>
       <c r="G23" t="n">
-        <v>30187.76782867943</v>
+        <v>30393.22072867943</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="C24" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D24" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="E24" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F24" t="n">
-        <v>2764.8738</v>
+        <v>11.3402</v>
       </c>
       <c r="G24" t="n">
-        <v>30187.76782867943</v>
+        <v>30381.88052867943</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="C25" t="n">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="D25" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="E25" t="n">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="F25" t="n">
-        <v>36.9369</v>
+        <v>1528.2473</v>
       </c>
       <c r="G25" t="n">
-        <v>30187.76782867943</v>
+        <v>28853.63322867943</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="C26" t="n">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D26" t="n">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E26" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="F26" t="n">
-        <v>18.3556</v>
+        <v>384.9122</v>
       </c>
       <c r="G26" t="n">
-        <v>30187.76782867943</v>
+        <v>29238.54542867943</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="C27" t="n">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="D27" t="n">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E27" t="n">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="F27" t="n">
-        <v>1.6305</v>
+        <v>76.2025</v>
       </c>
       <c r="G27" t="n">
-        <v>30189.39832867942</v>
+        <v>29238.54542867943</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="C28" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="D28" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="E28" t="n">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="F28" t="n">
-        <v>124.0911</v>
+        <v>1.2999</v>
       </c>
       <c r="G28" t="n">
-        <v>30313.48942867943</v>
+        <v>29237.24552867943</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="C29" t="n">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="D29" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="E29" t="n">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="F29" t="n">
-        <v>119.8173</v>
+        <v>420.9377</v>
       </c>
       <c r="G29" t="n">
-        <v>30313.48942867943</v>
+        <v>28816.30782867943</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="C30" t="n">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="D30" t="n">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="E30" t="n">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="F30" t="n">
-        <v>321.96</v>
+        <v>1.0772</v>
       </c>
       <c r="G30" t="n">
-        <v>30313.48942867943</v>
+        <v>28817.38502867943</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="C31" t="n">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D31" t="n">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="E31" t="n">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="F31" t="n">
-        <v>32.3571</v>
+        <v>2733.3036</v>
       </c>
       <c r="G31" t="n">
-        <v>30281.13232867942</v>
+        <v>31550.68862867943</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="C32" t="n">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D32" t="n">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E32" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="F32" t="n">
-        <v>46.3999</v>
+        <v>1949.6668</v>
       </c>
       <c r="G32" t="n">
-        <v>30234.73242867942</v>
+        <v>33500.35542867943</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="C33" t="n">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D33" t="n">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="E33" t="n">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F33" t="n">
-        <v>166.4948</v>
+        <v>5.6765</v>
       </c>
       <c r="G33" t="n">
-        <v>30234.73242867942</v>
+        <v>33494.67892867943</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C34" t="n">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D34" t="n">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E34" t="n">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="F34" t="n">
-        <v>5.4968</v>
+        <v>2751.129</v>
       </c>
       <c r="G34" t="n">
-        <v>30229.23562867942</v>
+        <v>30743.54992867943</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C35" t="n">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D35" t="n">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="E35" t="n">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F35" t="n">
-        <v>3.2252</v>
+        <v>39.7808</v>
       </c>
       <c r="G35" t="n">
-        <v>30232.46082867942</v>
+        <v>30783.33072867943</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="C36" t="n">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="D36" t="n">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="E36" t="n">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F36" t="n">
-        <v>2.0513</v>
+        <v>1110</v>
       </c>
       <c r="G36" t="n">
-        <v>30234.51212867942</v>
+        <v>29673.33072867943</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="C37" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="D37" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="E37" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F37" t="n">
-        <v>66.04049999999999</v>
+        <v>5436.4826</v>
       </c>
       <c r="G37" t="n">
-        <v>30168.47162867942</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="C38" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="D38" t="n">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="E38" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1796</v>
+        <v>1975.2209</v>
       </c>
       <c r="G38" t="n">
-        <v>30168.47162867942</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="C39" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="D39" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="E39" t="n">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="F39" t="n">
-        <v>171.6203</v>
+        <v>1.7847</v>
       </c>
       <c r="G39" t="n">
-        <v>30168.47162867942</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="C40" t="n">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="D40" t="n">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="E40" t="n">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="F40" t="n">
-        <v>48.1576</v>
+        <v>476.4497</v>
       </c>
       <c r="G40" t="n">
-        <v>30120.31402867943</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C41" t="n">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D41" t="n">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="E41" t="n">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="F41" t="n">
-        <v>62.6</v>
+        <v>49.1589</v>
       </c>
       <c r="G41" t="n">
-        <v>30057.71402867943</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C42" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D42" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E42" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F42" t="n">
-        <v>4.452</v>
+        <v>343.2705</v>
       </c>
       <c r="G42" t="n">
-        <v>30053.26202867943</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C43" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D43" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E43" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F43" t="n">
-        <v>248.9999</v>
+        <v>827.2997</v>
       </c>
       <c r="G43" t="n">
-        <v>30053.26202867943</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C44" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="D44" t="n">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="E44" t="n">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F44" t="n">
-        <v>46.0319</v>
+        <v>438.8095</v>
       </c>
       <c r="G44" t="n">
-        <v>30099.29392867943</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="C45" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D45" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="E45" t="n">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="F45" t="n">
-        <v>75.3878</v>
+        <v>6459.3</v>
       </c>
       <c r="G45" t="n">
-        <v>30099.29392867943</v>
+        <v>17826.70702867943</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="C46" t="n">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="D46" t="n">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="E46" t="n">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="F46" t="n">
-        <v>331.9151</v>
+        <v>10229.2744</v>
       </c>
       <c r="G46" t="n">
-        <v>29767.37882867943</v>
+        <v>7597.432628679429</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="C47" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D47" t="n">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E47" t="n">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="F47" t="n">
-        <v>182.5151</v>
+        <v>4602.8805</v>
       </c>
       <c r="G47" t="n">
-        <v>29949.89392867943</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="C48" t="n">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="D48" t="n">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="E48" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="F48" t="n">
-        <v>2283.3138</v>
+        <v>3401.8626</v>
       </c>
       <c r="G48" t="n">
-        <v>32233.20772867943</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C49" t="n">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="D49" t="n">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E49" t="n">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="F49" t="n">
-        <v>42.8</v>
+        <v>511.1814</v>
       </c>
       <c r="G49" t="n">
-        <v>32190.40772867943</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C50" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D50" t="n">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E50" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F50" t="n">
-        <v>272.0388</v>
+        <v>258.6871</v>
       </c>
       <c r="G50" t="n">
-        <v>31918.36892867943</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="C51" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D51" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="E51" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F51" t="n">
-        <v>113.44</v>
+        <v>3.1832</v>
       </c>
       <c r="G51" t="n">
-        <v>31918.36892867943</v>
+        <v>12197.12992867943</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C52" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D52" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E52" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F52" t="n">
-        <v>5124.6505</v>
+        <v>160.3678</v>
       </c>
       <c r="G52" t="n">
-        <v>31918.36892867943</v>
+        <v>12357.49772867943</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C53" t="n">
         <v>960</v>
       </c>
       <c r="D53" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E53" t="n">
         <v>960</v>
       </c>
       <c r="F53" t="n">
-        <v>2.06</v>
+        <v>1050.7436</v>
       </c>
       <c r="G53" t="n">
-        <v>31916.30892867943</v>
+        <v>13408.24132867943</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C54" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D54" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E54" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F54" t="n">
-        <v>102.8414</v>
+        <v>342.6865</v>
       </c>
       <c r="G54" t="n">
-        <v>32019.15032867943</v>
+        <v>13750.92782867943</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C55" t="n">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D55" t="n">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E55" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F55" t="n">
-        <v>142.5</v>
+        <v>1691.9061</v>
       </c>
       <c r="G55" t="n">
-        <v>32019.15032867943</v>
+        <v>15442.83392867943</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C56" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D56" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E56" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F56" t="n">
-        <v>119.5177</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>31899.63262867943</v>
+        <v>15442.83392867943</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2370,10 +2430,10 @@
         <v>961</v>
       </c>
       <c r="F57" t="n">
-        <v>360.2758</v>
+        <v>910.4103</v>
       </c>
       <c r="G57" t="n">
-        <v>31899.63262867943</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2396,19 +2457,19 @@
         <v>961</v>
       </c>
       <c r="C58" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D58" t="n">
         <v>961</v>
       </c>
       <c r="E58" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F58" t="n">
-        <v>1635.6548</v>
+        <v>171.806</v>
       </c>
       <c r="G58" t="n">
-        <v>30263.97782867943</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C59" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D59" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E59" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F59" t="n">
-        <v>385.8622</v>
+        <v>12.6413</v>
       </c>
       <c r="G59" t="n">
-        <v>30263.97782867943</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C60" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D60" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E60" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F60" t="n">
-        <v>16.2678</v>
+        <v>46.7896</v>
       </c>
       <c r="G60" t="n">
-        <v>30280.24562867943</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C61" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D61" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E61" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F61" t="n">
-        <v>38.15</v>
+        <v>174.9233</v>
       </c>
       <c r="G61" t="n">
-        <v>30280.24562867943</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C62" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D62" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E62" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F62" t="n">
-        <v>1.3032</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>30280.24562867943</v>
+        <v>14535.42362867943</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C63" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D63" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E63" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F63" t="n">
-        <v>28.9496</v>
+        <v>181.0859</v>
       </c>
       <c r="G63" t="n">
-        <v>30280.24562867943</v>
+        <v>14535.42362867943</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C64" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D64" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E64" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F64" t="n">
-        <v>139.5</v>
+        <v>450</v>
       </c>
       <c r="G64" t="n">
-        <v>30419.74562867943</v>
+        <v>14085.42362867943</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2650,10 +2718,10 @@
         <v>961</v>
       </c>
       <c r="F65" t="n">
-        <v>26.5249</v>
+        <v>50</v>
       </c>
       <c r="G65" t="n">
-        <v>30393.22072867943</v>
+        <v>14085.42362867943</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2676,19 +2745,19 @@
         <v>961</v>
       </c>
       <c r="C66" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D66" t="n">
         <v>961</v>
       </c>
       <c r="E66" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F66" t="n">
-        <v>11.3402</v>
+        <v>500</v>
       </c>
       <c r="G66" t="n">
-        <v>30381.88052867943</v>
+        <v>14085.42362867943</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C67" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D67" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E67" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F67" t="n">
-        <v>1528.2473</v>
+        <v>500</v>
       </c>
       <c r="G67" t="n">
-        <v>28853.63322867943</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C68" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D68" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E68" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F68" t="n">
-        <v>384.9122</v>
+        <v>8.305400000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>29238.54542867943</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C69" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D69" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E69" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F69" t="n">
-        <v>76.2025</v>
+        <v>64.9418</v>
       </c>
       <c r="G69" t="n">
-        <v>29238.54542867943</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2825,10 +2898,10 @@
         <v>960</v>
       </c>
       <c r="F70" t="n">
-        <v>1.2999</v>
+        <v>288.9365</v>
       </c>
       <c r="G70" t="n">
-        <v>29237.24552867943</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2851,19 +2925,19 @@
         <v>960</v>
       </c>
       <c r="C71" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D71" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E71" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F71" t="n">
-        <v>420.9377</v>
+        <v>224.6161</v>
       </c>
       <c r="G71" t="n">
-        <v>28816.30782867943</v>
+        <v>13810.03972867943</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C72" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D72" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E72" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0772</v>
+        <v>195.9564</v>
       </c>
       <c r="G72" t="n">
-        <v>28817.38502867943</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C73" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D73" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E73" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F73" t="n">
-        <v>2733.3036</v>
+        <v>1089.6797</v>
       </c>
       <c r="G73" t="n">
-        <v>31550.68862867943</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C74" t="n">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D74" t="n">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E74" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F74" t="n">
-        <v>1949.6668</v>
+        <v>2.3</v>
       </c>
       <c r="G74" t="n">
-        <v>33500.35542867943</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C75" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D75" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E75" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F75" t="n">
-        <v>5.6765</v>
+        <v>500</v>
       </c>
       <c r="G75" t="n">
-        <v>33494.67892867943</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C76" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D76" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E76" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F76" t="n">
-        <v>2751.129</v>
+        <v>1.2</v>
       </c>
       <c r="G76" t="n">
-        <v>30743.54992867943</v>
+        <v>14007.19612867943</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C77" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D77" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E77" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F77" t="n">
-        <v>39.7808</v>
+        <v>40.5749</v>
       </c>
       <c r="G77" t="n">
-        <v>30783.33072867943</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3105,10 +3186,10 @@
         <v>960</v>
       </c>
       <c r="F78" t="n">
-        <v>1110</v>
+        <v>1088.5737</v>
       </c>
       <c r="G78" t="n">
-        <v>29673.33072867943</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C79" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D79" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E79" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F79" t="n">
-        <v>5436.4826</v>
+        <v>569.2968</v>
       </c>
       <c r="G79" t="n">
-        <v>24236.84812867943</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3166,19 +3249,19 @@
         <v>960</v>
       </c>
       <c r="C80" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D80" t="n">
         <v>960</v>
       </c>
       <c r="E80" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F80" t="n">
-        <v>1975.2209</v>
+        <v>33.5</v>
       </c>
       <c r="G80" t="n">
-        <v>24236.84812867943</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C81" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D81" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E81" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F81" t="n">
-        <v>1.7847</v>
+        <v>23.8018</v>
       </c>
       <c r="G81" t="n">
-        <v>24236.84812867943</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C82" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D82" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E82" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F82" t="n">
-        <v>476.4497</v>
+        <v>136.8476</v>
       </c>
       <c r="G82" t="n">
-        <v>24236.84812867943</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C83" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D83" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E83" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F83" t="n">
-        <v>49.1589</v>
+        <v>1817.246</v>
       </c>
       <c r="G83" t="n">
-        <v>24286.00702867943</v>
+        <v>15783.86722867943</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C84" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D84" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E84" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F84" t="n">
-        <v>343.2705</v>
+        <v>501.3056</v>
       </c>
       <c r="G84" t="n">
-        <v>24286.00702867943</v>
+        <v>15282.56162867943</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C85" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D85" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E85" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F85" t="n">
-        <v>827.2997</v>
+        <v>99.75</v>
       </c>
       <c r="G85" t="n">
-        <v>24286.00702867943</v>
+        <v>15182.81162867943</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3385,10 +3474,10 @@
         <v>961</v>
       </c>
       <c r="F86" t="n">
-        <v>438.8095</v>
+        <v>35.8442</v>
       </c>
       <c r="G86" t="n">
-        <v>24286.00702867943</v>
+        <v>15218.65582867943</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C87" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D87" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E87" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="F87" t="n">
-        <v>6459.3</v>
+        <v>5.965</v>
       </c>
       <c r="G87" t="n">
-        <v>17826.70702867943</v>
+        <v>15218.65582867943</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C88" t="n">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="D88" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E88" t="n">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="F88" t="n">
-        <v>10229.2744</v>
+        <v>44.3</v>
       </c>
       <c r="G88" t="n">
-        <v>7597.432628679429</v>
+        <v>15218.65582867943</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="C89" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D89" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E89" t="n">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="F89" t="n">
-        <v>4602.8805</v>
+        <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>12200.31312867943</v>
+        <v>15198.65582867943</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3516,7 +3609,7 @@
         <v>959</v>
       </c>
       <c r="C90" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D90" t="n">
         <v>962</v>
@@ -3525,10 +3618,10 @@
         <v>959</v>
       </c>
       <c r="F90" t="n">
-        <v>3401.8626</v>
+        <v>459.5688</v>
       </c>
       <c r="G90" t="n">
-        <v>12200.31312867943</v>
+        <v>15658.22462867943</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C91" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D91" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E91" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F91" t="n">
-        <v>511.1814</v>
+        <v>710.4184</v>
       </c>
       <c r="G91" t="n">
-        <v>12200.31312867943</v>
+        <v>16368.64302867943</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C92" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D92" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E92" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F92" t="n">
-        <v>258.6871</v>
+        <v>916.3987</v>
       </c>
       <c r="G92" t="n">
-        <v>12200.31312867943</v>
+        <v>16368.64302867943</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C93" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D93" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E93" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F93" t="n">
-        <v>3.1832</v>
+        <v>30</v>
       </c>
       <c r="G93" t="n">
-        <v>12197.12992867943</v>
+        <v>16338.64302867943</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C94" t="n">
         <v>959</v>
       </c>
       <c r="D94" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E94" t="n">
         <v>959</v>
       </c>
       <c r="F94" t="n">
-        <v>160.3678</v>
+        <v>573.5309</v>
       </c>
       <c r="G94" t="n">
-        <v>12357.49772867943</v>
+        <v>15765.11212867943</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C95" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D95" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E95" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F95" t="n">
-        <v>1050.7436</v>
+        <v>30</v>
       </c>
       <c r="G95" t="n">
-        <v>13408.24132867943</v>
+        <v>15795.11212867943</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C96" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D96" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E96" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F96" t="n">
-        <v>342.6865</v>
+        <v>817.1108</v>
       </c>
       <c r="G96" t="n">
-        <v>13750.92782867943</v>
+        <v>16612.22292867943</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C97" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="D97" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E97" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="F97" t="n">
-        <v>1691.9061</v>
+        <v>134.2638</v>
       </c>
       <c r="G97" t="n">
-        <v>15442.83392867943</v>
+        <v>16612.22292867943</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C98" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="D98" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E98" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>114.743</v>
       </c>
       <c r="G98" t="n">
-        <v>15442.83392867943</v>
+        <v>16612.22292867943</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3840,10 +3942,10 @@
         <v>961</v>
       </c>
       <c r="F99" t="n">
-        <v>910.4103</v>
+        <v>34.7394</v>
       </c>
       <c r="G99" t="n">
-        <v>14532.42362867943</v>
+        <v>16577.48352867943</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C100" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D100" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E100" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F100" t="n">
-        <v>171.806</v>
+        <v>29.925</v>
       </c>
       <c r="G100" t="n">
-        <v>14532.42362867943</v>
+        <v>16547.55852867943</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C101" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D101" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E101" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F101" t="n">
-        <v>12.6413</v>
+        <v>102.7337</v>
       </c>
       <c r="G101" t="n">
-        <v>14532.42362867943</v>
+        <v>16547.55852867943</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C102" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D102" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E102" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F102" t="n">
-        <v>46.7896</v>
+        <v>50.2305</v>
       </c>
       <c r="G102" t="n">
-        <v>14532.42362867943</v>
+        <v>16597.78902867944</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C103" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D103" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E103" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F103" t="n">
-        <v>174.9233</v>
+        <v>20</v>
       </c>
       <c r="G103" t="n">
-        <v>14532.42362867943</v>
+        <v>16577.78902867944</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C104" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D104" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E104" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2257.4666</v>
       </c>
       <c r="G104" t="n">
-        <v>14535.42362867943</v>
+        <v>14320.32242867944</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C105" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D105" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E105" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F105" t="n">
-        <v>181.0859</v>
+        <v>866</v>
       </c>
       <c r="G105" t="n">
-        <v>14535.42362867943</v>
+        <v>14320.32242867944</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C106" t="n">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D106" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E106" t="n">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F106" t="n">
-        <v>450</v>
+        <v>4415</v>
       </c>
       <c r="G106" t="n">
-        <v>14085.42362867943</v>
+        <v>9905.322428679436</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C107" t="n">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D107" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E107" t="n">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F107" t="n">
-        <v>50</v>
+        <v>1910.5423</v>
       </c>
       <c r="G107" t="n">
-        <v>14085.42362867943</v>
+        <v>9905.322428679436</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C108" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D108" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E108" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>2515.8369</v>
       </c>
       <c r="G108" t="n">
-        <v>14085.42362867943</v>
+        <v>12421.15932867944</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4181,19 +4293,19 @@
         <v>960</v>
       </c>
       <c r="C109" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D109" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E109" t="n">
         <v>960</v>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>4070.038</v>
       </c>
       <c r="G109" t="n">
-        <v>13585.42362867943</v>
+        <v>16491.19732867943</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C110" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D110" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E110" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F110" t="n">
-        <v>8.305400000000001</v>
+        <v>9.5448</v>
       </c>
       <c r="G110" t="n">
-        <v>13585.42362867943</v>
+        <v>16491.19732867943</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C111" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D111" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E111" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F111" t="n">
-        <v>64.9418</v>
+        <v>74.3319</v>
       </c>
       <c r="G111" t="n">
-        <v>13585.42362867943</v>
+        <v>16416.86542867943</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C112" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D112" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E112" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F112" t="n">
-        <v>288.9365</v>
+        <v>366.7701</v>
       </c>
       <c r="G112" t="n">
-        <v>13585.42362867943</v>
+        <v>16783.63552867944</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,16 +4427,17 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C113" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D113" t="n">
         <v>961</v>
@@ -4330,10 +4446,10 @@
         <v>960</v>
       </c>
       <c r="F113" t="n">
-        <v>224.6161</v>
+        <v>400.0618</v>
       </c>
       <c r="G113" t="n">
-        <v>13810.03972867943</v>
+        <v>16383.57372867944</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C114" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D114" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E114" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F114" t="n">
-        <v>195.9564</v>
+        <v>803.8224</v>
       </c>
       <c r="G114" t="n">
-        <v>14005.99612867943</v>
+        <v>17187.39612867944</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C115" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D115" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E115" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F115" t="n">
-        <v>1089.6797</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>14005.99612867943</v>
+        <v>17187.39612867944</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C116" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D116" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E116" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F116" t="n">
-        <v>2.3</v>
+        <v>1.8296</v>
       </c>
       <c r="G116" t="n">
-        <v>14005.99612867943</v>
+        <v>17185.56652867944</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C117" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D117" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E117" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>4407.7383</v>
       </c>
       <c r="G117" t="n">
-        <v>14005.99612867943</v>
+        <v>17185.56652867944</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C118" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D118" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E118" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F118" t="n">
-        <v>1.2</v>
+        <v>125.0985</v>
       </c>
       <c r="G118" t="n">
-        <v>14007.19612867943</v>
+        <v>17310.66502867944</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C119" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D119" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E119" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F119" t="n">
-        <v>40.5749</v>
+        <v>436.6337</v>
       </c>
       <c r="G119" t="n">
-        <v>13966.62122867943</v>
+        <v>16874.03132867944</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C120" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D120" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E120" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F120" t="n">
-        <v>1088.5737</v>
+        <v>130.8192</v>
       </c>
       <c r="G120" t="n">
-        <v>13966.62122867943</v>
+        <v>16874.03132867944</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C121" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D121" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E121" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F121" t="n">
-        <v>569.2968</v>
+        <v>2046.8227</v>
       </c>
       <c r="G121" t="n">
-        <v>13966.62122867943</v>
+        <v>16874.03132867944</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C122" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D122" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E122" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F122" t="n">
-        <v>33.5</v>
+        <v>236.4</v>
       </c>
       <c r="G122" t="n">
-        <v>13966.62122867943</v>
+        <v>16874.03132867944</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C123" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D123" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E123" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F123" t="n">
-        <v>23.8018</v>
+        <v>95.5247</v>
       </c>
       <c r="G123" t="n">
-        <v>13966.62122867943</v>
+        <v>16874.03132867944</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C124" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D124" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E124" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F124" t="n">
-        <v>136.8476</v>
+        <v>24.9976</v>
       </c>
       <c r="G124" t="n">
-        <v>13966.62122867943</v>
+        <v>16874.03132867944</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C125" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D125" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E125" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F125" t="n">
-        <v>1817.246</v>
+        <v>8.4659</v>
       </c>
       <c r="G125" t="n">
-        <v>15783.86722867943</v>
+        <v>16874.03132867944</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C126" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D126" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E126" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F126" t="n">
-        <v>501.3056</v>
+        <v>1224.0701</v>
       </c>
       <c r="G126" t="n">
-        <v>15282.56162867943</v>
+        <v>18098.10142867944</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C127" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="D127" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="E127" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="F127" t="n">
-        <v>99.75</v>
+        <v>43.3463</v>
       </c>
       <c r="G127" t="n">
-        <v>15182.81162867943</v>
+        <v>18098.10142867944</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C128" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D128" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E128" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F128" t="n">
-        <v>35.8442</v>
+        <v>23.3905</v>
       </c>
       <c r="G128" t="n">
-        <v>15218.65582867943</v>
+        <v>18098.10142867944</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C129" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D129" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E129" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F129" t="n">
-        <v>5.965</v>
+        <v>153.8247</v>
       </c>
       <c r="G129" t="n">
-        <v>15218.65582867943</v>
+        <v>17944.27672867944</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C130" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D130" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E130" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F130" t="n">
-        <v>44.3</v>
+        <v>27.1748</v>
       </c>
       <c r="G130" t="n">
-        <v>15218.65582867943</v>
+        <v>17917.10192867944</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C131" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D131" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E131" t="n">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>59.9973</v>
       </c>
       <c r="G131" t="n">
-        <v>15198.65582867943</v>
+        <v>17977.09922867944</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C132" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D132" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E132" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F132" t="n">
-        <v>459.5688</v>
+        <v>10.3732</v>
       </c>
       <c r="G132" t="n">
-        <v>15658.22462867943</v>
+        <v>17966.72602867943</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C133" t="n">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D133" t="n">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E133" t="n">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F133" t="n">
-        <v>710.4184</v>
+        <v>1140.1455</v>
       </c>
       <c r="G133" t="n">
-        <v>16368.64302867943</v>
+        <v>16826.58052867943</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C134" t="n">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="D134" t="n">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E134" t="n">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="F134" t="n">
-        <v>916.3987</v>
+        <v>57.0609</v>
       </c>
       <c r="G134" t="n">
-        <v>16368.64302867943</v>
+        <v>16769.51962867943</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C135" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="D135" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E135" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>58.1922</v>
       </c>
       <c r="G135" t="n">
-        <v>16338.64302867943</v>
+        <v>16711.32742867943</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C136" t="n">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D136" t="n">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="E136" t="n">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F136" t="n">
-        <v>573.5309</v>
+        <v>918.9503</v>
       </c>
       <c r="G136" t="n">
-        <v>15765.11212867943</v>
+        <v>15792.37712867943</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="C137" t="n">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D137" t="n">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E137" t="n">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>2703.8289</v>
       </c>
       <c r="G137" t="n">
-        <v>15795.11212867943</v>
+        <v>18496.20602867943</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,238 +5327,281 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="C138" t="n">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="D138" t="n">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="E138" t="n">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F138" t="n">
-        <v>817.1108</v>
+        <v>76.4623</v>
       </c>
       <c r="G138" t="n">
-        <v>16612.22292867943</v>
+        <v>18419.74372867943</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>955</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="C139" t="n">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="D139" t="n">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="E139" t="n">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="F139" t="n">
-        <v>134.2638</v>
+        <v>58.9835</v>
       </c>
       <c r="G139" t="n">
-        <v>16612.22292867943</v>
+        <v>18478.72722867943</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>951</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="C140" t="n">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="D140" t="n">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="E140" t="n">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="F140" t="n">
-        <v>114.743</v>
+        <v>99.226</v>
       </c>
       <c r="G140" t="n">
-        <v>16612.22292867943</v>
+        <v>18379.50122867943</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>953</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C141" t="n">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D141" t="n">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E141" t="n">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F141" t="n">
-        <v>34.7394</v>
+        <v>151.2417461699895</v>
       </c>
       <c r="G141" t="n">
-        <v>16577.48352867943</v>
+        <v>18530.74297484942</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>952</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C142" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D142" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E142" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F142" t="n">
-        <v>29.925</v>
+        <v>39.6032</v>
       </c>
       <c r="G142" t="n">
-        <v>16547.55852867943</v>
+        <v>18491.13977484942</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>953</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C143" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D143" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E143" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F143" t="n">
-        <v>102.7337</v>
+        <v>579.8353</v>
       </c>
       <c r="G143" t="n">
-        <v>16547.55852867943</v>
+        <v>18491.13977484942</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>952</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="C144" t="n">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="D144" t="n">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="E144" t="n">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F144" t="n">
-        <v>50.2305</v>
+        <v>596.5214999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>16597.78902867944</v>
+        <v>18491.13977484942</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -5427,78 +5610,82 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>960</v>
-      </c>
-      <c r="K144" t="n">
-        <v>960</v>
-      </c>
-      <c r="L144" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C145" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D145" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E145" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>167.3635</v>
       </c>
       <c r="G145" t="n">
-        <v>16577.78902867944</v>
+        <v>18491.13977484942</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>960</v>
-      </c>
+      <c r="J145" t="n">
+        <v>952</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C146" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="D146" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E146" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="F146" t="n">
-        <v>2257.4666</v>
+        <v>2</v>
       </c>
       <c r="G146" t="n">
-        <v>14320.32242867944</v>
+        <v>18491.13977484942</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -5507,41 +5694,40 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>960</v>
-      </c>
-      <c r="K146" t="n">
-        <v>960</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C147" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="D147" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E147" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="F147" t="n">
-        <v>866</v>
+        <v>351.4814</v>
       </c>
       <c r="G147" t="n">
-        <v>14320.32242867944</v>
+        <v>18491.13977484942</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -5550,11 +5736,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>958</v>
-      </c>
-      <c r="K147" t="n">
-        <v>960</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5563,28 +5747,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C148" t="n">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D148" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E148" t="n">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F148" t="n">
-        <v>4415</v>
+        <v>1078.6336</v>
       </c>
       <c r="G148" t="n">
-        <v>9905.322428679436</v>
+        <v>18491.13977484942</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -5593,11 +5778,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>958</v>
-      </c>
-      <c r="K148" t="n">
-        <v>960</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5606,28 +5789,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="C149" t="n">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D149" t="n">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E149" t="n">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F149" t="n">
-        <v>1910.5423</v>
+        <v>106.9957</v>
       </c>
       <c r="G149" t="n">
-        <v>9905.322428679436</v>
+        <v>18384.14407484942</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -5636,11 +5820,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>957</v>
-      </c>
-      <c r="K149" t="n">
-        <v>960</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,28 +5831,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C150" t="n">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D150" t="n">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E150" t="n">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F150" t="n">
-        <v>2515.8369</v>
+        <v>160.2662</v>
       </c>
       <c r="G150" t="n">
-        <v>12421.15932867944</v>
+        <v>18384.14407484942</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -5679,11 +5862,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>957</v>
-      </c>
-      <c r="K150" t="n">
-        <v>960</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5692,28 +5873,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C151" t="n">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="D151" t="n">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E151" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F151" t="n">
-        <v>4070.038</v>
+        <v>82.1401</v>
       </c>
       <c r="G151" t="n">
-        <v>16491.19732867943</v>
+        <v>18466.28417484942</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -5722,11 +5904,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>959</v>
-      </c>
-      <c r="K151" t="n">
-        <v>960</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,28 +5915,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="C152" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="D152" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="E152" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="F152" t="n">
-        <v>9.5448</v>
+        <v>14.0042</v>
       </c>
       <c r="G152" t="n">
-        <v>16491.19732867943</v>
+        <v>18452.27997484942</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -5765,11 +5946,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>962</v>
-      </c>
-      <c r="K152" t="n">
-        <v>960</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,28 +5957,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="C153" t="n">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D153" t="n">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="E153" t="n">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="F153" t="n">
-        <v>74.3319</v>
+        <v>1052</v>
       </c>
       <c r="G153" t="n">
-        <v>16416.86542867943</v>
+        <v>19504.27997484942</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -5808,11 +5988,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>962</v>
-      </c>
-      <c r="K153" t="n">
-        <v>960</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5821,28 +5999,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="C154" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="D154" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="E154" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="F154" t="n">
-        <v>366.7701</v>
+        <v>1000</v>
       </c>
       <c r="G154" t="n">
-        <v>16783.63552867944</v>
+        <v>18504.27997484942</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
@@ -5851,11 +6030,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>961</v>
-      </c>
-      <c r="K154" t="n">
-        <v>960</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5864,39 +6041,40 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C155" t="n">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D155" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E155" t="n">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="F155" t="n">
-        <v>400.0618</v>
+        <v>51.5247</v>
       </c>
       <c r="G155" t="n">
-        <v>16383.57372867944</v>
+        <v>18504.27997484942</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>960</v>
-      </c>
+      <c r="J155" t="n">
+        <v>951</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5905,39 +6083,40 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="C156" t="n">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D156" t="n">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="E156" t="n">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="F156" t="n">
-        <v>803.8224</v>
+        <v>359.3</v>
       </c>
       <c r="G156" t="n">
-        <v>17187.39612867944</v>
+        <v>18144.97997484942</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>960</v>
-      </c>
+      <c r="J156" t="n">
+        <v>951</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5946,39 +6125,40 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="C157" t="n">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D157" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="E157" t="n">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>52.5626</v>
       </c>
       <c r="G157" t="n">
-        <v>17187.39612867944</v>
+        <v>18144.97997484942</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>960</v>
-      </c>
+      <c r="J157" t="n">
+        <v>949</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,39 +6167,40 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="C158" t="n">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D158" t="n">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="E158" t="n">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="F158" t="n">
-        <v>1.8296</v>
+        <v>2134.3628</v>
       </c>
       <c r="G158" t="n">
-        <v>17185.56652867944</v>
+        <v>20279.34277484942</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>960</v>
-      </c>
+      <c r="J158" t="n">
+        <v>949</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,39 +6209,40 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C159" t="n">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="D159" t="n">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="E159" t="n">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="F159" t="n">
-        <v>4407.7383</v>
+        <v>92.70480000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>17185.56652867944</v>
+        <v>20186.63797484942</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>960</v>
-      </c>
+      <c r="J159" t="n">
+        <v>951</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6069,28 +6251,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="C160" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="D160" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="E160" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="F160" t="n">
-        <v>125.0985</v>
+        <v>1595.653</v>
       </c>
       <c r="G160" t="n">
-        <v>17310.66502867944</v>
+        <v>21782.29097484942</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -6099,11 +6282,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>958</v>
-      </c>
-      <c r="K160" t="n">
-        <v>960</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,28 +6293,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="C161" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="D161" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="E161" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="F161" t="n">
-        <v>436.6337</v>
+        <v>133.8119</v>
       </c>
       <c r="G161" t="n">
-        <v>16874.03132867944</v>
+        <v>21648.47907484942</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
@@ -6142,11 +6324,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>962</v>
-      </c>
-      <c r="K161" t="n">
-        <v>960</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,39 +6335,40 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C162" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="D162" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E162" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="F162" t="n">
-        <v>130.8192</v>
+        <v>149.9</v>
       </c>
       <c r="G162" t="n">
-        <v>16874.03132867944</v>
+        <v>21798.37907484942</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>960</v>
-      </c>
+      <c r="J162" t="n">
+        <v>950</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6196,28 +6377,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C163" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="D163" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E163" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="F163" t="n">
-        <v>2046.8227</v>
+        <v>855.778</v>
       </c>
       <c r="G163" t="n">
-        <v>16874.03132867944</v>
+        <v>21798.37907484942</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
@@ -6226,11 +6408,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>961</v>
-      </c>
-      <c r="K163" t="n">
-        <v>960</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6239,28 +6419,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C164" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="D164" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E164" t="n">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="F164" t="n">
-        <v>236.4</v>
+        <v>11.222</v>
       </c>
       <c r="G164" t="n">
-        <v>16874.03132867944</v>
+        <v>21798.37907484942</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -6269,11 +6450,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>961</v>
-      </c>
-      <c r="K164" t="n">
-        <v>960</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,39 +6461,40 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="C165" t="n">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="D165" t="n">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="E165" t="n">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="F165" t="n">
-        <v>95.5247</v>
+        <v>51</v>
       </c>
       <c r="G165" t="n">
-        <v>16874.03132867944</v>
+        <v>21747.37907484942</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>960</v>
-      </c>
+      <c r="J165" t="n">
+        <v>951</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,1788 +6503,7 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>961</v>
-      </c>
-      <c r="C166" t="n">
-        <v>961</v>
-      </c>
-      <c r="D166" t="n">
-        <v>961</v>
-      </c>
-      <c r="E166" t="n">
-        <v>961</v>
-      </c>
-      <c r="F166" t="n">
-        <v>24.9976</v>
-      </c>
-      <c r="G166" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>961</v>
-      </c>
-      <c r="K166" t="n">
-        <v>960</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>961</v>
-      </c>
-      <c r="C167" t="n">
-        <v>961</v>
-      </c>
-      <c r="D167" t="n">
-        <v>961</v>
-      </c>
-      <c r="E167" t="n">
-        <v>961</v>
-      </c>
-      <c r="F167" t="n">
-        <v>8.4659</v>
-      </c>
-      <c r="G167" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>960</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>961</v>
-      </c>
-      <c r="C168" t="n">
-        <v>962</v>
-      </c>
-      <c r="D168" t="n">
-        <v>962</v>
-      </c>
-      <c r="E168" t="n">
-        <v>961</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1224.0701</v>
-      </c>
-      <c r="G168" t="n">
-        <v>18098.10142867944</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>960</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>962</v>
-      </c>
-      <c r="C169" t="n">
-        <v>962</v>
-      </c>
-      <c r="D169" t="n">
-        <v>962</v>
-      </c>
-      <c r="E169" t="n">
-        <v>962</v>
-      </c>
-      <c r="F169" t="n">
-        <v>43.3463</v>
-      </c>
-      <c r="G169" t="n">
-        <v>18098.10142867944</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>960</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>962</v>
-      </c>
-      <c r="C170" t="n">
-        <v>962</v>
-      </c>
-      <c r="D170" t="n">
-        <v>962</v>
-      </c>
-      <c r="E170" t="n">
-        <v>962</v>
-      </c>
-      <c r="F170" t="n">
-        <v>23.3905</v>
-      </c>
-      <c r="G170" t="n">
-        <v>18098.10142867944</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>960</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>958</v>
-      </c>
-      <c r="C171" t="n">
-        <v>960</v>
-      </c>
-      <c r="D171" t="n">
-        <v>960</v>
-      </c>
-      <c r="E171" t="n">
-        <v>958</v>
-      </c>
-      <c r="F171" t="n">
-        <v>153.8247</v>
-      </c>
-      <c r="G171" t="n">
-        <v>17944.27672867944</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>960</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>959</v>
-      </c>
-      <c r="C172" t="n">
-        <v>959</v>
-      </c>
-      <c r="D172" t="n">
-        <v>959</v>
-      </c>
-      <c r="E172" t="n">
-        <v>959</v>
-      </c>
-      <c r="F172" t="n">
-        <v>27.1748</v>
-      </c>
-      <c r="G172" t="n">
-        <v>17917.10192867944</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>960</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>957</v>
-      </c>
-      <c r="C173" t="n">
-        <v>960</v>
-      </c>
-      <c r="D173" t="n">
-        <v>960</v>
-      </c>
-      <c r="E173" t="n">
-        <v>957</v>
-      </c>
-      <c r="F173" t="n">
-        <v>59.9973</v>
-      </c>
-      <c r="G173" t="n">
-        <v>17977.09922867944</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>960</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>958</v>
-      </c>
-      <c r="C174" t="n">
-        <v>958</v>
-      </c>
-      <c r="D174" t="n">
-        <v>958</v>
-      </c>
-      <c r="E174" t="n">
-        <v>958</v>
-      </c>
-      <c r="F174" t="n">
-        <v>10.3732</v>
-      </c>
-      <c r="G174" t="n">
-        <v>17966.72602867943</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>960</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>955</v>
-      </c>
-      <c r="C175" t="n">
-        <v>957</v>
-      </c>
-      <c r="D175" t="n">
-        <v>957</v>
-      </c>
-      <c r="E175" t="n">
-        <v>953</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1140.1455</v>
-      </c>
-      <c r="G175" t="n">
-        <v>16826.58052867943</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>960</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>956</v>
-      </c>
-      <c r="C176" t="n">
-        <v>956</v>
-      </c>
-      <c r="D176" t="n">
-        <v>956</v>
-      </c>
-      <c r="E176" t="n">
-        <v>956</v>
-      </c>
-      <c r="F176" t="n">
-        <v>57.0609</v>
-      </c>
-      <c r="G176" t="n">
-        <v>16769.51962867943</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>960</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>954</v>
-      </c>
-      <c r="C177" t="n">
-        <v>954</v>
-      </c>
-      <c r="D177" t="n">
-        <v>954</v>
-      </c>
-      <c r="E177" t="n">
-        <v>954</v>
-      </c>
-      <c r="F177" t="n">
-        <v>58.1922</v>
-      </c>
-      <c r="G177" t="n">
-        <v>16711.32742867943</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>960</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>953</v>
-      </c>
-      <c r="C178" t="n">
-        <v>953</v>
-      </c>
-      <c r="D178" t="n">
-        <v>953</v>
-      </c>
-      <c r="E178" t="n">
-        <v>953</v>
-      </c>
-      <c r="F178" t="n">
-        <v>918.9503</v>
-      </c>
-      <c r="G178" t="n">
-        <v>15792.37712867943</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>960</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>953</v>
-      </c>
-      <c r="C179" t="n">
-        <v>955</v>
-      </c>
-      <c r="D179" t="n">
-        <v>955</v>
-      </c>
-      <c r="E179" t="n">
-        <v>951</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2703.8289</v>
-      </c>
-      <c r="G179" t="n">
-        <v>18496.20602867943</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>953</v>
-      </c>
-      <c r="K179" t="n">
-        <v>960</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>951</v>
-      </c>
-      <c r="C180" t="n">
-        <v>951</v>
-      </c>
-      <c r="D180" t="n">
-        <v>952</v>
-      </c>
-      <c r="E180" t="n">
-        <v>951</v>
-      </c>
-      <c r="F180" t="n">
-        <v>76.4623</v>
-      </c>
-      <c r="G180" t="n">
-        <v>18419.74372867943</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>955</v>
-      </c>
-      <c r="K180" t="n">
-        <v>960</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>953</v>
-      </c>
-      <c r="C181" t="n">
-        <v>953</v>
-      </c>
-      <c r="D181" t="n">
-        <v>953</v>
-      </c>
-      <c r="E181" t="n">
-        <v>953</v>
-      </c>
-      <c r="F181" t="n">
-        <v>58.9835</v>
-      </c>
-      <c r="G181" t="n">
-        <v>18478.72722867943</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>951</v>
-      </c>
-      <c r="K181" t="n">
-        <v>960</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>952</v>
-      </c>
-      <c r="C182" t="n">
-        <v>952</v>
-      </c>
-      <c r="D182" t="n">
-        <v>953</v>
-      </c>
-      <c r="E182" t="n">
-        <v>952</v>
-      </c>
-      <c r="F182" t="n">
-        <v>99.226</v>
-      </c>
-      <c r="G182" t="n">
-        <v>18379.50122867943</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>953</v>
-      </c>
-      <c r="K182" t="n">
-        <v>960</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>953</v>
-      </c>
-      <c r="D183" t="n">
-        <v>953</v>
-      </c>
-      <c r="E183" t="n">
-        <v>953</v>
-      </c>
-      <c r="F183" t="n">
-        <v>151.2417461699895</v>
-      </c>
-      <c r="G183" t="n">
-        <v>18530.74297484942</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>952</v>
-      </c>
-      <c r="K183" t="n">
-        <v>960</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>952</v>
-      </c>
-      <c r="C184" t="n">
-        <v>952</v>
-      </c>
-      <c r="D184" t="n">
-        <v>952</v>
-      </c>
-      <c r="E184" t="n">
-        <v>952</v>
-      </c>
-      <c r="F184" t="n">
-        <v>39.6032</v>
-      </c>
-      <c r="G184" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>953</v>
-      </c>
-      <c r="K184" t="n">
-        <v>960</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>952</v>
-      </c>
-      <c r="C185" t="n">
-        <v>952</v>
-      </c>
-      <c r="D185" t="n">
-        <v>952</v>
-      </c>
-      <c r="E185" t="n">
-        <v>952</v>
-      </c>
-      <c r="F185" t="n">
-        <v>579.8353</v>
-      </c>
-      <c r="G185" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>952</v>
-      </c>
-      <c r="K185" t="n">
-        <v>960</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>952</v>
-      </c>
-      <c r="C186" t="n">
-        <v>952</v>
-      </c>
-      <c r="D186" t="n">
-        <v>952</v>
-      </c>
-      <c r="E186" t="n">
-        <v>952</v>
-      </c>
-      <c r="F186" t="n">
-        <v>596.5214999999999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>952</v>
-      </c>
-      <c r="K186" t="n">
-        <v>960</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>952</v>
-      </c>
-      <c r="C187" t="n">
-        <v>952</v>
-      </c>
-      <c r="D187" t="n">
-        <v>952</v>
-      </c>
-      <c r="E187" t="n">
-        <v>952</v>
-      </c>
-      <c r="F187" t="n">
-        <v>167.3635</v>
-      </c>
-      <c r="G187" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>952</v>
-      </c>
-      <c r="K187" t="n">
-        <v>960</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>952</v>
-      </c>
-      <c r="C188" t="n">
-        <v>952</v>
-      </c>
-      <c r="D188" t="n">
-        <v>952</v>
-      </c>
-      <c r="E188" t="n">
-        <v>952</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2</v>
-      </c>
-      <c r="G188" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>952</v>
-      </c>
-      <c r="K188" t="n">
-        <v>960</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>952</v>
-      </c>
-      <c r="C189" t="n">
-        <v>952</v>
-      </c>
-      <c r="D189" t="n">
-        <v>952</v>
-      </c>
-      <c r="E189" t="n">
-        <v>952</v>
-      </c>
-      <c r="F189" t="n">
-        <v>351.4814</v>
-      </c>
-      <c r="G189" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>952</v>
-      </c>
-      <c r="K189" t="n">
-        <v>960</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>952</v>
-      </c>
-      <c r="C190" t="n">
-        <v>952</v>
-      </c>
-      <c r="D190" t="n">
-        <v>952</v>
-      </c>
-      <c r="E190" t="n">
-        <v>952</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1078.6336</v>
-      </c>
-      <c r="G190" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>952</v>
-      </c>
-      <c r="K190" t="n">
-        <v>960</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>950</v>
-      </c>
-      <c r="C191" t="n">
-        <v>950</v>
-      </c>
-      <c r="D191" t="n">
-        <v>950</v>
-      </c>
-      <c r="E191" t="n">
-        <v>950</v>
-      </c>
-      <c r="F191" t="n">
-        <v>106.9957</v>
-      </c>
-      <c r="G191" t="n">
-        <v>18384.14407484942</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>952</v>
-      </c>
-      <c r="K191" t="n">
-        <v>960</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>950</v>
-      </c>
-      <c r="C192" t="n">
-        <v>950</v>
-      </c>
-      <c r="D192" t="n">
-        <v>950</v>
-      </c>
-      <c r="E192" t="n">
-        <v>950</v>
-      </c>
-      <c r="F192" t="n">
-        <v>160.2662</v>
-      </c>
-      <c r="G192" t="n">
-        <v>18384.14407484942</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>950</v>
-      </c>
-      <c r="K192" t="n">
-        <v>960</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>952</v>
-      </c>
-      <c r="C193" t="n">
-        <v>952</v>
-      </c>
-      <c r="D193" t="n">
-        <v>952</v>
-      </c>
-      <c r="E193" t="n">
-        <v>952</v>
-      </c>
-      <c r="F193" t="n">
-        <v>82.1401</v>
-      </c>
-      <c r="G193" t="n">
-        <v>18466.28417484942</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>950</v>
-      </c>
-      <c r="K193" t="n">
-        <v>960</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>951</v>
-      </c>
-      <c r="C194" t="n">
-        <v>951</v>
-      </c>
-      <c r="D194" t="n">
-        <v>951</v>
-      </c>
-      <c r="E194" t="n">
-        <v>951</v>
-      </c>
-      <c r="F194" t="n">
-        <v>14.0042</v>
-      </c>
-      <c r="G194" t="n">
-        <v>18452.27997484942</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>952</v>
-      </c>
-      <c r="K194" t="n">
-        <v>960</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>952</v>
-      </c>
-      <c r="C195" t="n">
-        <v>952</v>
-      </c>
-      <c r="D195" t="n">
-        <v>952</v>
-      </c>
-      <c r="E195" t="n">
-        <v>952</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1052</v>
-      </c>
-      <c r="G195" t="n">
-        <v>19504.27997484942</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>951</v>
-      </c>
-      <c r="K195" t="n">
-        <v>960</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>951</v>
-      </c>
-      <c r="C196" t="n">
-        <v>951</v>
-      </c>
-      <c r="D196" t="n">
-        <v>951</v>
-      </c>
-      <c r="E196" t="n">
-        <v>951</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G196" t="n">
-        <v>18504.27997484942</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>952</v>
-      </c>
-      <c r="K196" t="n">
-        <v>960</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>951</v>
-      </c>
-      <c r="C197" t="n">
-        <v>951</v>
-      </c>
-      <c r="D197" t="n">
-        <v>951</v>
-      </c>
-      <c r="E197" t="n">
-        <v>951</v>
-      </c>
-      <c r="F197" t="n">
-        <v>51.5247</v>
-      </c>
-      <c r="G197" t="n">
-        <v>18504.27997484942</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>951</v>
-      </c>
-      <c r="K197" t="n">
-        <v>960</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>948</v>
-      </c>
-      <c r="C198" t="n">
-        <v>949</v>
-      </c>
-      <c r="D198" t="n">
-        <v>949</v>
-      </c>
-      <c r="E198" t="n">
-        <v>946</v>
-      </c>
-      <c r="F198" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="G198" t="n">
-        <v>18144.97997484942</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>951</v>
-      </c>
-      <c r="K198" t="n">
-        <v>960</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>950</v>
-      </c>
-      <c r="C199" t="n">
-        <v>949</v>
-      </c>
-      <c r="D199" t="n">
-        <v>950</v>
-      </c>
-      <c r="E199" t="n">
-        <v>949</v>
-      </c>
-      <c r="F199" t="n">
-        <v>52.5626</v>
-      </c>
-      <c r="G199" t="n">
-        <v>18144.97997484942</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>949</v>
-      </c>
-      <c r="K199" t="n">
-        <v>960</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>946</v>
-      </c>
-      <c r="C200" t="n">
-        <v>951</v>
-      </c>
-      <c r="D200" t="n">
-        <v>951</v>
-      </c>
-      <c r="E200" t="n">
-        <v>946</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2134.3628</v>
-      </c>
-      <c r="G200" t="n">
-        <v>20279.34277484942</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>949</v>
-      </c>
-      <c r="K200" t="n">
-        <v>960</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>950</v>
-      </c>
-      <c r="C201" t="n">
-        <v>950</v>
-      </c>
-      <c r="D201" t="n">
-        <v>950</v>
-      </c>
-      <c r="E201" t="n">
-        <v>950</v>
-      </c>
-      <c r="F201" t="n">
-        <v>92.70480000000001</v>
-      </c>
-      <c r="G201" t="n">
-        <v>20186.63797484942</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>951</v>
-      </c>
-      <c r="K201" t="n">
-        <v>960</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>950</v>
-      </c>
-      <c r="C202" t="n">
-        <v>951</v>
-      </c>
-      <c r="D202" t="n">
-        <v>951</v>
-      </c>
-      <c r="E202" t="n">
-        <v>950</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1595.653</v>
-      </c>
-      <c r="G202" t="n">
-        <v>21782.29097484942</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>950</v>
-      </c>
-      <c r="K202" t="n">
-        <v>960</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>950</v>
-      </c>
-      <c r="C203" t="n">
-        <v>950</v>
-      </c>
-      <c r="D203" t="n">
-        <v>950</v>
-      </c>
-      <c r="E203" t="n">
-        <v>950</v>
-      </c>
-      <c r="F203" t="n">
-        <v>133.8119</v>
-      </c>
-      <c r="G203" t="n">
-        <v>21648.47907484942</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>951</v>
-      </c>
-      <c r="K203" t="n">
-        <v>960</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>951</v>
-      </c>
-      <c r="C204" t="n">
-        <v>951</v>
-      </c>
-      <c r="D204" t="n">
-        <v>951</v>
-      </c>
-      <c r="E204" t="n">
-        <v>951</v>
-      </c>
-      <c r="F204" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="G204" t="n">
-        <v>21798.37907484942</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>950</v>
-      </c>
-      <c r="K204" t="n">
-        <v>960</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>951</v>
-      </c>
-      <c r="C205" t="n">
-        <v>951</v>
-      </c>
-      <c r="D205" t="n">
-        <v>951</v>
-      </c>
-      <c r="E205" t="n">
-        <v>951</v>
-      </c>
-      <c r="F205" t="n">
-        <v>855.778</v>
-      </c>
-      <c r="G205" t="n">
-        <v>21798.37907484942</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>951</v>
-      </c>
-      <c r="K205" t="n">
-        <v>960</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>951</v>
-      </c>
-      <c r="C206" t="n">
-        <v>951</v>
-      </c>
-      <c r="D206" t="n">
-        <v>951</v>
-      </c>
-      <c r="E206" t="n">
-        <v>951</v>
-      </c>
-      <c r="F206" t="n">
-        <v>11.222</v>
-      </c>
-      <c r="G206" t="n">
-        <v>21798.37907484942</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>951</v>
-      </c>
-      <c r="K206" t="n">
-        <v>960</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>947</v>
-      </c>
-      <c r="C207" t="n">
-        <v>947</v>
-      </c>
-      <c r="D207" t="n">
-        <v>947</v>
-      </c>
-      <c r="E207" t="n">
-        <v>947</v>
-      </c>
-      <c r="F207" t="n">
-        <v>51</v>
-      </c>
-      <c r="G207" t="n">
-        <v>21747.37907484942</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>951</v>
-      </c>
-      <c r="K207" t="n">
-        <v>960</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="C2" t="n">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="D2" t="n">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="E2" t="n">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="F2" t="n">
-        <v>46.0319</v>
+        <v>4257.7857</v>
       </c>
       <c r="G2" t="n">
-        <v>30099.29392867943</v>
+        <v>7429.975200000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="C3" t="n">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="D3" t="n">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="E3" t="n">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="F3" t="n">
-        <v>75.3878</v>
+        <v>945.5312</v>
       </c>
       <c r="G3" t="n">
-        <v>30099.29392867943</v>
+        <v>8375.5064</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>946</v>
+      </c>
+      <c r="K3" t="n">
+        <v>946</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="C4" t="n">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="D4" t="n">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="E4" t="n">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="F4" t="n">
-        <v>331.9151</v>
+        <v>2137.279</v>
       </c>
       <c r="G4" t="n">
-        <v>29767.37882867943</v>
+        <v>10512.7854</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>946</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +556,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C5" t="n">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="D5" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E5" t="n">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F5" t="n">
-        <v>182.5151</v>
+        <v>3112.0152</v>
       </c>
       <c r="G5" t="n">
-        <v>29949.89392867943</v>
+        <v>10512.7854</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>946</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,28 +598,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C6" t="n">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="D6" t="n">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="E6" t="n">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="F6" t="n">
-        <v>2283.3138</v>
+        <v>3101.155032040816</v>
       </c>
       <c r="G6" t="n">
-        <v>32233.20772867943</v>
+        <v>10512.7854</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +634,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="C7" t="n">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="D7" t="n">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="E7" t="n">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="F7" t="n">
-        <v>42.8</v>
+        <v>6858.787326309489</v>
       </c>
       <c r="G7" t="n">
-        <v>32190.40772867943</v>
+        <v>17371.57272630949</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +670,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C8" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D8" t="n">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="E8" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F8" t="n">
-        <v>272.0388</v>
+        <v>4784.886383452503</v>
       </c>
       <c r="G8" t="n">
-        <v>31918.36892867943</v>
+        <v>12586.68634285698</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +706,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="C9" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D9" t="n">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="E9" t="n">
         <v>965</v>
       </c>
       <c r="F9" t="n">
-        <v>113.44</v>
+        <v>351.2914878695209</v>
       </c>
       <c r="G9" t="n">
-        <v>31918.36892867943</v>
+        <v>12937.97783072651</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +742,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C10" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D10" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E10" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F10" t="n">
-        <v>5124.6505</v>
+        <v>21.9692</v>
       </c>
       <c r="G10" t="n">
-        <v>31918.36892867943</v>
+        <v>12959.94703072651</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +778,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="C11" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="D11" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="E11" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>1.969</v>
       </c>
       <c r="G11" t="n">
-        <v>31916.30892867943</v>
+        <v>12959.94703072651</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +814,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C12" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D12" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E12" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F12" t="n">
-        <v>102.8414</v>
+        <v>82.8835</v>
       </c>
       <c r="G12" t="n">
-        <v>32019.15032867943</v>
+        <v>12959.94703072651</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +850,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C13" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D13" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E13" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F13" t="n">
-        <v>142.5</v>
+        <v>666.4032999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>32019.15032867943</v>
+        <v>12959.94703072651</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +886,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C14" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D14" t="n">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="E14" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F14" t="n">
-        <v>119.5177</v>
+        <v>2042.4194</v>
       </c>
       <c r="G14" t="n">
-        <v>31899.63262867943</v>
+        <v>10917.5276307265</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="C15" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="D15" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E15" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="F15" t="n">
-        <v>360.2758</v>
+        <v>23.9382</v>
       </c>
       <c r="G15" t="n">
-        <v>31899.63262867943</v>
+        <v>10941.46583072651</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +958,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="C16" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="D16" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E16" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="F16" t="n">
-        <v>1635.6548</v>
+        <v>1297.0465</v>
       </c>
       <c r="G16" t="n">
-        <v>30263.97782867943</v>
+        <v>9644.419330726505</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,28 +994,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="C17" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="D17" t="n">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E17" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="F17" t="n">
-        <v>385.8622</v>
+        <v>29.9208</v>
       </c>
       <c r="G17" t="n">
-        <v>30263.97782867943</v>
+        <v>9674.340130726505</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1030,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="C18" t="n">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="D18" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="E18" t="n">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="F18" t="n">
-        <v>16.2678</v>
+        <v>14659.9951</v>
       </c>
       <c r="G18" t="n">
-        <v>30280.24562867943</v>
+        <v>24334.3352307265</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1066,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="C19" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="D19" t="n">
-        <v>963</v>
+        <v>980</v>
       </c>
       <c r="E19" t="n">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="F19" t="n">
-        <v>38.15</v>
+        <v>802.0275</v>
       </c>
       <c r="G19" t="n">
-        <v>30280.24562867943</v>
+        <v>25136.36273072651</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1102,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="C20" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="D20" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="E20" t="n">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="F20" t="n">
-        <v>1.3032</v>
+        <v>4168.0231</v>
       </c>
       <c r="G20" t="n">
-        <v>30280.24562867943</v>
+        <v>25136.36273072651</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1138,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="C21" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="D21" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="E21" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F21" t="n">
-        <v>28.9496</v>
+        <v>25.7796</v>
       </c>
       <c r="G21" t="n">
-        <v>30280.24562867943</v>
+        <v>25136.36273072651</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1174,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="C22" t="n">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="D22" t="n">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="E22" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F22" t="n">
-        <v>139.5</v>
+        <v>229.9813</v>
       </c>
       <c r="G22" t="n">
-        <v>30419.74562867943</v>
+        <v>25136.36273072651</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="C23" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="D23" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="E23" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="F23" t="n">
-        <v>26.5249</v>
+        <v>840.728</v>
       </c>
       <c r="G23" t="n">
-        <v>30393.22072867943</v>
+        <v>25136.36273072651</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1246,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="C24" t="n">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="D24" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="E24" t="n">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="F24" t="n">
-        <v>11.3402</v>
+        <v>2083.1012</v>
       </c>
       <c r="G24" t="n">
-        <v>30381.88052867943</v>
+        <v>25136.36273072651</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1282,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="C25" t="n">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="D25" t="n">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="E25" t="n">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="F25" t="n">
-        <v>1528.2473</v>
+        <v>33.6819</v>
       </c>
       <c r="G25" t="n">
-        <v>28853.63322867943</v>
+        <v>25170.0446307265</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1318,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="C26" t="n">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="D26" t="n">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="E26" t="n">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="F26" t="n">
-        <v>384.9122</v>
+        <v>966.7384</v>
       </c>
       <c r="G26" t="n">
-        <v>29238.54542867943</v>
+        <v>24203.30623072651</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,22 +1354,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="C27" t="n">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="D27" t="n">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="E27" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F27" t="n">
-        <v>76.2025</v>
+        <v>4926.7425</v>
       </c>
       <c r="G27" t="n">
-        <v>29238.54542867943</v>
+        <v>29130.04873072651</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1390,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="C28" t="n">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="D28" t="n">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="E28" t="n">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="F28" t="n">
-        <v>1.2999</v>
+        <v>1121.5221</v>
       </c>
       <c r="G28" t="n">
-        <v>29237.24552867943</v>
+        <v>28008.52663072651</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,28 +1426,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="C29" t="n">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="D29" t="n">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="E29" t="n">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="F29" t="n">
-        <v>420.9377</v>
+        <v>4.4323</v>
       </c>
       <c r="G29" t="n">
-        <v>28816.30782867943</v>
+        <v>28008.52663072651</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1462,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C30" t="n">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="D30" t="n">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="E30" t="n">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0772</v>
+        <v>2178.6492</v>
       </c>
       <c r="G30" t="n">
-        <v>28817.38502867943</v>
+        <v>25829.87743072651</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1498,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="C31" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D31" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E31" t="n">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="F31" t="n">
-        <v>2733.3036</v>
+        <v>3.9246</v>
       </c>
       <c r="G31" t="n">
-        <v>31550.68862867943</v>
+        <v>25825.95283072651</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,7 +1534,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C32" t="n">
         <v>964</v>
@@ -1527,13 +1543,13 @@
         <v>964</v>
       </c>
       <c r="E32" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F32" t="n">
-        <v>1949.6668</v>
+        <v>1069.6108</v>
       </c>
       <c r="G32" t="n">
-        <v>33500.35542867943</v>
+        <v>25825.95283072651</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,28 +1570,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C33" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D33" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E33" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F33" t="n">
-        <v>5.6765</v>
+        <v>729.277</v>
       </c>
       <c r="G33" t="n">
-        <v>33494.67892867943</v>
+        <v>25825.95283072651</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1606,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C34" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D34" t="n">
         <v>964</v>
       </c>
       <c r="E34" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="F34" t="n">
-        <v>2751.129</v>
+        <v>0.505</v>
       </c>
       <c r="G34" t="n">
-        <v>30743.54992867943</v>
+        <v>25825.95283072651</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,22 +1642,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C35" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D35" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E35" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F35" t="n">
-        <v>39.7808</v>
+        <v>3330.9697</v>
       </c>
       <c r="G35" t="n">
-        <v>30783.33072867943</v>
+        <v>25825.95283072651</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,28 +1678,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C36" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D36" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E36" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F36" t="n">
-        <v>1110</v>
+        <v>414</v>
       </c>
       <c r="G36" t="n">
-        <v>29673.33072867943</v>
+        <v>26239.95283072651</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1714,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="C37" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="D37" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="E37" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="F37" t="n">
-        <v>5436.4826</v>
+        <v>1.1222</v>
       </c>
       <c r="G37" t="n">
-        <v>24236.84812867943</v>
+        <v>26239.95283072651</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1750,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C38" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="D38" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E38" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="F38" t="n">
-        <v>1975.2209</v>
+        <v>565.437</v>
       </c>
       <c r="G38" t="n">
-        <v>24236.84812867943</v>
+        <v>26239.95283072651</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1786,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="C39" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="D39" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="E39" t="n">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="F39" t="n">
-        <v>1.7847</v>
+        <v>1704.5317</v>
       </c>
       <c r="G39" t="n">
-        <v>24236.84812867943</v>
+        <v>27944.48453072651</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1822,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="C40" t="n">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="D40" t="n">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="E40" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="F40" t="n">
-        <v>476.4497</v>
+        <v>1160.9943</v>
       </c>
       <c r="G40" t="n">
-        <v>24236.84812867943</v>
+        <v>29105.47883072651</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1858,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="C41" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="D41" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="E41" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="F41" t="n">
-        <v>49.1589</v>
+        <v>277.9215</v>
       </c>
       <c r="G41" t="n">
-        <v>24286.00702867943</v>
+        <v>29383.40033072651</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1894,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="C42" t="n">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="D42" t="n">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="E42" t="n">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="F42" t="n">
-        <v>343.2705</v>
+        <v>30.8687</v>
       </c>
       <c r="G42" t="n">
-        <v>24286.00702867943</v>
+        <v>29414.26903072651</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1930,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="C43" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="D43" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="E43" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="F43" t="n">
-        <v>827.2997</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>24286.00702867943</v>
+        <v>29364.26903072651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1966,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C44" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="D44" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="E44" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="F44" t="n">
-        <v>438.8095</v>
+        <v>199.7221</v>
       </c>
       <c r="G44" t="n">
-        <v>24286.00702867943</v>
+        <v>29164.54693072651</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +2002,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="C45" t="n">
-        <v>960</v>
+        <v>977</v>
       </c>
       <c r="D45" t="n">
-        <v>960</v>
+        <v>977</v>
       </c>
       <c r="E45" t="n">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="F45" t="n">
-        <v>6459.3</v>
+        <v>231.0659979529171</v>
       </c>
       <c r="G45" t="n">
-        <v>17826.70702867943</v>
+        <v>29395.61292867942</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2038,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="C46" t="n">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="D46" t="n">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="E46" t="n">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="F46" t="n">
-        <v>10229.2744</v>
+        <v>2755.9284</v>
       </c>
       <c r="G46" t="n">
-        <v>7597.432628679429</v>
+        <v>32151.54132867942</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2074,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="C47" t="n">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="D47" t="n">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="E47" t="n">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="F47" t="n">
-        <v>4602.8805</v>
+        <v>300</v>
       </c>
       <c r="G47" t="n">
-        <v>12200.31312867943</v>
+        <v>31851.54132867942</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2110,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="C48" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="D48" t="n">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="E48" t="n">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="F48" t="n">
-        <v>3401.8626</v>
+        <v>93.0753</v>
       </c>
       <c r="G48" t="n">
-        <v>12200.31312867943</v>
+        <v>31758.46602867942</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2146,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="C49" t="n">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="D49" t="n">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="E49" t="n">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="F49" t="n">
-        <v>511.1814</v>
+        <v>15.7187</v>
       </c>
       <c r="G49" t="n">
-        <v>12200.31312867943</v>
+        <v>31774.18472867943</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2182,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="C50" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="D50" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="E50" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="F50" t="n">
-        <v>258.6871</v>
+        <v>1529.744</v>
       </c>
       <c r="G50" t="n">
-        <v>12200.31312867943</v>
+        <v>30244.44072867943</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2218,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="C51" t="n">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="D51" t="n">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="E51" t="n">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="F51" t="n">
-        <v>3.1832</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>12197.12992867943</v>
+        <v>30245.44072867943</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>959</v>
+        <v>976</v>
       </c>
       <c r="C52" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="D52" t="n">
-        <v>959</v>
+        <v>976</v>
       </c>
       <c r="E52" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="F52" t="n">
-        <v>160.3678</v>
+        <v>57.6729</v>
       </c>
       <c r="G52" t="n">
-        <v>12357.49772867943</v>
+        <v>30187.76782867943</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2290,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="C53" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="D53" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="E53" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="F53" t="n">
-        <v>1050.7436</v>
+        <v>2764.8738</v>
       </c>
       <c r="G53" t="n">
-        <v>13408.24132867943</v>
+        <v>30187.76782867943</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2326,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="C54" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="D54" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="E54" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="F54" t="n">
-        <v>342.6865</v>
+        <v>36.9369</v>
       </c>
       <c r="G54" t="n">
-        <v>13750.92782867943</v>
+        <v>30187.76782867943</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2362,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="C55" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="D55" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="E55" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="F55" t="n">
-        <v>1691.9061</v>
+        <v>18.3556</v>
       </c>
       <c r="G55" t="n">
-        <v>15442.83392867943</v>
+        <v>30187.76782867943</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2398,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="C56" t="n">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="D56" t="n">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="E56" t="n">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1.6305</v>
       </c>
       <c r="G56" t="n">
-        <v>15442.83392867943</v>
+        <v>30189.39832867942</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2434,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="C57" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="D57" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="E57" t="n">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="F57" t="n">
-        <v>910.4103</v>
+        <v>124.0911</v>
       </c>
       <c r="G57" t="n">
-        <v>14532.42362867943</v>
+        <v>30313.48942867943</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2470,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="C58" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="D58" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="E58" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="F58" t="n">
-        <v>171.806</v>
+        <v>119.8173</v>
       </c>
       <c r="G58" t="n">
-        <v>14532.42362867943</v>
+        <v>30313.48942867943</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2506,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="C59" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="D59" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="E59" t="n">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="F59" t="n">
-        <v>12.6413</v>
+        <v>321.96</v>
       </c>
       <c r="G59" t="n">
-        <v>14532.42362867943</v>
+        <v>30313.48942867943</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2542,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C60" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="D60" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="E60" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="F60" t="n">
-        <v>46.7896</v>
+        <v>32.3571</v>
       </c>
       <c r="G60" t="n">
-        <v>14532.42362867943</v>
+        <v>30281.13232867942</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2578,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="C61" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="D61" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="E61" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="F61" t="n">
-        <v>174.9233</v>
+        <v>46.3999</v>
       </c>
       <c r="G61" t="n">
-        <v>14532.42362867943</v>
+        <v>30234.73242867942</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2614,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="C62" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="D62" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="E62" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>166.4948</v>
       </c>
       <c r="G62" t="n">
-        <v>14535.42362867943</v>
+        <v>30234.73242867942</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2650,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="C63" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="D63" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="E63" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="F63" t="n">
-        <v>181.0859</v>
+        <v>5.4968</v>
       </c>
       <c r="G63" t="n">
-        <v>14535.42362867943</v>
+        <v>30229.23562867942</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2686,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="C64" t="n">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="D64" t="n">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="E64" t="n">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="F64" t="n">
-        <v>450</v>
+        <v>3.2252</v>
       </c>
       <c r="G64" t="n">
-        <v>14085.42362867943</v>
+        <v>30232.46082867942</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2722,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C65" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="D65" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="E65" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>2.0513</v>
       </c>
       <c r="G65" t="n">
-        <v>14085.42362867943</v>
+        <v>30234.51212867942</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2758,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="C66" t="n">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="D66" t="n">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="E66" t="n">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>66.04049999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>14085.42362867943</v>
+        <v>30168.47162867942</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="C67" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="D67" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="E67" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>1.1796</v>
       </c>
       <c r="G67" t="n">
-        <v>13585.42362867943</v>
+        <v>30168.47162867942</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2830,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="C68" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="D68" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="E68" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="F68" t="n">
-        <v>8.305400000000001</v>
+        <v>171.6203</v>
       </c>
       <c r="G68" t="n">
-        <v>13585.42362867943</v>
+        <v>30168.47162867942</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2866,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="C69" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="D69" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="E69" t="n">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="F69" t="n">
-        <v>64.9418</v>
+        <v>48.1576</v>
       </c>
       <c r="G69" t="n">
-        <v>13585.42362867943</v>
+        <v>30120.31402867943</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2902,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C70" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="D70" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="E70" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="F70" t="n">
-        <v>288.9365</v>
+        <v>62.6</v>
       </c>
       <c r="G70" t="n">
-        <v>13585.42362867943</v>
+        <v>30057.71402867943</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2938,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="C71" t="n">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="D71" t="n">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="E71" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="F71" t="n">
-        <v>224.6161</v>
+        <v>4.452</v>
       </c>
       <c r="G71" t="n">
-        <v>13810.03972867943</v>
+        <v>30053.26202867943</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2974,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="C72" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="D72" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="E72" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="F72" t="n">
-        <v>195.9564</v>
+        <v>248.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>14005.99612867943</v>
+        <v>30053.26202867943</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="C73" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="D73" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="E73" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="F73" t="n">
-        <v>1089.6797</v>
+        <v>46.0319</v>
       </c>
       <c r="G73" t="n">
-        <v>14005.99612867943</v>
+        <v>30099.29392867943</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3046,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="C74" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="D74" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="E74" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="F74" t="n">
-        <v>2.3</v>
+        <v>75.3878</v>
       </c>
       <c r="G74" t="n">
-        <v>14005.99612867943</v>
+        <v>30099.29392867943</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="C75" t="n">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="D75" t="n">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="E75" t="n">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="F75" t="n">
-        <v>500</v>
+        <v>331.9151</v>
       </c>
       <c r="G75" t="n">
-        <v>14005.99612867943</v>
+        <v>29767.37882867943</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3118,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="C76" t="n">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="D76" t="n">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="E76" t="n">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="F76" t="n">
-        <v>1.2</v>
+        <v>182.5151</v>
       </c>
       <c r="G76" t="n">
-        <v>14007.19612867943</v>
+        <v>29949.89392867943</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="C77" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="D77" t="n">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="E77" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="F77" t="n">
-        <v>40.5749</v>
+        <v>2283.3138</v>
       </c>
       <c r="G77" t="n">
-        <v>13966.62122867943</v>
+        <v>32233.20772867943</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3190,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C78" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="D78" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="E78" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="F78" t="n">
-        <v>1088.5737</v>
+        <v>42.8</v>
       </c>
       <c r="G78" t="n">
-        <v>13966.62122867943</v>
+        <v>32190.40772867943</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3226,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C79" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D79" t="n">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="E79" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F79" t="n">
-        <v>569.2968</v>
+        <v>272.0388</v>
       </c>
       <c r="G79" t="n">
-        <v>13966.62122867943</v>
+        <v>31918.36892867943</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3262,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C80" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D80" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E80" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F80" t="n">
-        <v>33.5</v>
+        <v>113.44</v>
       </c>
       <c r="G80" t="n">
-        <v>13966.62122867943</v>
+        <v>31918.36892867943</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3298,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C81" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D81" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E81" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F81" t="n">
-        <v>23.8018</v>
+        <v>5124.6505</v>
       </c>
       <c r="G81" t="n">
-        <v>13966.62122867943</v>
+        <v>31918.36892867943</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3330,10 +3346,10 @@
         <v>960</v>
       </c>
       <c r="F82" t="n">
-        <v>136.8476</v>
+        <v>2.06</v>
       </c>
       <c r="G82" t="n">
-        <v>13966.62122867943</v>
+        <v>31916.30892867943</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3370,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="C83" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="D83" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E83" t="n">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="F83" t="n">
-        <v>1817.246</v>
+        <v>102.8414</v>
       </c>
       <c r="G83" t="n">
-        <v>15783.86722867943</v>
+        <v>32019.15032867943</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3406,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C84" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D84" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E84" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F84" t="n">
-        <v>501.3056</v>
+        <v>142.5</v>
       </c>
       <c r="G84" t="n">
-        <v>15282.56162867943</v>
+        <v>32019.15032867943</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3442,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C85" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D85" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E85" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F85" t="n">
-        <v>99.75</v>
+        <v>119.5177</v>
       </c>
       <c r="G85" t="n">
-        <v>15182.81162867943</v>
+        <v>31899.63262867943</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3474,10 +3490,10 @@
         <v>961</v>
       </c>
       <c r="F86" t="n">
-        <v>35.8442</v>
+        <v>360.2758</v>
       </c>
       <c r="G86" t="n">
-        <v>15218.65582867943</v>
+        <v>31899.63262867943</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3501,19 +3517,19 @@
         <v>961</v>
       </c>
       <c r="C87" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D87" t="n">
         <v>961</v>
       </c>
       <c r="E87" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F87" t="n">
-        <v>5.965</v>
+        <v>1635.6548</v>
       </c>
       <c r="G87" t="n">
-        <v>15218.65582867943</v>
+        <v>30263.97782867943</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3550,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C88" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D88" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E88" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F88" t="n">
-        <v>44.3</v>
+        <v>385.8622</v>
       </c>
       <c r="G88" t="n">
-        <v>15218.65582867943</v>
+        <v>30263.97782867943</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3586,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C89" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="D89" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="E89" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>16.2678</v>
       </c>
       <c r="G89" t="n">
-        <v>15198.65582867943</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3622,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C90" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D90" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E90" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="F90" t="n">
-        <v>459.5688</v>
+        <v>38.15</v>
       </c>
       <c r="G90" t="n">
-        <v>15658.22462867943</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3658,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C91" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D91" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E91" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F91" t="n">
-        <v>710.4184</v>
+        <v>1.3032</v>
       </c>
       <c r="G91" t="n">
-        <v>16368.64302867943</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3694,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C92" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D92" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E92" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F92" t="n">
-        <v>916.3987</v>
+        <v>28.9496</v>
       </c>
       <c r="G92" t="n">
-        <v>16368.64302867943</v>
+        <v>30280.24562867943</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3730,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C93" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D93" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E93" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F93" t="n">
-        <v>30</v>
+        <v>139.5</v>
       </c>
       <c r="G93" t="n">
-        <v>16338.64302867943</v>
+        <v>30419.74562867943</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3766,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C94" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D94" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E94" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F94" t="n">
-        <v>573.5309</v>
+        <v>26.5249</v>
       </c>
       <c r="G94" t="n">
-        <v>15765.11212867943</v>
+        <v>30393.22072867943</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3802,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C95" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D95" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E95" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F95" t="n">
-        <v>30</v>
+        <v>11.3402</v>
       </c>
       <c r="G95" t="n">
-        <v>15795.11212867943</v>
+        <v>30381.88052867943</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3838,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C96" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D96" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E96" t="n">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="F96" t="n">
-        <v>817.1108</v>
+        <v>1528.2473</v>
       </c>
       <c r="G96" t="n">
-        <v>16612.22292867943</v>
+        <v>28853.63322867943</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3874,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C97" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D97" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E97" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F97" t="n">
-        <v>134.2638</v>
+        <v>384.9122</v>
       </c>
       <c r="G97" t="n">
-        <v>16612.22292867943</v>
+        <v>29238.54542867943</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3910,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C98" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D98" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E98" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F98" t="n">
-        <v>114.743</v>
+        <v>76.2025</v>
       </c>
       <c r="G98" t="n">
-        <v>16612.22292867943</v>
+        <v>29238.54542867943</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3946,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C99" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D99" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E99" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F99" t="n">
-        <v>34.7394</v>
+        <v>1.2999</v>
       </c>
       <c r="G99" t="n">
-        <v>16577.48352867943</v>
+        <v>29237.24552867943</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3969,19 +3985,19 @@
         <v>960</v>
       </c>
       <c r="C100" t="n">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D100" t="n">
         <v>960</v>
       </c>
       <c r="E100" t="n">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F100" t="n">
-        <v>29.925</v>
+        <v>420.9377</v>
       </c>
       <c r="G100" t="n">
-        <v>16547.55852867943</v>
+        <v>28816.30782867943</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4018,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C101" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D101" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E101" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F101" t="n">
-        <v>102.7337</v>
+        <v>1.0772</v>
       </c>
       <c r="G101" t="n">
-        <v>16547.55852867943</v>
+        <v>28817.38502867943</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,7 +4054,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C102" t="n">
         <v>963</v>
@@ -4047,13 +4063,13 @@
         <v>963</v>
       </c>
       <c r="E102" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F102" t="n">
-        <v>50.2305</v>
+        <v>2733.3036</v>
       </c>
       <c r="G102" t="n">
-        <v>16597.78902867944</v>
+        <v>31550.68862867943</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4090,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C103" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D103" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="E103" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>1949.6668</v>
       </c>
       <c r="G103" t="n">
-        <v>16577.78902867944</v>
+        <v>33500.35542867943</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4126,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C104" t="n">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="D104" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E104" t="n">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="F104" t="n">
-        <v>2257.4666</v>
+        <v>5.6765</v>
       </c>
       <c r="G104" t="n">
-        <v>14320.32242867944</v>
+        <v>33494.67892867943</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4162,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C105" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D105" t="n">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="E105" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F105" t="n">
-        <v>866</v>
+        <v>2751.129</v>
       </c>
       <c r="G105" t="n">
-        <v>14320.32242867944</v>
+        <v>30743.54992867943</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4198,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C106" t="n">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="D106" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E106" t="n">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="F106" t="n">
-        <v>4415</v>
+        <v>39.7808</v>
       </c>
       <c r="G106" t="n">
-        <v>9905.322428679436</v>
+        <v>30783.33072867943</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4221,19 +4237,19 @@
         <v>960</v>
       </c>
       <c r="C107" t="n">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D107" t="n">
         <v>960</v>
       </c>
       <c r="E107" t="n">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="F107" t="n">
-        <v>1910.5423</v>
+        <v>1110</v>
       </c>
       <c r="G107" t="n">
-        <v>9905.322428679436</v>
+        <v>29673.33072867943</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,7 +4270,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C108" t="n">
         <v>959</v>
@@ -4263,13 +4279,13 @@
         <v>959</v>
       </c>
       <c r="E108" t="n">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="F108" t="n">
-        <v>2515.8369</v>
+        <v>5436.4826</v>
       </c>
       <c r="G108" t="n">
-        <v>12421.15932867944</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4293,19 +4309,19 @@
         <v>960</v>
       </c>
       <c r="C109" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D109" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E109" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F109" t="n">
-        <v>4070.038</v>
+        <v>1975.2209</v>
       </c>
       <c r="G109" t="n">
-        <v>16491.19732867943</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4342,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C110" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D110" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E110" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F110" t="n">
-        <v>9.5448</v>
+        <v>1.7847</v>
       </c>
       <c r="G110" t="n">
-        <v>16491.19732867943</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4378,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C111" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D111" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E111" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F111" t="n">
-        <v>74.3319</v>
+        <v>476.4497</v>
       </c>
       <c r="G111" t="n">
-        <v>16416.86542867943</v>
+        <v>24236.84812867943</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4414,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C112" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D112" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E112" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F112" t="n">
-        <v>366.7701</v>
+        <v>49.1589</v>
       </c>
       <c r="G112" t="n">
-        <v>16783.63552867944</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4437,19 +4453,19 @@
         <v>961</v>
       </c>
       <c r="C113" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D113" t="n">
         <v>961</v>
       </c>
       <c r="E113" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F113" t="n">
-        <v>400.0618</v>
+        <v>343.2705</v>
       </c>
       <c r="G113" t="n">
-        <v>16383.57372867944</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4482,10 +4498,10 @@
         <v>961</v>
       </c>
       <c r="F114" t="n">
-        <v>803.8224</v>
+        <v>827.2997</v>
       </c>
       <c r="G114" t="n">
-        <v>17187.39612867944</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4518,10 +4534,10 @@
         <v>961</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>438.8095</v>
       </c>
       <c r="G115" t="n">
-        <v>17187.39612867944</v>
+        <v>24286.00702867943</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4545,19 +4561,19 @@
         <v>958</v>
       </c>
       <c r="C116" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D116" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E116" t="n">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F116" t="n">
-        <v>1.8296</v>
+        <v>6459.3</v>
       </c>
       <c r="G116" t="n">
-        <v>17185.56652867944</v>
+        <v>17826.70702867943</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4594,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C117" t="n">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D117" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E117" t="n">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F117" t="n">
-        <v>4407.7383</v>
+        <v>10229.2744</v>
       </c>
       <c r="G117" t="n">
-        <v>17185.56652867944</v>
+        <v>7597.432628679429</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4630,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="C118" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D118" t="n">
         <v>962</v>
       </c>
       <c r="E118" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="F118" t="n">
-        <v>125.0985</v>
+        <v>4602.8805</v>
       </c>
       <c r="G118" t="n">
-        <v>17310.66502867944</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4666,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C119" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D119" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E119" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F119" t="n">
-        <v>436.6337</v>
+        <v>3401.8626</v>
       </c>
       <c r="G119" t="n">
-        <v>16874.03132867944</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4702,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C120" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D120" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E120" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F120" t="n">
-        <v>130.8192</v>
+        <v>511.1814</v>
       </c>
       <c r="G120" t="n">
-        <v>16874.03132867944</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4738,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C121" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D121" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E121" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F121" t="n">
-        <v>2046.8227</v>
+        <v>258.6871</v>
       </c>
       <c r="G121" t="n">
-        <v>16874.03132867944</v>
+        <v>12200.31312867943</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4774,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C122" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D122" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E122" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F122" t="n">
-        <v>236.4</v>
+        <v>3.1832</v>
       </c>
       <c r="G122" t="n">
-        <v>16874.03132867944</v>
+        <v>12197.12992867943</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4810,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C123" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D123" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E123" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F123" t="n">
-        <v>95.5247</v>
+        <v>160.3678</v>
       </c>
       <c r="G123" t="n">
-        <v>16874.03132867944</v>
+        <v>12357.49772867943</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4833,19 +4849,19 @@
         <v>961</v>
       </c>
       <c r="C124" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D124" t="n">
         <v>961</v>
       </c>
       <c r="E124" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F124" t="n">
-        <v>24.9976</v>
+        <v>1050.7436</v>
       </c>
       <c r="G124" t="n">
-        <v>16874.03132867944</v>
+        <v>13408.24132867943</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4878,10 +4894,10 @@
         <v>961</v>
       </c>
       <c r="F125" t="n">
-        <v>8.4659</v>
+        <v>342.6865</v>
       </c>
       <c r="G125" t="n">
-        <v>16874.03132867944</v>
+        <v>13750.92782867943</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4914,10 +4930,10 @@
         <v>961</v>
       </c>
       <c r="F126" t="n">
-        <v>1224.0701</v>
+        <v>1691.9061</v>
       </c>
       <c r="G126" t="n">
-        <v>18098.10142867944</v>
+        <v>15442.83392867943</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4950,10 +4966,10 @@
         <v>962</v>
       </c>
       <c r="F127" t="n">
-        <v>43.3463</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>18098.10142867944</v>
+        <v>15442.83392867943</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4990,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C128" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D128" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E128" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F128" t="n">
-        <v>23.3905</v>
+        <v>910.4103</v>
       </c>
       <c r="G128" t="n">
-        <v>18098.10142867944</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5026,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C129" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D129" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E129" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F129" t="n">
-        <v>153.8247</v>
+        <v>171.806</v>
       </c>
       <c r="G129" t="n">
-        <v>17944.27672867944</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5062,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C130" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D130" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E130" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F130" t="n">
-        <v>27.1748</v>
+        <v>12.6413</v>
       </c>
       <c r="G130" t="n">
-        <v>17917.10192867944</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5098,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="C131" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D131" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E131" t="n">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="F131" t="n">
-        <v>59.9973</v>
+        <v>46.7896</v>
       </c>
       <c r="G131" t="n">
-        <v>17977.09922867944</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5134,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C132" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D132" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E132" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F132" t="n">
-        <v>10.3732</v>
+        <v>174.9233</v>
       </c>
       <c r="G132" t="n">
-        <v>17966.72602867943</v>
+        <v>14532.42362867943</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5170,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="C133" t="n">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="D133" t="n">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="E133" t="n">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="F133" t="n">
-        <v>1140.1455</v>
+        <v>3</v>
       </c>
       <c r="G133" t="n">
-        <v>16826.58052867943</v>
+        <v>14535.42362867943</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5206,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C134" t="n">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="D134" t="n">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="E134" t="n">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="F134" t="n">
-        <v>57.0609</v>
+        <v>181.0859</v>
       </c>
       <c r="G134" t="n">
-        <v>16769.51962867943</v>
+        <v>14535.42362867943</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5242,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C135" t="n">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="D135" t="n">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="E135" t="n">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="F135" t="n">
-        <v>58.1922</v>
+        <v>450</v>
       </c>
       <c r="G135" t="n">
-        <v>16711.32742867943</v>
+        <v>14085.42362867943</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5278,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="C136" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="D136" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="E136" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="F136" t="n">
-        <v>918.9503</v>
+        <v>50</v>
       </c>
       <c r="G136" t="n">
-        <v>15792.37712867943</v>
+        <v>14085.42362867943</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5314,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="C137" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D137" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="E137" t="n">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="F137" t="n">
-        <v>2703.8289</v>
+        <v>500</v>
       </c>
       <c r="G137" t="n">
-        <v>18496.20602867943</v>
+        <v>14085.42362867943</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,38 +5350,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="C138" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="D138" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="E138" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="F138" t="n">
-        <v>76.4623</v>
+        <v>500</v>
       </c>
       <c r="G138" t="n">
-        <v>18419.74372867943</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>955</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5376,38 +5386,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="C139" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="D139" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E139" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="F139" t="n">
-        <v>58.9835</v>
+        <v>8.305400000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>18478.72722867943</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>951</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5418,38 +5422,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="C140" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D140" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E140" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="F140" t="n">
-        <v>99.226</v>
+        <v>64.9418</v>
       </c>
       <c r="G140" t="n">
-        <v>18379.50122867943</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>953</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5460,38 +5458,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="C141" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="D141" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E141" t="n">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="F141" t="n">
-        <v>151.2417461699895</v>
+        <v>288.9365</v>
       </c>
       <c r="G141" t="n">
-        <v>18530.74297484942</v>
+        <v>13585.42362867943</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>952</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5502,38 +5494,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="C142" t="n">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="D142" t="n">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="E142" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="F142" t="n">
-        <v>39.6032</v>
+        <v>224.6161</v>
       </c>
       <c r="G142" t="n">
-        <v>18491.13977484942</v>
+        <v>13810.03972867943</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>953</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5544,38 +5530,32 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="C143" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D143" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="E143" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="F143" t="n">
-        <v>579.8353</v>
+        <v>195.9564</v>
       </c>
       <c r="G143" t="n">
-        <v>18491.13977484942</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>952</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5586,38 +5566,32 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="C144" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D144" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="E144" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="F144" t="n">
-        <v>596.5214999999999</v>
+        <v>1089.6797</v>
       </c>
       <c r="G144" t="n">
-        <v>18491.13977484942</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>952</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5628,38 +5602,32 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="C145" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D145" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="E145" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="F145" t="n">
-        <v>167.3635</v>
+        <v>2.3</v>
       </c>
       <c r="G145" t="n">
-        <v>18491.13977484942</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>952</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5670,38 +5638,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="C146" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D146" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="E146" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="G146" t="n">
-        <v>18491.13977484942</v>
+        <v>14005.99612867943</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>952</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5712,38 +5674,32 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="C147" t="n">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="D147" t="n">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="E147" t="n">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="F147" t="n">
-        <v>351.4814</v>
+        <v>1.2</v>
       </c>
       <c r="G147" t="n">
-        <v>18491.13977484942</v>
+        <v>14007.19612867943</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>952</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5754,38 +5710,32 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="C148" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D148" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="E148" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="F148" t="n">
-        <v>1078.6336</v>
+        <v>40.5749</v>
       </c>
       <c r="G148" t="n">
-        <v>18491.13977484942</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>952</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5796,38 +5746,32 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="C149" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D149" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="E149" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="F149" t="n">
-        <v>106.9957</v>
+        <v>1088.5737</v>
       </c>
       <c r="G149" t="n">
-        <v>18384.14407484942</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>952</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5838,38 +5782,32 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="C150" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D150" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="E150" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="F150" t="n">
-        <v>160.2662</v>
+        <v>569.2968</v>
       </c>
       <c r="G150" t="n">
-        <v>18384.14407484942</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>950</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5880,38 +5818,32 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="C151" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D151" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="E151" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="F151" t="n">
-        <v>82.1401</v>
+        <v>33.5</v>
       </c>
       <c r="G151" t="n">
-        <v>18466.28417484942</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>950</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5922,38 +5854,32 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="C152" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="D152" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="E152" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="F152" t="n">
-        <v>14.0042</v>
+        <v>23.8018</v>
       </c>
       <c r="G152" t="n">
-        <v>18452.27997484942</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>952</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5964,38 +5890,32 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="C153" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D153" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="E153" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="F153" t="n">
-        <v>1052</v>
+        <v>136.8476</v>
       </c>
       <c r="G153" t="n">
-        <v>19504.27997484942</v>
+        <v>13966.62122867943</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>951</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6006,38 +5926,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="C154" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="D154" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="E154" t="n">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F154" t="n">
-        <v>1000</v>
+        <v>1817.246</v>
       </c>
       <c r="G154" t="n">
-        <v>18504.27997484942</v>
+        <v>15783.86722867943</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>952</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6048,38 +5962,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="C155" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="D155" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="E155" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="F155" t="n">
-        <v>51.5247</v>
+        <v>501.3056</v>
       </c>
       <c r="G155" t="n">
-        <v>18504.27997484942</v>
+        <v>15282.56162867943</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>951</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6090,38 +5998,32 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="C156" t="n">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="D156" t="n">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="E156" t="n">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="F156" t="n">
-        <v>359.3</v>
+        <v>99.75</v>
       </c>
       <c r="G156" t="n">
-        <v>18144.97997484942</v>
+        <v>15182.81162867943</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>951</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6132,38 +6034,32 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C157" t="n">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="D157" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="E157" t="n">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="F157" t="n">
-        <v>52.5626</v>
+        <v>35.8442</v>
       </c>
       <c r="G157" t="n">
-        <v>18144.97997484942</v>
+        <v>15218.65582867943</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>949</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6174,38 +6070,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="C158" t="n">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="D158" t="n">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="E158" t="n">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="F158" t="n">
-        <v>2134.3628</v>
+        <v>5.965</v>
       </c>
       <c r="G158" t="n">
-        <v>20279.34277484942</v>
+        <v>15218.65582867943</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>949</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6216,38 +6106,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C159" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="D159" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="E159" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="F159" t="n">
-        <v>92.70480000000001</v>
+        <v>44.3</v>
       </c>
       <c r="G159" t="n">
-        <v>20186.63797484942</v>
+        <v>15218.65582867943</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>951</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6258,38 +6142,32 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="C160" t="n">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="D160" t="n">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="E160" t="n">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="F160" t="n">
-        <v>1595.653</v>
+        <v>20</v>
       </c>
       <c r="G160" t="n">
-        <v>21782.29097484942</v>
+        <v>15198.65582867943</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>950</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6300,38 +6178,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="C161" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="D161" t="n">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="E161" t="n">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="F161" t="n">
-        <v>133.8119</v>
+        <v>459.5688</v>
       </c>
       <c r="G161" t="n">
-        <v>21648.47907484942</v>
+        <v>15658.22462867943</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>951</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6342,38 +6214,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="C162" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="D162" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="E162" t="n">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="F162" t="n">
-        <v>149.9</v>
+        <v>710.4184</v>
       </c>
       <c r="G162" t="n">
-        <v>21798.37907484942</v>
+        <v>16368.64302867943</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>950</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6384,38 +6250,32 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="C163" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="D163" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="E163" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="F163" t="n">
-        <v>855.778</v>
+        <v>916.3987</v>
       </c>
       <c r="G163" t="n">
-        <v>21798.37907484942</v>
+        <v>16368.64302867943</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>951</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6426,38 +6286,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="C164" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="D164" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="E164" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="F164" t="n">
-        <v>11.222</v>
+        <v>30</v>
       </c>
       <c r="G164" t="n">
-        <v>21798.37907484942</v>
+        <v>16338.64302867943</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>951</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6468,42 +6322,2592 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>960</v>
+      </c>
+      <c r="C165" t="n">
+        <v>959</v>
+      </c>
+      <c r="D165" t="n">
+        <v>960</v>
+      </c>
+      <c r="E165" t="n">
+        <v>959</v>
+      </c>
+      <c r="F165" t="n">
+        <v>573.5309</v>
+      </c>
+      <c r="G165" t="n">
+        <v>15765.11212867943</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>963</v>
+      </c>
+      <c r="C166" t="n">
+        <v>963</v>
+      </c>
+      <c r="D166" t="n">
+        <v>963</v>
+      </c>
+      <c r="E166" t="n">
+        <v>963</v>
+      </c>
+      <c r="F166" t="n">
+        <v>30</v>
+      </c>
+      <c r="G166" t="n">
+        <v>15795.11212867943</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>964</v>
+      </c>
+      <c r="C167" t="n">
+        <v>965</v>
+      </c>
+      <c r="D167" t="n">
+        <v>965</v>
+      </c>
+      <c r="E167" t="n">
+        <v>964</v>
+      </c>
+      <c r="F167" t="n">
+        <v>817.1108</v>
+      </c>
+      <c r="G167" t="n">
+        <v>16612.22292867943</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>965</v>
+      </c>
+      <c r="C168" t="n">
+        <v>965</v>
+      </c>
+      <c r="D168" t="n">
+        <v>965</v>
+      </c>
+      <c r="E168" t="n">
+        <v>965</v>
+      </c>
+      <c r="F168" t="n">
+        <v>134.2638</v>
+      </c>
+      <c r="G168" t="n">
+        <v>16612.22292867943</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>965</v>
+      </c>
+      <c r="C169" t="n">
+        <v>965</v>
+      </c>
+      <c r="D169" t="n">
+        <v>965</v>
+      </c>
+      <c r="E169" t="n">
+        <v>965</v>
+      </c>
+      <c r="F169" t="n">
+        <v>114.743</v>
+      </c>
+      <c r="G169" t="n">
+        <v>16612.22292867943</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>961</v>
+      </c>
+      <c r="C170" t="n">
+        <v>961</v>
+      </c>
+      <c r="D170" t="n">
+        <v>961</v>
+      </c>
+      <c r="E170" t="n">
+        <v>961</v>
+      </c>
+      <c r="F170" t="n">
+        <v>34.7394</v>
+      </c>
+      <c r="G170" t="n">
+        <v>16577.48352867943</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>960</v>
+      </c>
+      <c r="C171" t="n">
+        <v>960</v>
+      </c>
+      <c r="D171" t="n">
+        <v>960</v>
+      </c>
+      <c r="E171" t="n">
+        <v>960</v>
+      </c>
+      <c r="F171" t="n">
+        <v>29.925</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16547.55852867943</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>960</v>
+      </c>
+      <c r="C172" t="n">
+        <v>960</v>
+      </c>
+      <c r="D172" t="n">
+        <v>960</v>
+      </c>
+      <c r="E172" t="n">
+        <v>960</v>
+      </c>
+      <c r="F172" t="n">
+        <v>102.7337</v>
+      </c>
+      <c r="G172" t="n">
+        <v>16547.55852867943</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>963</v>
+      </c>
+      <c r="C173" t="n">
+        <v>963</v>
+      </c>
+      <c r="D173" t="n">
+        <v>963</v>
+      </c>
+      <c r="E173" t="n">
+        <v>963</v>
+      </c>
+      <c r="F173" t="n">
+        <v>50.2305</v>
+      </c>
+      <c r="G173" t="n">
+        <v>16597.78902867944</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>960</v>
+      </c>
+      <c r="C174" t="n">
+        <v>960</v>
+      </c>
+      <c r="D174" t="n">
+        <v>960</v>
+      </c>
+      <c r="E174" t="n">
+        <v>960</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="n">
+        <v>16577.78902867944</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>960</v>
+      </c>
+      <c r="C175" t="n">
+        <v>958</v>
+      </c>
+      <c r="D175" t="n">
+        <v>960</v>
+      </c>
+      <c r="E175" t="n">
+        <v>958</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2257.4666</v>
+      </c>
+      <c r="G175" t="n">
+        <v>14320.32242867944</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>958</v>
+      </c>
+      <c r="C176" t="n">
+        <v>958</v>
+      </c>
+      <c r="D176" t="n">
+        <v>958</v>
+      </c>
+      <c r="E176" t="n">
+        <v>958</v>
+      </c>
+      <c r="F176" t="n">
+        <v>866</v>
+      </c>
+      <c r="G176" t="n">
+        <v>14320.32242867944</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>958</v>
+      </c>
+      <c r="C177" t="n">
+        <v>957</v>
+      </c>
+      <c r="D177" t="n">
+        <v>958</v>
+      </c>
+      <c r="E177" t="n">
+        <v>957</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4415</v>
+      </c>
+      <c r="G177" t="n">
+        <v>9905.322428679436</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>960</v>
+      </c>
+      <c r="C178" t="n">
+        <v>957</v>
+      </c>
+      <c r="D178" t="n">
+        <v>960</v>
+      </c>
+      <c r="E178" t="n">
+        <v>957</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1910.5423</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9905.322428679436</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>956</v>
+      </c>
+      <c r="C179" t="n">
+        <v>959</v>
+      </c>
+      <c r="D179" t="n">
+        <v>959</v>
+      </c>
+      <c r="E179" t="n">
+        <v>954</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2515.8369</v>
+      </c>
+      <c r="G179" t="n">
+        <v>12421.15932867944</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>960</v>
+      </c>
+      <c r="C180" t="n">
+        <v>962</v>
+      </c>
+      <c r="D180" t="n">
+        <v>962</v>
+      </c>
+      <c r="E180" t="n">
+        <v>960</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4070.038</v>
+      </c>
+      <c r="G180" t="n">
+        <v>16491.19732867943</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>962</v>
+      </c>
+      <c r="C181" t="n">
+        <v>962</v>
+      </c>
+      <c r="D181" t="n">
+        <v>962</v>
+      </c>
+      <c r="E181" t="n">
+        <v>962</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9.5448</v>
+      </c>
+      <c r="G181" t="n">
+        <v>16491.19732867943</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>961</v>
+      </c>
+      <c r="C182" t="n">
+        <v>961</v>
+      </c>
+      <c r="D182" t="n">
+        <v>961</v>
+      </c>
+      <c r="E182" t="n">
+        <v>961</v>
+      </c>
+      <c r="F182" t="n">
+        <v>74.3319</v>
+      </c>
+      <c r="G182" t="n">
+        <v>16416.86542867943</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>962</v>
+      </c>
+      <c r="C183" t="n">
+        <v>962</v>
+      </c>
+      <c r="D183" t="n">
+        <v>962</v>
+      </c>
+      <c r="E183" t="n">
+        <v>962</v>
+      </c>
+      <c r="F183" t="n">
+        <v>366.7701</v>
+      </c>
+      <c r="G183" t="n">
+        <v>16783.63552867944</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>961</v>
+      </c>
+      <c r="C184" t="n">
+        <v>960</v>
+      </c>
+      <c r="D184" t="n">
+        <v>961</v>
+      </c>
+      <c r="E184" t="n">
+        <v>960</v>
+      </c>
+      <c r="F184" t="n">
+        <v>400.0618</v>
+      </c>
+      <c r="G184" t="n">
+        <v>16383.57372867944</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>961</v>
+      </c>
+      <c r="C185" t="n">
+        <v>961</v>
+      </c>
+      <c r="D185" t="n">
+        <v>961</v>
+      </c>
+      <c r="E185" t="n">
+        <v>961</v>
+      </c>
+      <c r="F185" t="n">
+        <v>803.8224</v>
+      </c>
+      <c r="G185" t="n">
+        <v>17187.39612867944</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>961</v>
+      </c>
+      <c r="C186" t="n">
+        <v>961</v>
+      </c>
+      <c r="D186" t="n">
+        <v>961</v>
+      </c>
+      <c r="E186" t="n">
+        <v>961</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>17187.39612867944</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>958</v>
+      </c>
+      <c r="C187" t="n">
+        <v>958</v>
+      </c>
+      <c r="D187" t="n">
+        <v>958</v>
+      </c>
+      <c r="E187" t="n">
+        <v>958</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.8296</v>
+      </c>
+      <c r="G187" t="n">
+        <v>17185.56652867944</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>958</v>
+      </c>
+      <c r="C188" t="n">
+        <v>958</v>
+      </c>
+      <c r="D188" t="n">
+        <v>958</v>
+      </c>
+      <c r="E188" t="n">
+        <v>958</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4407.7383</v>
+      </c>
+      <c r="G188" t="n">
+        <v>17185.56652867944</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>961</v>
+      </c>
+      <c r="C189" t="n">
+        <v>962</v>
+      </c>
+      <c r="D189" t="n">
+        <v>962</v>
+      </c>
+      <c r="E189" t="n">
+        <v>961</v>
+      </c>
+      <c r="F189" t="n">
+        <v>125.0985</v>
+      </c>
+      <c r="G189" t="n">
+        <v>17310.66502867944</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>961</v>
+      </c>
+      <c r="C190" t="n">
+        <v>961</v>
+      </c>
+      <c r="D190" t="n">
+        <v>961</v>
+      </c>
+      <c r="E190" t="n">
+        <v>961</v>
+      </c>
+      <c r="F190" t="n">
+        <v>436.6337</v>
+      </c>
+      <c r="G190" t="n">
+        <v>16874.03132867944</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>961</v>
+      </c>
+      <c r="C191" t="n">
+        <v>961</v>
+      </c>
+      <c r="D191" t="n">
+        <v>961</v>
+      </c>
+      <c r="E191" t="n">
+        <v>961</v>
+      </c>
+      <c r="F191" t="n">
+        <v>130.8192</v>
+      </c>
+      <c r="G191" t="n">
+        <v>16874.03132867944</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>961</v>
+      </c>
+      <c r="C192" t="n">
+        <v>961</v>
+      </c>
+      <c r="D192" t="n">
+        <v>961</v>
+      </c>
+      <c r="E192" t="n">
+        <v>961</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2046.8227</v>
+      </c>
+      <c r="G192" t="n">
+        <v>16874.03132867944</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>961</v>
+      </c>
+      <c r="C193" t="n">
+        <v>961</v>
+      </c>
+      <c r="D193" t="n">
+        <v>961</v>
+      </c>
+      <c r="E193" t="n">
+        <v>961</v>
+      </c>
+      <c r="F193" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="G193" t="n">
+        <v>16874.03132867944</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>961</v>
+      </c>
+      <c r="C194" t="n">
+        <v>961</v>
+      </c>
+      <c r="D194" t="n">
+        <v>961</v>
+      </c>
+      <c r="E194" t="n">
+        <v>961</v>
+      </c>
+      <c r="F194" t="n">
+        <v>95.5247</v>
+      </c>
+      <c r="G194" t="n">
+        <v>16874.03132867944</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>961</v>
+      </c>
+      <c r="C195" t="n">
+        <v>961</v>
+      </c>
+      <c r="D195" t="n">
+        <v>961</v>
+      </c>
+      <c r="E195" t="n">
+        <v>961</v>
+      </c>
+      <c r="F195" t="n">
+        <v>24.9976</v>
+      </c>
+      <c r="G195" t="n">
+        <v>16874.03132867944</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>961</v>
+      </c>
+      <c r="C196" t="n">
+        <v>961</v>
+      </c>
+      <c r="D196" t="n">
+        <v>961</v>
+      </c>
+      <c r="E196" t="n">
+        <v>961</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8.4659</v>
+      </c>
+      <c r="G196" t="n">
+        <v>16874.03132867944</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>961</v>
+      </c>
+      <c r="C197" t="n">
+        <v>962</v>
+      </c>
+      <c r="D197" t="n">
+        <v>962</v>
+      </c>
+      <c r="E197" t="n">
+        <v>961</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1224.0701</v>
+      </c>
+      <c r="G197" t="n">
+        <v>18098.10142867944</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>962</v>
+      </c>
+      <c r="C198" t="n">
+        <v>962</v>
+      </c>
+      <c r="D198" t="n">
+        <v>962</v>
+      </c>
+      <c r="E198" t="n">
+        <v>962</v>
+      </c>
+      <c r="F198" t="n">
+        <v>43.3463</v>
+      </c>
+      <c r="G198" t="n">
+        <v>18098.10142867944</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>962</v>
+      </c>
+      <c r="C199" t="n">
+        <v>962</v>
+      </c>
+      <c r="D199" t="n">
+        <v>962</v>
+      </c>
+      <c r="E199" t="n">
+        <v>962</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23.3905</v>
+      </c>
+      <c r="G199" t="n">
+        <v>18098.10142867944</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>958</v>
+      </c>
+      <c r="C200" t="n">
+        <v>960</v>
+      </c>
+      <c r="D200" t="n">
+        <v>960</v>
+      </c>
+      <c r="E200" t="n">
+        <v>958</v>
+      </c>
+      <c r="F200" t="n">
+        <v>153.8247</v>
+      </c>
+      <c r="G200" t="n">
+        <v>17944.27672867944</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>959</v>
+      </c>
+      <c r="C201" t="n">
+        <v>959</v>
+      </c>
+      <c r="D201" t="n">
+        <v>959</v>
+      </c>
+      <c r="E201" t="n">
+        <v>959</v>
+      </c>
+      <c r="F201" t="n">
+        <v>27.1748</v>
+      </c>
+      <c r="G201" t="n">
+        <v>17917.10192867944</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>957</v>
+      </c>
+      <c r="C202" t="n">
+        <v>960</v>
+      </c>
+      <c r="D202" t="n">
+        <v>960</v>
+      </c>
+      <c r="E202" t="n">
+        <v>957</v>
+      </c>
+      <c r="F202" t="n">
+        <v>59.9973</v>
+      </c>
+      <c r="G202" t="n">
+        <v>17977.09922867944</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>958</v>
+      </c>
+      <c r="C203" t="n">
+        <v>958</v>
+      </c>
+      <c r="D203" t="n">
+        <v>958</v>
+      </c>
+      <c r="E203" t="n">
+        <v>958</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10.3732</v>
+      </c>
+      <c r="G203" t="n">
+        <v>17966.72602867943</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>955</v>
+      </c>
+      <c r="C204" t="n">
+        <v>957</v>
+      </c>
+      <c r="D204" t="n">
+        <v>957</v>
+      </c>
+      <c r="E204" t="n">
+        <v>953</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1140.1455</v>
+      </c>
+      <c r="G204" t="n">
+        <v>16826.58052867943</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>956</v>
+      </c>
+      <c r="C205" t="n">
+        <v>956</v>
+      </c>
+      <c r="D205" t="n">
+        <v>956</v>
+      </c>
+      <c r="E205" t="n">
+        <v>956</v>
+      </c>
+      <c r="F205" t="n">
+        <v>57.0609</v>
+      </c>
+      <c r="G205" t="n">
+        <v>16769.51962867943</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>954</v>
+      </c>
+      <c r="C206" t="n">
+        <v>954</v>
+      </c>
+      <c r="D206" t="n">
+        <v>954</v>
+      </c>
+      <c r="E206" t="n">
+        <v>954</v>
+      </c>
+      <c r="F206" t="n">
+        <v>58.1922</v>
+      </c>
+      <c r="G206" t="n">
+        <v>16711.32742867943</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>953</v>
+      </c>
+      <c r="C207" t="n">
+        <v>953</v>
+      </c>
+      <c r="D207" t="n">
+        <v>953</v>
+      </c>
+      <c r="E207" t="n">
+        <v>953</v>
+      </c>
+      <c r="F207" t="n">
+        <v>918.9503</v>
+      </c>
+      <c r="G207" t="n">
+        <v>15792.37712867943</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>953</v>
+      </c>
+      <c r="C208" t="n">
+        <v>955</v>
+      </c>
+      <c r="D208" t="n">
+        <v>955</v>
+      </c>
+      <c r="E208" t="n">
+        <v>951</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2703.8289</v>
+      </c>
+      <c r="G208" t="n">
+        <v>18496.20602867943</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>951</v>
+      </c>
+      <c r="C209" t="n">
+        <v>951</v>
+      </c>
+      <c r="D209" t="n">
+        <v>952</v>
+      </c>
+      <c r="E209" t="n">
+        <v>951</v>
+      </c>
+      <c r="F209" t="n">
+        <v>76.4623</v>
+      </c>
+      <c r="G209" t="n">
+        <v>18419.74372867943</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>953</v>
+      </c>
+      <c r="C210" t="n">
+        <v>953</v>
+      </c>
+      <c r="D210" t="n">
+        <v>953</v>
+      </c>
+      <c r="E210" t="n">
+        <v>953</v>
+      </c>
+      <c r="F210" t="n">
+        <v>58.9835</v>
+      </c>
+      <c r="G210" t="n">
+        <v>18478.72722867943</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>952</v>
+      </c>
+      <c r="C211" t="n">
+        <v>952</v>
+      </c>
+      <c r="D211" t="n">
+        <v>953</v>
+      </c>
+      <c r="E211" t="n">
+        <v>952</v>
+      </c>
+      <c r="F211" t="n">
+        <v>99.226</v>
+      </c>
+      <c r="G211" t="n">
+        <v>18379.50122867943</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>953</v>
+      </c>
+      <c r="C212" t="n">
+        <v>953</v>
+      </c>
+      <c r="D212" t="n">
+        <v>953</v>
+      </c>
+      <c r="E212" t="n">
+        <v>953</v>
+      </c>
+      <c r="F212" t="n">
+        <v>151.2417461699895</v>
+      </c>
+      <c r="G212" t="n">
+        <v>18530.74297484942</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>952</v>
+      </c>
+      <c r="C213" t="n">
+        <v>952</v>
+      </c>
+      <c r="D213" t="n">
+        <v>952</v>
+      </c>
+      <c r="E213" t="n">
+        <v>952</v>
+      </c>
+      <c r="F213" t="n">
+        <v>39.6032</v>
+      </c>
+      <c r="G213" t="n">
+        <v>18491.13977484942</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>952</v>
+      </c>
+      <c r="C214" t="n">
+        <v>952</v>
+      </c>
+      <c r="D214" t="n">
+        <v>952</v>
+      </c>
+      <c r="E214" t="n">
+        <v>952</v>
+      </c>
+      <c r="F214" t="n">
+        <v>579.8353</v>
+      </c>
+      <c r="G214" t="n">
+        <v>18491.13977484942</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>952</v>
+      </c>
+      <c r="C215" t="n">
+        <v>952</v>
+      </c>
+      <c r="D215" t="n">
+        <v>952</v>
+      </c>
+      <c r="E215" t="n">
+        <v>952</v>
+      </c>
+      <c r="F215" t="n">
+        <v>596.5214999999999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>18491.13977484942</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>952</v>
+      </c>
+      <c r="C216" t="n">
+        <v>952</v>
+      </c>
+      <c r="D216" t="n">
+        <v>952</v>
+      </c>
+      <c r="E216" t="n">
+        <v>952</v>
+      </c>
+      <c r="F216" t="n">
+        <v>167.3635</v>
+      </c>
+      <c r="G216" t="n">
+        <v>18491.13977484942</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>952</v>
+      </c>
+      <c r="C217" t="n">
+        <v>952</v>
+      </c>
+      <c r="D217" t="n">
+        <v>952</v>
+      </c>
+      <c r="E217" t="n">
+        <v>952</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
+      <c r="G217" t="n">
+        <v>18491.13977484942</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>952</v>
+      </c>
+      <c r="C218" t="n">
+        <v>952</v>
+      </c>
+      <c r="D218" t="n">
+        <v>952</v>
+      </c>
+      <c r="E218" t="n">
+        <v>952</v>
+      </c>
+      <c r="F218" t="n">
+        <v>351.4814</v>
+      </c>
+      <c r="G218" t="n">
+        <v>18491.13977484942</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>952</v>
+      </c>
+      <c r="C219" t="n">
+        <v>952</v>
+      </c>
+      <c r="D219" t="n">
+        <v>952</v>
+      </c>
+      <c r="E219" t="n">
+        <v>952</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1078.6336</v>
+      </c>
+      <c r="G219" t="n">
+        <v>18491.13977484942</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>950</v>
+      </c>
+      <c r="C220" t="n">
+        <v>950</v>
+      </c>
+      <c r="D220" t="n">
+        <v>950</v>
+      </c>
+      <c r="E220" t="n">
+        <v>950</v>
+      </c>
+      <c r="F220" t="n">
+        <v>106.9957</v>
+      </c>
+      <c r="G220" t="n">
+        <v>18384.14407484942</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>950</v>
+      </c>
+      <c r="C221" t="n">
+        <v>950</v>
+      </c>
+      <c r="D221" t="n">
+        <v>950</v>
+      </c>
+      <c r="E221" t="n">
+        <v>950</v>
+      </c>
+      <c r="F221" t="n">
+        <v>160.2662</v>
+      </c>
+      <c r="G221" t="n">
+        <v>18384.14407484942</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>952</v>
+      </c>
+      <c r="C222" t="n">
+        <v>952</v>
+      </c>
+      <c r="D222" t="n">
+        <v>952</v>
+      </c>
+      <c r="E222" t="n">
+        <v>952</v>
+      </c>
+      <c r="F222" t="n">
+        <v>82.1401</v>
+      </c>
+      <c r="G222" t="n">
+        <v>18466.28417484942</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>951</v>
+      </c>
+      <c r="C223" t="n">
+        <v>951</v>
+      </c>
+      <c r="D223" t="n">
+        <v>951</v>
+      </c>
+      <c r="E223" t="n">
+        <v>951</v>
+      </c>
+      <c r="F223" t="n">
+        <v>14.0042</v>
+      </c>
+      <c r="G223" t="n">
+        <v>18452.27997484942</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>952</v>
+      </c>
+      <c r="C224" t="n">
+        <v>952</v>
+      </c>
+      <c r="D224" t="n">
+        <v>952</v>
+      </c>
+      <c r="E224" t="n">
+        <v>952</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1052</v>
+      </c>
+      <c r="G224" t="n">
+        <v>19504.27997484942</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>951</v>
+      </c>
+      <c r="C225" t="n">
+        <v>951</v>
+      </c>
+      <c r="D225" t="n">
+        <v>951</v>
+      </c>
+      <c r="E225" t="n">
+        <v>951</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>18504.27997484942</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>951</v>
+      </c>
+      <c r="C226" t="n">
+        <v>951</v>
+      </c>
+      <c r="D226" t="n">
+        <v>951</v>
+      </c>
+      <c r="E226" t="n">
+        <v>951</v>
+      </c>
+      <c r="F226" t="n">
+        <v>51.5247</v>
+      </c>
+      <c r="G226" t="n">
+        <v>18504.27997484942</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>948</v>
+      </c>
+      <c r="C227" t="n">
+        <v>949</v>
+      </c>
+      <c r="D227" t="n">
+        <v>949</v>
+      </c>
+      <c r="E227" t="n">
+        <v>946</v>
+      </c>
+      <c r="F227" t="n">
+        <v>359.3</v>
+      </c>
+      <c r="G227" t="n">
+        <v>18144.97997484942</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>950</v>
+      </c>
+      <c r="C228" t="n">
+        <v>949</v>
+      </c>
+      <c r="D228" t="n">
+        <v>950</v>
+      </c>
+      <c r="E228" t="n">
+        <v>949</v>
+      </c>
+      <c r="F228" t="n">
+        <v>52.5626</v>
+      </c>
+      <c r="G228" t="n">
+        <v>18144.97997484942</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>946</v>
+      </c>
+      <c r="C229" t="n">
+        <v>951</v>
+      </c>
+      <c r="D229" t="n">
+        <v>951</v>
+      </c>
+      <c r="E229" t="n">
+        <v>946</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2134.3628</v>
+      </c>
+      <c r="G229" t="n">
+        <v>20279.34277484942</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>950</v>
+      </c>
+      <c r="C230" t="n">
+        <v>950</v>
+      </c>
+      <c r="D230" t="n">
+        <v>950</v>
+      </c>
+      <c r="E230" t="n">
+        <v>950</v>
+      </c>
+      <c r="F230" t="n">
+        <v>92.70480000000001</v>
+      </c>
+      <c r="G230" t="n">
+        <v>20186.63797484942</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>950</v>
+      </c>
+      <c r="C231" t="n">
+        <v>951</v>
+      </c>
+      <c r="D231" t="n">
+        <v>951</v>
+      </c>
+      <c r="E231" t="n">
+        <v>950</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1595.653</v>
+      </c>
+      <c r="G231" t="n">
+        <v>21782.29097484942</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>950</v>
+      </c>
+      <c r="C232" t="n">
+        <v>950</v>
+      </c>
+      <c r="D232" t="n">
+        <v>950</v>
+      </c>
+      <c r="E232" t="n">
+        <v>950</v>
+      </c>
+      <c r="F232" t="n">
+        <v>133.8119</v>
+      </c>
+      <c r="G232" t="n">
+        <v>21648.47907484942</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>951</v>
+      </c>
+      <c r="C233" t="n">
+        <v>951</v>
+      </c>
+      <c r="D233" t="n">
+        <v>951</v>
+      </c>
+      <c r="E233" t="n">
+        <v>951</v>
+      </c>
+      <c r="F233" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="G233" t="n">
+        <v>21798.37907484942</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>951</v>
+      </c>
+      <c r="C234" t="n">
+        <v>951</v>
+      </c>
+      <c r="D234" t="n">
+        <v>951</v>
+      </c>
+      <c r="E234" t="n">
+        <v>951</v>
+      </c>
+      <c r="F234" t="n">
+        <v>855.778</v>
+      </c>
+      <c r="G234" t="n">
+        <v>21798.37907484942</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>951</v>
+      </c>
+      <c r="C235" t="n">
+        <v>951</v>
+      </c>
+      <c r="D235" t="n">
+        <v>951</v>
+      </c>
+      <c r="E235" t="n">
+        <v>951</v>
+      </c>
+      <c r="F235" t="n">
+        <v>11.222</v>
+      </c>
+      <c r="G235" t="n">
+        <v>21798.37907484942</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
         <v>947</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C236" t="n">
         <v>947</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D236" t="n">
         <v>947</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E236" t="n">
         <v>947</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F236" t="n">
         <v>51</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G236" t="n">
         <v>21747.37907484942</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>951</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>7429.975200000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>8375.5064</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="J3" t="n">
         <v>946</v>
       </c>
-      <c r="K3" t="n">
-        <v>946</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,24 +521,23 @@
         <v>10512.7854</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+        <v>950</v>
+      </c>
+      <c r="J4" t="n">
         <v>946</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,22 +564,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>946</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,16 +603,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,16 +636,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,16 +669,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -724,18 +700,15 @@
         <v>12937.97783072651</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,18 +733,15 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -796,18 +766,15 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,16 +801,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -868,18 +832,15 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -904,18 +865,15 @@
         <v>10917.5276307265</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -940,18 +898,15 @@
         <v>10941.46583072651</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +933,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1012,18 +964,15 @@
         <v>9674.340130726505</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,16 +999,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,16 +1032,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,16 +1065,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,16 +1098,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1192,18 +1129,15 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1228,18 +1162,15 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1264,18 +1195,15 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1300,18 +1228,15 @@
         <v>25170.0446307265</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,16 +1263,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,16 +1296,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1408,18 +1327,15 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1444,18 +1360,15 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1480,18 +1393,15 @@
         <v>25829.87743072651</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1518,16 +1428,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,16 +1461,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1590,16 +1494,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1624,18 +1525,15 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,16 +1560,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,16 +1593,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1732,18 +1624,15 @@
         <v>26239.95283072651</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1768,18 +1657,15 @@
         <v>26239.95283072651</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,16 +1692,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,16 +1725,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1758,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1791,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,16 +1824,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,16 +1857,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +1890,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,16 +1923,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2094,16 +1956,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +1989,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2022,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2055,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2088,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2121,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2154,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2187,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2220,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2253,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2286,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2319,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2524,18 +2350,15 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2560,18 +2383,15 @@
         <v>30281.13232867942</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2596,18 +2416,15 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2632,18 +2449,15 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2668,18 +2482,15 @@
         <v>30229.23562867942</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2704,18 +2515,15 @@
         <v>30232.46082867942</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2740,18 +2548,15 @@
         <v>30234.51212867942</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,16 +2583,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2812,18 +2614,15 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2649,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,16 +2682,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2922,16 +2715,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2748,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2992,18 +2779,15 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3028,18 +2812,15 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +2847,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +2880,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +2913,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +2946,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,16 +2979,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +3012,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3045,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,16 +3078,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,16 +3111,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3144,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3177,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3210,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3243,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3534,16 +3276,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3309,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3606,16 +3342,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,16 +3375,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,16 +3408,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,16 +3441,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3748,18 +3472,15 @@
         <v>30419.74562867943</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3786,16 +3507,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3822,16 +3540,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,16 +3573,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3894,16 +3606,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,16 +3639,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3966,16 +3672,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4002,16 +3705,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4038,16 +3738,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,16 +3771,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4110,16 +3804,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,16 +3837,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4180,18 +3868,15 @@
         <v>30743.54992867943</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4218,16 +3903,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4254,16 +3936,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4290,16 +3969,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4326,16 +4002,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4362,16 +4035,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4398,16 +4068,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4434,16 +4101,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4470,16 +4134,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4504,18 +4165,15 @@
         <v>24286.00702867943</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4540,18 +4198,15 @@
         <v>24286.00702867943</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4578,16 +4233,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4614,16 +4266,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4648,18 +4297,15 @@
         <v>12200.31312867943</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4686,16 +4332,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4722,16 +4365,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4758,16 +4398,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4792,18 +4429,15 @@
         <v>12197.12992867943</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4828,18 +4462,15 @@
         <v>12357.49772867943</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4866,16 +4497,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4902,16 +4530,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4938,16 +4563,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4974,16 +4596,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5010,16 +4629,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5046,16 +4662,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5082,16 +4695,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5118,16 +4728,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5154,16 +4761,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,16 +4794,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5226,16 +4827,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5262,16 +4860,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5296,18 +4891,15 @@
         <v>14085.42362867943</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5332,18 +4924,15 @@
         <v>14085.42362867943</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5368,18 +4957,15 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5404,18 +4990,15 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5440,18 +5023,15 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5476,18 +5056,15 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5512,18 +5089,15 @@
         <v>13810.03972867943</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5550,16 +5124,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5586,16 +5157,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5622,16 +5190,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5658,16 +5223,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5694,16 +5256,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5728,18 +5287,15 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5766,16 +5322,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5800,18 +5353,15 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5836,18 +5386,15 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5872,18 +5419,15 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5908,18 +5452,15 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5946,16 +5487,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5982,16 +5520,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6018,16 +5553,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6054,16 +5586,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6090,16 +5619,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6124,18 +5650,15 @@
         <v>15218.65582867943</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6160,18 +5683,15 @@
         <v>15198.65582867943</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6196,18 +5716,15 @@
         <v>15658.22462867943</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6232,18 +5749,15 @@
         <v>16368.64302867943</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6268,18 +5782,15 @@
         <v>16368.64302867943</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6304,18 +5815,15 @@
         <v>16338.64302867943</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6340,18 +5848,15 @@
         <v>15765.11212867943</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6376,18 +5881,15 @@
         <v>15795.11212867943</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6414,16 +5916,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6448,18 +5947,15 @@
         <v>16612.22292867943</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6484,18 +5980,15 @@
         <v>16612.22292867943</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6520,18 +6013,15 @@
         <v>16577.48352867943</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6556,18 +6046,15 @@
         <v>16547.55852867943</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6592,18 +6079,15 @@
         <v>16547.55852867943</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6628,18 +6112,15 @@
         <v>16597.78902867944</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6664,18 +6145,15 @@
         <v>16577.78902867944</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6700,18 +6178,15 @@
         <v>14320.32242867944</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6738,16 +6213,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6772,18 +6244,15 @@
         <v>9905.322428679436</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6810,16 +6279,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6846,16 +6312,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6882,16 +6345,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6918,16 +6378,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6952,18 +6409,15 @@
         <v>16416.86542867943</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6988,18 +6442,15 @@
         <v>16783.63552867944</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7026,16 +6477,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7062,16 +6510,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7098,16 +6543,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7134,16 +6576,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7170,16 +6609,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7206,16 +6642,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7242,16 +6675,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7278,16 +6708,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7314,16 +6741,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7350,16 +6774,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7384,18 +6805,15 @@
         <v>16874.03132867944</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7422,16 +6840,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7458,16 +6873,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7494,16 +6906,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7530,16 +6939,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7566,16 +6972,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7602,16 +7005,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7638,16 +7038,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7672,18 +7069,15 @@
         <v>17977.09922867944</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7708,18 +7102,15 @@
         <v>17966.72602867943</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7746,16 +7137,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7782,16 +7170,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7818,16 +7203,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7854,16 +7236,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7890,16 +7269,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7926,16 +7302,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7962,16 +7335,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7998,16 +7368,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8034,16 +7401,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8070,16 +7434,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8106,16 +7467,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8142,16 +7500,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8178,16 +7533,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8214,16 +7566,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8250,16 +7599,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8286,16 +7632,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8322,16 +7665,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8358,16 +7698,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8394,16 +7731,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8430,16 +7764,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8466,16 +7797,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8502,16 +7830,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8538,16 +7863,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8574,16 +7896,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8610,16 +7929,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8646,16 +7962,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8682,16 +7995,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8718,16 +8028,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8754,16 +8061,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8790,16 +8094,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8826,16 +8127,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8862,16 +8160,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8898,18 +8193,15 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7429.975200000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8375.5064</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>946</v>
@@ -521,7 +521,7 @@
         <v>10512.7854</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>950</v>
@@ -562,9 +562,11 @@
         <v>10512.7854</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>962</v>
+      </c>
       <c r="J5" t="n">
         <v>946</v>
       </c>
@@ -601,11 +603,19 @@
         <v>10512.7854</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>962</v>
+      </c>
+      <c r="J6" t="n">
+        <v>946</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,11 +644,19 @@
         <v>17371.57272630949</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>962</v>
+      </c>
+      <c r="J7" t="n">
+        <v>946</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,11 +685,19 @@
         <v>12586.68634285698</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>982</v>
+      </c>
+      <c r="J8" t="n">
+        <v>946</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,9 +728,17 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>964</v>
+      </c>
+      <c r="J9" t="n">
+        <v>946</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -735,9 +769,17 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>966</v>
+      </c>
+      <c r="J10" t="n">
+        <v>946</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,9 +810,17 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>967</v>
+      </c>
+      <c r="J11" t="n">
+        <v>946</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -799,11 +849,19 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>967</v>
+      </c>
+      <c r="J12" t="n">
+        <v>946</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,9 +892,17 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>967</v>
+      </c>
+      <c r="J13" t="n">
+        <v>946</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,9 +933,17 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>967</v>
+      </c>
+      <c r="J14" t="n">
+        <v>946</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,9 +974,17 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>964</v>
+      </c>
+      <c r="J15" t="n">
+        <v>946</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -931,11 +1013,19 @@
         <v>9644.419330726505</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>968</v>
+      </c>
+      <c r="J16" t="n">
+        <v>946</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -966,9 +1056,17 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>967</v>
+      </c>
+      <c r="J17" t="n">
+        <v>946</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -997,11 +1095,19 @@
         <v>24334.3352307265</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>968</v>
+      </c>
+      <c r="J18" t="n">
+        <v>946</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1033,8 +1139,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>946</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1066,8 +1178,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>946</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1099,8 +1217,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>946</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,11 +1253,17 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>946</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1162,11 +1292,17 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>946</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1331,17 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>946</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1228,11 +1370,17 @@
         <v>25170.0446307265</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>946</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1264,8 +1412,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>946</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1451,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>946</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,11 +1487,17 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>946</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1360,11 +1526,17 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>946</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1565,17 @@
         <v>25829.87743072651</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>946</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1607,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>946</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1462,8 +1646,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>946</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1495,8 +1685,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>946</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1721,17 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>946</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1763,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>946</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1594,8 +1802,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>946</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1624,13 +1838,19 @@
         <v>26239.95283072651</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>946</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>1.015084566596195</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1657,7 +1877,7 @@
         <v>26239.95283072651</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1723,7 +1943,7 @@
         <v>29105.47883072651</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1756,7 +1976,7 @@
         <v>29383.40033072651</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1789,7 +2009,7 @@
         <v>29414.26903072651</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1822,7 +2042,7 @@
         <v>29364.26903072651</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1855,7 +2075,7 @@
         <v>29164.54693072651</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1888,7 +2108,7 @@
         <v>29395.61292867942</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1921,7 +2141,7 @@
         <v>32151.54132867942</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +2174,7 @@
         <v>31851.54132867942</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +2207,7 @@
         <v>31758.46602867942</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2350,7 +2570,7 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2603,7 @@
         <v>30281.13232867942</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2636,7 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2669,7 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2702,7 @@
         <v>30229.23562867942</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2735,7 @@
         <v>30232.46082867942</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2768,7 @@
         <v>30234.51212867942</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2801,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2834,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2867,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2900,7 @@
         <v>30120.31402867943</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2933,7 @@
         <v>30057.71402867943</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2966,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2999,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +3032,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +3065,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +3098,7 @@
         <v>29767.37882867943</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +3131,7 @@
         <v>29949.89392867943</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +3164,7 @@
         <v>32233.20772867943</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +3197,7 @@
         <v>32190.40772867943</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3230,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3263,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3472,7 +3692,7 @@
         <v>30419.74562867943</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3725,7 @@
         <v>30393.22072867943</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3571,7 +3791,7 @@
         <v>28853.63322867943</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3824,7 @@
         <v>29238.54542867943</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3857,7 @@
         <v>29238.54542867943</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3890,7 @@
         <v>29237.24552867943</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3923,7 @@
         <v>28816.30782867943</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3736,7 +3956,7 @@
         <v>28817.38502867943</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3769,7 +3989,7 @@
         <v>31550.68862867943</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +4022,7 @@
         <v>33500.35542867943</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +4055,7 @@
         <v>33494.67892867943</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +4088,7 @@
         <v>30743.54992867943</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3934,7 +4154,7 @@
         <v>29673.33072867943</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3967,7 +4187,7 @@
         <v>24236.84812867943</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4000,7 +4220,7 @@
         <v>24236.84812867943</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4033,7 +4253,7 @@
         <v>24236.84812867943</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4165,7 +4385,7 @@
         <v>24286.00702867943</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4418,7 @@
         <v>24286.00702867943</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4264,7 +4484,7 @@
         <v>7597.432628679429</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4517,7 @@
         <v>12200.31312867943</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4550,7 @@
         <v>12200.31312867943</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4583,7 @@
         <v>12200.31312867943</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4429,7 +4649,7 @@
         <v>12197.12992867943</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4682,7 @@
         <v>12357.49772867943</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4715,7 @@
         <v>13408.24132867943</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4748,7 @@
         <v>13750.92782867943</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4561,7 +4781,7 @@
         <v>15442.83392867943</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4594,7 +4814,7 @@
         <v>15442.83392867943</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4627,7 +4847,7 @@
         <v>14532.42362867943</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4660,7 +4880,7 @@
         <v>14532.42362867943</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4693,7 +4913,7 @@
         <v>14532.42362867943</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4891,7 +5111,7 @@
         <v>14085.42362867943</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4924,7 +5144,7 @@
         <v>14085.42362867943</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4957,7 +5177,7 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4990,7 +5210,7 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5243,7 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5056,7 +5276,7 @@
         <v>13585.42362867943</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5089,7 +5309,7 @@
         <v>13810.03972867943</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5287,7 +5507,7 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5353,7 +5573,7 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5386,7 +5606,7 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5419,7 +5639,7 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5452,7 +5672,7 @@
         <v>13966.62122867943</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5650,7 +5870,7 @@
         <v>15218.65582867943</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5683,7 +5903,7 @@
         <v>15198.65582867943</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5716,7 +5936,7 @@
         <v>15658.22462867943</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5749,7 +5969,7 @@
         <v>16368.64302867943</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5782,7 +6002,7 @@
         <v>16368.64302867943</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5815,7 +6035,7 @@
         <v>16338.64302867943</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5848,7 +6068,7 @@
         <v>15765.11212867943</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5881,7 +6101,7 @@
         <v>15795.11212867943</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5947,7 +6167,7 @@
         <v>16612.22292867943</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5980,7 +6200,7 @@
         <v>16612.22292867943</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6013,7 +6233,7 @@
         <v>16577.48352867943</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6046,7 +6266,7 @@
         <v>16547.55852867943</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6079,7 +6299,7 @@
         <v>16547.55852867943</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6112,7 +6332,7 @@
         <v>16597.78902867944</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6145,7 +6365,7 @@
         <v>16577.78902867944</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6178,7 +6398,7 @@
         <v>14320.32242867944</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6244,7 +6464,7 @@
         <v>9905.322428679436</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6409,7 +6629,7 @@
         <v>16416.86542867943</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6442,7 +6662,7 @@
         <v>16783.63552867944</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6805,7 +7025,7 @@
         <v>16874.03132867944</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7069,7 +7289,7 @@
         <v>17977.09922867944</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7102,7 +7322,7 @@
         <v>17966.72602867943</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8202,6 +8422,6 @@
       <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>8375.5064</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>946</v>
-      </c>
-      <c r="J3" t="n">
-        <v>946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>10512.7854</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>950</v>
-      </c>
-      <c r="J4" t="n">
-        <v>946</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>10512.7854</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>962</v>
-      </c>
-      <c r="J5" t="n">
-        <v>946</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>10512.7854</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>962</v>
-      </c>
-      <c r="J6" t="n">
-        <v>946</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>17371.57272630949</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>962</v>
-      </c>
-      <c r="J7" t="n">
-        <v>946</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>12586.68634285698</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>982</v>
-      </c>
-      <c r="J8" t="n">
-        <v>946</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>12937.97783072651</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>964</v>
-      </c>
-      <c r="J9" t="n">
-        <v>946</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>966</v>
-      </c>
-      <c r="J10" t="n">
-        <v>946</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>967</v>
-      </c>
-      <c r="J11" t="n">
-        <v>946</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>967</v>
-      </c>
-      <c r="J12" t="n">
-        <v>946</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>12959.94703072651</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>967</v>
-      </c>
-      <c r="J13" t="n">
-        <v>946</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>10917.5276307265</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>967</v>
-      </c>
-      <c r="J14" t="n">
-        <v>946</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>10941.46583072651</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>964</v>
-      </c>
-      <c r="J15" t="n">
-        <v>946</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>9644.419330726505</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>968</v>
-      </c>
-      <c r="J16" t="n">
-        <v>946</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>9674.340130726505</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>967</v>
-      </c>
-      <c r="J17" t="n">
-        <v>946</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>24334.3352307265</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>968</v>
-      </c>
-      <c r="J18" t="n">
-        <v>946</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1139,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>946</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1178,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>946</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1217,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>946</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1256,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>946</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1295,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>946</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1334,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>946</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1373,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>946</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1412,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>946</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1451,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>946</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1490,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>946</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1529,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>946</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1568,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>946</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1607,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>946</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1646,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>946</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1685,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>946</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1724,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>946</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1763,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>946</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1802,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>946</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1838,19 +1606,13 @@
         <v>26239.95283072651</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>946</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.015084566596195</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1877,7 +1639,7 @@
         <v>26239.95283072651</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1943,7 +1705,7 @@
         <v>29105.47883072651</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1976,7 +1738,7 @@
         <v>29383.40033072651</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2009,7 +1771,7 @@
         <v>29414.26903072651</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2042,7 +1804,7 @@
         <v>29364.26903072651</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2075,7 +1837,7 @@
         <v>29164.54693072651</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2108,7 +1870,7 @@
         <v>29395.61292867942</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2141,7 +1903,7 @@
         <v>32151.54132867942</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2174,7 +1936,7 @@
         <v>31851.54132867942</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2207,7 +1969,7 @@
         <v>31758.46602867942</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2603,7 +2365,7 @@
         <v>30281.13232867942</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2636,7 +2398,7 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2669,7 +2431,7 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2702,7 +2464,7 @@
         <v>30229.23562867942</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2735,7 +2497,7 @@
         <v>30232.46082867942</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2768,7 +2530,7 @@
         <v>30234.51212867942</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2801,7 +2563,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2834,7 +2596,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2867,7 +2629,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2900,7 +2662,7 @@
         <v>30120.31402867943</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2933,7 +2695,7 @@
         <v>30057.71402867943</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2966,7 +2728,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2999,7 +2761,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3032,7 +2794,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3065,7 +2827,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3098,7 +2860,7 @@
         <v>29767.37882867943</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3131,7 +2893,7 @@
         <v>29949.89392867943</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3164,7 +2926,7 @@
         <v>32233.20772867943</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3197,7 +2959,7 @@
         <v>32190.40772867943</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3230,7 +2992,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3263,7 +3025,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3725,7 +3487,7 @@
         <v>30393.22072867943</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3791,7 +3553,7 @@
         <v>28853.63322867943</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3824,7 +3586,7 @@
         <v>29238.54542867943</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3857,7 +3619,7 @@
         <v>29238.54542867943</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3890,7 +3652,7 @@
         <v>29237.24552867943</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3923,7 +3685,7 @@
         <v>28816.30782867943</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3956,7 +3718,7 @@
         <v>28817.38502867943</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3989,7 +3751,7 @@
         <v>31550.68862867943</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4022,7 +3784,7 @@
         <v>33500.35542867943</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4055,7 +3817,7 @@
         <v>33494.67892867943</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4088,7 +3850,7 @@
         <v>30743.54992867943</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4154,7 +3916,7 @@
         <v>29673.33072867943</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4187,7 +3949,7 @@
         <v>24236.84812867943</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4220,7 +3982,7 @@
         <v>24236.84812867943</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4253,7 +4015,7 @@
         <v>24236.84812867943</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4484,7 +4246,7 @@
         <v>7597.432628679429</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4517,7 +4279,7 @@
         <v>12200.31312867943</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4550,7 +4312,7 @@
         <v>12200.31312867943</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4583,7 +4345,7 @@
         <v>12200.31312867943</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4715,7 +4477,7 @@
         <v>13408.24132867943</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4748,7 +4510,7 @@
         <v>13750.92782867943</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4781,7 +4543,7 @@
         <v>15442.83392867943</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4814,7 +4576,7 @@
         <v>15442.83392867943</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4847,7 +4609,7 @@
         <v>14532.42362867943</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4880,7 +4642,7 @@
         <v>14532.42362867943</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4913,7 +4675,7 @@
         <v>14532.42362867943</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -8422,6 +8184,6 @@
       <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -484,10 +484,14 @@
         <v>8375.5064</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>946</v>
+      </c>
+      <c r="J3" t="n">
+        <v>946</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>946</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>10512.7854</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>946</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +599,7 @@
         <v>10512.7854</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +632,7 @@
         <v>17371.57272630949</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +665,7 @@
         <v>12586.68634285698</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1012,7 +1028,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1061,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1094,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1193,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1226,7 @@
         <v>25170.0446307265</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1259,7 @@
         <v>24203.30623072651</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1292,7 @@
         <v>29130.04873072651</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1325,7 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1358,7 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1391,7 @@
         <v>25829.87743072651</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1424,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1457,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1490,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1705,7 +1721,7 @@
         <v>29105.47883072651</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1754,7 @@
         <v>29383.40033072651</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1787,7 @@
         <v>29414.26903072651</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1820,7 @@
         <v>29364.26903072651</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1853,7 @@
         <v>29164.54693072651</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1886,7 @@
         <v>29395.61292867942</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1919,7 @@
         <v>32151.54132867942</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
         <v>31851.54132867942</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>31758.46602867942</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>31774.18472867943</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2051,7 @@
         <v>30244.44072867943</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2084,7 @@
         <v>30245.44072867943</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>30187.76782867943</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2150,7 @@
         <v>30187.76782867943</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2183,7 @@
         <v>30187.76782867943</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2249,7 @@
         <v>30189.39832867942</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2282,7 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2315,7 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2348,7 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2381,7 @@
         <v>30281.13232867942</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2414,7 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2596,7 +2612,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2645,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2678,7 @@
         <v>30120.31402867943</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2711,7 @@
         <v>30057.71402867943</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2744,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2777,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2810,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2843,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2876,7 @@
         <v>29767.37882867943</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>29949.89392867943</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
         <v>32233.20772867943</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2975,7 @@
         <v>32190.40772867943</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3008,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest OMG.xlsx
+++ b/BackTest/2019-10-21 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4257.7857</v>
       </c>
       <c r="G2" t="n">
-        <v>7429.975200000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>945.5312</v>
       </c>
       <c r="G3" t="n">
-        <v>8375.5064</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>946</v>
       </c>
       <c r="I3" t="n">
         <v>946</v>
       </c>
-      <c r="J3" t="n">
-        <v>946</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +507,23 @@
         <v>2137.279</v>
       </c>
       <c r="G4" t="n">
-        <v>10512.7854</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+        <v>950</v>
+      </c>
+      <c r="I4" t="n">
         <v>946</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,24 +545,21 @@
         <v>3112.0152</v>
       </c>
       <c r="G5" t="n">
-        <v>10512.7854</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>946</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,18 +581,15 @@
         <v>3101.155032040816</v>
       </c>
       <c r="G6" t="n">
-        <v>10512.7854</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,18 +611,15 @@
         <v>6858.787326309489</v>
       </c>
       <c r="G7" t="n">
-        <v>17371.57272630949</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,18 +641,15 @@
         <v>4784.886383452503</v>
       </c>
       <c r="G8" t="n">
-        <v>12586.68634285698</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -695,18 +671,15 @@
         <v>351.2914878695209</v>
       </c>
       <c r="G9" t="n">
-        <v>12937.97783072651</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,18 +701,15 @@
         <v>21.9692</v>
       </c>
       <c r="G10" t="n">
-        <v>12959.94703072651</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -761,18 +731,15 @@
         <v>1.969</v>
       </c>
       <c r="G11" t="n">
-        <v>12959.94703072651</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -794,18 +761,15 @@
         <v>82.8835</v>
       </c>
       <c r="G12" t="n">
-        <v>12959.94703072651</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -827,18 +791,15 @@
         <v>666.4032999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>12959.94703072651</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -860,18 +821,15 @@
         <v>2042.4194</v>
       </c>
       <c r="G14" t="n">
-        <v>10917.5276307265</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,18 +851,15 @@
         <v>23.9382</v>
       </c>
       <c r="G15" t="n">
-        <v>10941.46583072651</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,18 +881,15 @@
         <v>1297.0465</v>
       </c>
       <c r="G16" t="n">
-        <v>9644.419330726505</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -959,18 +911,15 @@
         <v>29.9208</v>
       </c>
       <c r="G17" t="n">
-        <v>9674.340130726505</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -992,18 +941,15 @@
         <v>14659.9951</v>
       </c>
       <c r="G18" t="n">
-        <v>24334.3352307265</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1025,18 +971,15 @@
         <v>802.0275</v>
       </c>
       <c r="G19" t="n">
-        <v>25136.36273072651</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1058,18 +1001,15 @@
         <v>4168.0231</v>
       </c>
       <c r="G20" t="n">
-        <v>25136.36273072651</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1091,18 +1031,15 @@
         <v>25.7796</v>
       </c>
       <c r="G21" t="n">
-        <v>25136.36273072651</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,18 +1061,15 @@
         <v>229.9813</v>
       </c>
       <c r="G22" t="n">
-        <v>25136.36273072651</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1157,18 +1091,15 @@
         <v>840.728</v>
       </c>
       <c r="G23" t="n">
-        <v>25136.36273072651</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1190,18 +1121,15 @@
         <v>2083.1012</v>
       </c>
       <c r="G24" t="n">
-        <v>25136.36273072651</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1223,18 +1151,15 @@
         <v>33.6819</v>
       </c>
       <c r="G25" t="n">
-        <v>25170.0446307265</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1181,15 @@
         <v>966.7384</v>
       </c>
       <c r="G26" t="n">
-        <v>24203.30623072651</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1211,15 @@
         <v>4926.7425</v>
       </c>
       <c r="G27" t="n">
-        <v>29130.04873072651</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1241,15 @@
         <v>1121.5221</v>
       </c>
       <c r="G28" t="n">
-        <v>28008.52663072651</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,18 +1271,15 @@
         <v>4.4323</v>
       </c>
       <c r="G29" t="n">
-        <v>28008.52663072651</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1388,18 +1301,15 @@
         <v>2178.6492</v>
       </c>
       <c r="G30" t="n">
-        <v>25829.87743072651</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1421,18 +1331,15 @@
         <v>3.9246</v>
       </c>
       <c r="G31" t="n">
-        <v>25825.95283072651</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1454,18 +1361,15 @@
         <v>1069.6108</v>
       </c>
       <c r="G32" t="n">
-        <v>25825.95283072651</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1487,18 +1391,15 @@
         <v>729.277</v>
       </c>
       <c r="G33" t="n">
-        <v>25825.95283072651</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1520,18 +1421,15 @@
         <v>0.505</v>
       </c>
       <c r="G34" t="n">
-        <v>25825.95283072651</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1553,18 +1451,15 @@
         <v>3330.9697</v>
       </c>
       <c r="G35" t="n">
-        <v>25825.95283072651</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,18 +1481,15 @@
         <v>414</v>
       </c>
       <c r="G36" t="n">
-        <v>26239.95283072651</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1619,18 +1511,15 @@
         <v>1.1222</v>
       </c>
       <c r="G37" t="n">
-        <v>26239.95283072651</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1652,18 +1541,15 @@
         <v>565.437</v>
       </c>
       <c r="G38" t="n">
-        <v>26239.95283072651</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1571,15 @@
         <v>1704.5317</v>
       </c>
       <c r="G39" t="n">
-        <v>27944.48453072651</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1601,15 @@
         <v>1160.9943</v>
       </c>
       <c r="G40" t="n">
-        <v>29105.47883072651</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1631,15 @@
         <v>277.9215</v>
       </c>
       <c r="G41" t="n">
-        <v>29383.40033072651</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1661,15 @@
         <v>30.8687</v>
       </c>
       <c r="G42" t="n">
-        <v>29414.26903072651</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,18 +1691,15 @@
         <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>29364.26903072651</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1850,18 +1721,15 @@
         <v>199.7221</v>
       </c>
       <c r="G44" t="n">
-        <v>29164.54693072651</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1883,18 +1751,15 @@
         <v>231.0659979529171</v>
       </c>
       <c r="G45" t="n">
-        <v>29395.61292867942</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1916,18 +1781,15 @@
         <v>2755.9284</v>
       </c>
       <c r="G46" t="n">
-        <v>32151.54132867942</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1949,18 +1811,15 @@
         <v>300</v>
       </c>
       <c r="G47" t="n">
-        <v>31851.54132867942</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,18 +1841,15 @@
         <v>93.0753</v>
       </c>
       <c r="G48" t="n">
-        <v>31758.46602867942</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2015,18 +1871,15 @@
         <v>15.7187</v>
       </c>
       <c r="G49" t="n">
-        <v>31774.18472867943</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,18 +1901,15 @@
         <v>1529.744</v>
       </c>
       <c r="G50" t="n">
-        <v>30244.44072867943</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,18 +1931,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>30245.44072867943</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2114,18 +1961,15 @@
         <v>57.6729</v>
       </c>
       <c r="G52" t="n">
-        <v>30187.76782867943</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,18 +1991,15 @@
         <v>2764.8738</v>
       </c>
       <c r="G53" t="n">
-        <v>30187.76782867943</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,18 +2021,15 @@
         <v>36.9369</v>
       </c>
       <c r="G54" t="n">
-        <v>30187.76782867943</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2213,18 +2051,15 @@
         <v>18.3556</v>
       </c>
       <c r="G55" t="n">
-        <v>30187.76782867943</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2246,18 +2081,15 @@
         <v>1.6305</v>
       </c>
       <c r="G56" t="n">
-        <v>30189.39832867942</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2279,18 +2111,15 @@
         <v>124.0911</v>
       </c>
       <c r="G57" t="n">
-        <v>30313.48942867943</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2312,18 +2141,15 @@
         <v>119.8173</v>
       </c>
       <c r="G58" t="n">
-        <v>30313.48942867943</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,18 +2171,15 @@
         <v>321.96</v>
       </c>
       <c r="G59" t="n">
-        <v>30313.48942867943</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2378,18 +2201,15 @@
         <v>32.3571</v>
       </c>
       <c r="G60" t="n">
-        <v>30281.13232867942</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,18 +2231,15 @@
         <v>46.3999</v>
       </c>
       <c r="G61" t="n">
-        <v>30234.73242867942</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2261,15 @@
         <v>166.4948</v>
       </c>
       <c r="G62" t="n">
-        <v>30234.73242867942</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2291,15 @@
         <v>5.4968</v>
       </c>
       <c r="G63" t="n">
-        <v>30229.23562867942</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2321,15 @@
         <v>3.2252</v>
       </c>
       <c r="G64" t="n">
-        <v>30232.46082867942</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2351,15 @@
         <v>2.0513</v>
       </c>
       <c r="G65" t="n">
-        <v>30234.51212867942</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2381,15 @@
         <v>66.04049999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>30168.47162867942</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2411,15 @@
         <v>1.1796</v>
       </c>
       <c r="G67" t="n">
-        <v>30168.47162867942</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,18 +2441,15 @@
         <v>171.6203</v>
       </c>
       <c r="G68" t="n">
-        <v>30168.47162867942</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2675,18 +2471,15 @@
         <v>48.1576</v>
       </c>
       <c r="G69" t="n">
-        <v>30120.31402867943</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2708,18 +2501,15 @@
         <v>62.6</v>
       </c>
       <c r="G70" t="n">
-        <v>30057.71402867943</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2741,18 +2531,15 @@
         <v>4.452</v>
       </c>
       <c r="G71" t="n">
-        <v>30053.26202867943</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2774,18 +2561,15 @@
         <v>248.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>30053.26202867943</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2807,18 +2591,15 @@
         <v>46.0319</v>
       </c>
       <c r="G73" t="n">
-        <v>30099.29392867943</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2840,18 +2621,15 @@
         <v>75.3878</v>
       </c>
       <c r="G74" t="n">
-        <v>30099.29392867943</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2873,18 +2651,15 @@
         <v>331.9151</v>
       </c>
       <c r="G75" t="n">
-        <v>29767.37882867943</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2906,18 +2681,15 @@
         <v>182.5151</v>
       </c>
       <c r="G76" t="n">
-        <v>29949.89392867943</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2939,18 +2711,15 @@
         <v>2283.3138</v>
       </c>
       <c r="G77" t="n">
-        <v>32233.20772867943</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2972,18 +2741,15 @@
         <v>42.8</v>
       </c>
       <c r="G78" t="n">
-        <v>32190.40772867943</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3005,18 +2771,15 @@
         <v>272.0388</v>
       </c>
       <c r="G79" t="n">
-        <v>31918.36892867943</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3038,18 +2801,15 @@
         <v>113.44</v>
       </c>
       <c r="G80" t="n">
-        <v>31918.36892867943</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3071,18 +2831,15 @@
         <v>5124.6505</v>
       </c>
       <c r="G81" t="n">
-        <v>31918.36892867943</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3104,18 +2861,15 @@
         <v>2.06</v>
       </c>
       <c r="G82" t="n">
-        <v>31916.30892867943</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3137,18 +2891,15 @@
         <v>102.8414</v>
       </c>
       <c r="G83" t="n">
-        <v>32019.15032867943</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3170,18 +2921,15 @@
         <v>142.5</v>
       </c>
       <c r="G84" t="n">
-        <v>32019.15032867943</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3203,18 +2951,15 @@
         <v>119.5177</v>
       </c>
       <c r="G85" t="n">
-        <v>31899.63262867943</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3236,18 +2981,15 @@
         <v>360.2758</v>
       </c>
       <c r="G86" t="n">
-        <v>31899.63262867943</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3269,18 +3011,15 @@
         <v>1635.6548</v>
       </c>
       <c r="G87" t="n">
-        <v>30263.97782867943</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3302,18 +3041,15 @@
         <v>385.8622</v>
       </c>
       <c r="G88" t="n">
-        <v>30263.97782867943</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3335,18 +3071,15 @@
         <v>16.2678</v>
       </c>
       <c r="G89" t="n">
-        <v>30280.24562867943</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3368,18 +3101,15 @@
         <v>38.15</v>
       </c>
       <c r="G90" t="n">
-        <v>30280.24562867943</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3401,18 +3131,15 @@
         <v>1.3032</v>
       </c>
       <c r="G91" t="n">
-        <v>30280.24562867943</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3434,18 +3161,15 @@
         <v>28.9496</v>
       </c>
       <c r="G92" t="n">
-        <v>30280.24562867943</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3467,18 +3191,15 @@
         <v>139.5</v>
       </c>
       <c r="G93" t="n">
-        <v>30419.74562867943</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3500,18 +3221,15 @@
         <v>26.5249</v>
       </c>
       <c r="G94" t="n">
-        <v>30393.22072867943</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3533,18 +3251,15 @@
         <v>11.3402</v>
       </c>
       <c r="G95" t="n">
-        <v>30381.88052867943</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3566,18 +3281,15 @@
         <v>1528.2473</v>
       </c>
       <c r="G96" t="n">
-        <v>28853.63322867943</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3599,18 +3311,15 @@
         <v>384.9122</v>
       </c>
       <c r="G97" t="n">
-        <v>29238.54542867943</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3632,18 +3341,15 @@
         <v>76.2025</v>
       </c>
       <c r="G98" t="n">
-        <v>29238.54542867943</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3665,18 +3371,15 @@
         <v>1.2999</v>
       </c>
       <c r="G99" t="n">
-        <v>29237.24552867943</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3698,18 +3401,15 @@
         <v>420.9377</v>
       </c>
       <c r="G100" t="n">
-        <v>28816.30782867943</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3731,18 +3431,15 @@
         <v>1.0772</v>
       </c>
       <c r="G101" t="n">
-        <v>28817.38502867943</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3764,18 +3461,15 @@
         <v>2733.3036</v>
       </c>
       <c r="G102" t="n">
-        <v>31550.68862867943</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,18 +3491,15 @@
         <v>1949.6668</v>
       </c>
       <c r="G103" t="n">
-        <v>33500.35542867943</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3830,18 +3521,15 @@
         <v>5.6765</v>
       </c>
       <c r="G104" t="n">
-        <v>33494.67892867943</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3863,18 +3551,15 @@
         <v>2751.129</v>
       </c>
       <c r="G105" t="n">
-        <v>30743.54992867943</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3896,18 +3581,15 @@
         <v>39.7808</v>
       </c>
       <c r="G106" t="n">
-        <v>30783.33072867943</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3929,18 +3611,15 @@
         <v>1110</v>
       </c>
       <c r="G107" t="n">
-        <v>29673.33072867943</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3962,18 +3641,15 @@
         <v>5436.4826</v>
       </c>
       <c r="G108" t="n">
-        <v>24236.84812867943</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3995,18 +3671,15 @@
         <v>1975.2209</v>
       </c>
       <c r="G109" t="n">
-        <v>24236.84812867943</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4028,18 +3701,15 @@
         <v>1.7847</v>
       </c>
       <c r="G110" t="n">
-        <v>24236.84812867943</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4061,18 +3731,15 @@
         <v>476.4497</v>
       </c>
       <c r="G111" t="n">
-        <v>24236.84812867943</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4094,18 +3761,15 @@
         <v>49.1589</v>
       </c>
       <c r="G112" t="n">
-        <v>24286.00702867943</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4127,18 +3791,15 @@
         <v>343.2705</v>
       </c>
       <c r="G113" t="n">
-        <v>24286.00702867943</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4160,18 +3821,15 @@
         <v>827.2997</v>
       </c>
       <c r="G114" t="n">
-        <v>24286.00702867943</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4193,18 +3851,15 @@
         <v>438.8095</v>
       </c>
       <c r="G115" t="n">
-        <v>24286.00702867943</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4226,18 +3881,15 @@
         <v>6459.3</v>
       </c>
       <c r="G116" t="n">
-        <v>17826.70702867943</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4259,18 +3911,15 @@
         <v>10229.2744</v>
       </c>
       <c r="G117" t="n">
-        <v>7597.432628679429</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4292,18 +3941,15 @@
         <v>4602.8805</v>
       </c>
       <c r="G118" t="n">
-        <v>12200.31312867943</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4325,18 +3971,15 @@
         <v>3401.8626</v>
       </c>
       <c r="G119" t="n">
-        <v>12200.31312867943</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4358,18 +4001,15 @@
         <v>511.1814</v>
       </c>
       <c r="G120" t="n">
-        <v>12200.31312867943</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4391,18 +4031,15 @@
         <v>258.6871</v>
       </c>
       <c r="G121" t="n">
-        <v>12200.31312867943</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4424,18 +4061,15 @@
         <v>3.1832</v>
       </c>
       <c r="G122" t="n">
-        <v>12197.12992867943</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4457,18 +4091,15 @@
         <v>160.3678</v>
       </c>
       <c r="G123" t="n">
-        <v>12357.49772867943</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4490,18 +4121,15 @@
         <v>1050.7436</v>
       </c>
       <c r="G124" t="n">
-        <v>13408.24132867943</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4523,18 +4151,15 @@
         <v>342.6865</v>
       </c>
       <c r="G125" t="n">
-        <v>13750.92782867943</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4556,18 +4181,15 @@
         <v>1691.9061</v>
       </c>
       <c r="G126" t="n">
-        <v>15442.83392867943</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4589,18 +4211,15 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>15442.83392867943</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4622,18 +4241,15 @@
         <v>910.4103</v>
       </c>
       <c r="G128" t="n">
-        <v>14532.42362867943</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4655,18 +4271,15 @@
         <v>171.806</v>
       </c>
       <c r="G129" t="n">
-        <v>14532.42362867943</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4688,18 +4301,15 @@
         <v>12.6413</v>
       </c>
       <c r="G130" t="n">
-        <v>14532.42362867943</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4721,18 +4331,15 @@
         <v>46.7896</v>
       </c>
       <c r="G131" t="n">
-        <v>14532.42362867943</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4754,18 +4361,15 @@
         <v>174.9233</v>
       </c>
       <c r="G132" t="n">
-        <v>14532.42362867943</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4787,18 +4391,15 @@
         <v>3</v>
       </c>
       <c r="G133" t="n">
-        <v>14535.42362867943</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4820,18 +4421,15 @@
         <v>181.0859</v>
       </c>
       <c r="G134" t="n">
-        <v>14535.42362867943</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4853,18 +4451,15 @@
         <v>450</v>
       </c>
       <c r="G135" t="n">
-        <v>14085.42362867943</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4886,18 +4481,15 @@
         <v>50</v>
       </c>
       <c r="G136" t="n">
-        <v>14085.42362867943</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4919,18 +4511,15 @@
         <v>500</v>
       </c>
       <c r="G137" t="n">
-        <v>14085.42362867943</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4952,18 +4541,15 @@
         <v>500</v>
       </c>
       <c r="G138" t="n">
-        <v>13585.42362867943</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4985,18 +4571,15 @@
         <v>8.305400000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>13585.42362867943</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5018,18 +4601,15 @@
         <v>64.9418</v>
       </c>
       <c r="G140" t="n">
-        <v>13585.42362867943</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5051,18 +4631,15 @@
         <v>288.9365</v>
       </c>
       <c r="G141" t="n">
-        <v>13585.42362867943</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5084,18 +4661,15 @@
         <v>224.6161</v>
       </c>
       <c r="G142" t="n">
-        <v>13810.03972867943</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5117,18 +4691,15 @@
         <v>195.9564</v>
       </c>
       <c r="G143" t="n">
-        <v>14005.99612867943</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5150,18 +4721,15 @@
         <v>1089.6797</v>
       </c>
       <c r="G144" t="n">
-        <v>14005.99612867943</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5183,18 +4751,15 @@
         <v>2.3</v>
       </c>
       <c r="G145" t="n">
-        <v>14005.99612867943</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5216,18 +4781,15 @@
         <v>500</v>
       </c>
       <c r="G146" t="n">
-        <v>14005.99612867943</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5249,18 +4811,15 @@
         <v>1.2</v>
       </c>
       <c r="G147" t="n">
-        <v>14007.19612867943</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5282,18 +4841,15 @@
         <v>40.5749</v>
       </c>
       <c r="G148" t="n">
-        <v>13966.62122867943</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5315,18 +4871,15 @@
         <v>1088.5737</v>
       </c>
       <c r="G149" t="n">
-        <v>13966.62122867943</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5348,18 +4901,15 @@
         <v>569.2968</v>
       </c>
       <c r="G150" t="n">
-        <v>13966.62122867943</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5381,18 +4931,15 @@
         <v>33.5</v>
       </c>
       <c r="G151" t="n">
-        <v>13966.62122867943</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5414,18 +4961,15 @@
         <v>23.8018</v>
       </c>
       <c r="G152" t="n">
-        <v>13966.62122867943</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5447,18 +4991,15 @@
         <v>136.8476</v>
       </c>
       <c r="G153" t="n">
-        <v>13966.62122867943</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5480,18 +5021,15 @@
         <v>1817.246</v>
       </c>
       <c r="G154" t="n">
-        <v>15783.86722867943</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5513,18 +5051,15 @@
         <v>501.3056</v>
       </c>
       <c r="G155" t="n">
-        <v>15282.56162867943</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5546,18 +5081,15 @@
         <v>99.75</v>
       </c>
       <c r="G156" t="n">
-        <v>15182.81162867943</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5579,18 +5111,15 @@
         <v>35.8442</v>
       </c>
       <c r="G157" t="n">
-        <v>15218.65582867943</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5612,18 +5141,15 @@
         <v>5.965</v>
       </c>
       <c r="G158" t="n">
-        <v>15218.65582867943</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5645,18 +5171,15 @@
         <v>44.3</v>
       </c>
       <c r="G159" t="n">
-        <v>15218.65582867943</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5678,18 +5201,15 @@
         <v>20</v>
       </c>
       <c r="G160" t="n">
-        <v>15198.65582867943</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5711,18 +5231,15 @@
         <v>459.5688</v>
       </c>
       <c r="G161" t="n">
-        <v>15658.22462867943</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5744,18 +5261,15 @@
         <v>710.4184</v>
       </c>
       <c r="G162" t="n">
-        <v>16368.64302867943</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5777,18 +5291,15 @@
         <v>916.3987</v>
       </c>
       <c r="G163" t="n">
-        <v>16368.64302867943</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5810,18 +5321,15 @@
         <v>30</v>
       </c>
       <c r="G164" t="n">
-        <v>16338.64302867943</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5843,18 +5351,15 @@
         <v>573.5309</v>
       </c>
       <c r="G165" t="n">
-        <v>15765.11212867943</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5876,18 +5381,15 @@
         <v>30</v>
       </c>
       <c r="G166" t="n">
-        <v>15795.11212867943</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5909,18 +5411,15 @@
         <v>817.1108</v>
       </c>
       <c r="G167" t="n">
-        <v>16612.22292867943</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5942,18 +5441,15 @@
         <v>134.2638</v>
       </c>
       <c r="G168" t="n">
-        <v>16612.22292867943</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5975,18 +5471,15 @@
         <v>114.743</v>
       </c>
       <c r="G169" t="n">
-        <v>16612.22292867943</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6008,18 +5501,15 @@
         <v>34.7394</v>
       </c>
       <c r="G170" t="n">
-        <v>16577.48352867943</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6041,18 +5531,15 @@
         <v>29.925</v>
       </c>
       <c r="G171" t="n">
-        <v>16547.55852867943</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6074,18 +5561,15 @@
         <v>102.7337</v>
       </c>
       <c r="G172" t="n">
-        <v>16547.55852867943</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6107,18 +5591,15 @@
         <v>50.2305</v>
       </c>
       <c r="G173" t="n">
-        <v>16597.78902867944</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6140,18 +5621,15 @@
         <v>20</v>
       </c>
       <c r="G174" t="n">
-        <v>16577.78902867944</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6173,18 +5651,15 @@
         <v>2257.4666</v>
       </c>
       <c r="G175" t="n">
-        <v>14320.32242867944</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6206,18 +5681,15 @@
         <v>866</v>
       </c>
       <c r="G176" t="n">
-        <v>14320.32242867944</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6239,18 +5711,15 @@
         <v>4415</v>
       </c>
       <c r="G177" t="n">
-        <v>9905.322428679436</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6272,18 +5741,15 @@
         <v>1910.5423</v>
       </c>
       <c r="G178" t="n">
-        <v>9905.322428679436</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6305,18 +5771,15 @@
         <v>2515.8369</v>
       </c>
       <c r="G179" t="n">
-        <v>12421.15932867944</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6338,18 +5801,15 @@
         <v>4070.038</v>
       </c>
       <c r="G180" t="n">
-        <v>16491.19732867943</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6371,18 +5831,15 @@
         <v>9.5448</v>
       </c>
       <c r="G181" t="n">
-        <v>16491.19732867943</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6404,18 +5861,15 @@
         <v>74.3319</v>
       </c>
       <c r="G182" t="n">
-        <v>16416.86542867943</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6437,18 +5891,15 @@
         <v>366.7701</v>
       </c>
       <c r="G183" t="n">
-        <v>16783.63552867944</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6470,18 +5921,15 @@
         <v>400.0618</v>
       </c>
       <c r="G184" t="n">
-        <v>16383.57372867944</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6503,18 +5951,15 @@
         <v>803.8224</v>
       </c>
       <c r="G185" t="n">
-        <v>17187.39612867944</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6536,18 +5981,15 @@
         <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>17187.39612867944</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6569,18 +6011,15 @@
         <v>1.8296</v>
       </c>
       <c r="G187" t="n">
-        <v>17185.56652867944</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6602,18 +6041,15 @@
         <v>4407.7383</v>
       </c>
       <c r="G188" t="n">
-        <v>17185.56652867944</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6635,18 +6071,15 @@
         <v>125.0985</v>
       </c>
       <c r="G189" t="n">
-        <v>17310.66502867944</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6668,18 +6101,15 @@
         <v>436.6337</v>
       </c>
       <c r="G190" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6701,18 +6131,15 @@
         <v>130.8192</v>
       </c>
       <c r="G191" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6734,18 +6161,15 @@
         <v>2046.8227</v>
       </c>
       <c r="G192" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6767,18 +6191,15 @@
         <v>236.4</v>
       </c>
       <c r="G193" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6800,18 +6221,15 @@
         <v>95.5247</v>
       </c>
       <c r="G194" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6833,18 +6251,15 @@
         <v>24.9976</v>
       </c>
       <c r="G195" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6866,18 +6281,15 @@
         <v>8.4659</v>
       </c>
       <c r="G196" t="n">
-        <v>16874.03132867944</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6899,18 +6311,15 @@
         <v>1224.0701</v>
       </c>
       <c r="G197" t="n">
-        <v>18098.10142867944</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6932,18 +6341,15 @@
         <v>43.3463</v>
       </c>
       <c r="G198" t="n">
-        <v>18098.10142867944</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6965,18 +6371,15 @@
         <v>23.3905</v>
       </c>
       <c r="G199" t="n">
-        <v>18098.10142867944</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6998,18 +6401,15 @@
         <v>153.8247</v>
       </c>
       <c r="G200" t="n">
-        <v>17944.27672867944</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7031,18 +6431,15 @@
         <v>27.1748</v>
       </c>
       <c r="G201" t="n">
-        <v>17917.10192867944</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7064,18 +6461,15 @@
         <v>59.9973</v>
       </c>
       <c r="G202" t="n">
-        <v>17977.09922867944</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7097,18 +6491,15 @@
         <v>10.3732</v>
       </c>
       <c r="G203" t="n">
-        <v>17966.72602867943</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7130,18 +6521,15 @@
         <v>1140.1455</v>
       </c>
       <c r="G204" t="n">
-        <v>16826.58052867943</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7163,18 +6551,15 @@
         <v>57.0609</v>
       </c>
       <c r="G205" t="n">
-        <v>16769.51962867943</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7196,18 +6581,15 @@
         <v>58.1922</v>
       </c>
       <c r="G206" t="n">
-        <v>16711.32742867943</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7229,18 +6611,15 @@
         <v>918.9503</v>
       </c>
       <c r="G207" t="n">
-        <v>15792.37712867943</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7262,18 +6641,15 @@
         <v>2703.8289</v>
       </c>
       <c r="G208" t="n">
-        <v>18496.20602867943</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7295,18 +6671,15 @@
         <v>76.4623</v>
       </c>
       <c r="G209" t="n">
-        <v>18419.74372867943</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7328,18 +6701,15 @@
         <v>58.9835</v>
       </c>
       <c r="G210" t="n">
-        <v>18478.72722867943</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7361,18 +6731,15 @@
         <v>99.226</v>
       </c>
       <c r="G211" t="n">
-        <v>18379.50122867943</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7394,18 +6761,15 @@
         <v>151.2417461699895</v>
       </c>
       <c r="G212" t="n">
-        <v>18530.74297484942</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7427,18 +6791,15 @@
         <v>39.6032</v>
       </c>
       <c r="G213" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7460,18 +6821,15 @@
         <v>579.8353</v>
       </c>
       <c r="G214" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7493,18 +6851,15 @@
         <v>596.5214999999999</v>
       </c>
       <c r="G215" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7526,18 +6881,15 @@
         <v>167.3635</v>
       </c>
       <c r="G216" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7559,18 +6911,15 @@
         <v>2</v>
       </c>
       <c r="G217" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7592,18 +6941,15 @@
         <v>351.4814</v>
       </c>
       <c r="G218" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7625,18 +6971,15 @@
         <v>1078.6336</v>
       </c>
       <c r="G219" t="n">
-        <v>18491.13977484942</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7658,18 +7001,15 @@
         <v>106.9957</v>
       </c>
       <c r="G220" t="n">
-        <v>18384.14407484942</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7691,18 +7031,15 @@
         <v>160.2662</v>
       </c>
       <c r="G221" t="n">
-        <v>18384.14407484942</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7724,18 +7061,15 @@
         <v>82.1401</v>
       </c>
       <c r="G222" t="n">
-        <v>18466.28417484942</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7757,18 +7091,15 @@
         <v>14.0042</v>
       </c>
       <c r="G223" t="n">
-        <v>18452.27997484942</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7790,18 +7121,15 @@
         <v>1052</v>
       </c>
       <c r="G224" t="n">
-        <v>19504.27997484942</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7823,18 +7151,15 @@
         <v>1000</v>
       </c>
       <c r="G225" t="n">
-        <v>18504.27997484942</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7856,18 +7181,15 @@
         <v>51.5247</v>
       </c>
       <c r="G226" t="n">
-        <v>18504.27997484942</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7889,18 +7211,15 @@
         <v>359.3</v>
       </c>
       <c r="G227" t="n">
-        <v>18144.97997484942</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7922,18 +7241,21 @@
         <v>52.5626</v>
       </c>
       <c r="G228" t="n">
-        <v>18144.97997484942</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7955,18 +7277,19 @@
         <v>2134.3628</v>
       </c>
       <c r="G229" t="n">
-        <v>20279.34277484942</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7988,18 +7311,21 @@
         <v>92.70480000000001</v>
       </c>
       <c r="G230" t="n">
-        <v>20186.63797484942</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8021,18 +7347,19 @@
         <v>1595.653</v>
       </c>
       <c r="G231" t="n">
-        <v>21782.29097484942</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8054,18 +7381,19 @@
         <v>133.8119</v>
       </c>
       <c r="G232" t="n">
-        <v>21648.47907484942</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8087,18 +7415,19 @@
         <v>149.9</v>
       </c>
       <c r="G233" t="n">
-        <v>21798.37907484942</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8120,18 +7449,19 @@
         <v>855.778</v>
       </c>
       <c r="G234" t="n">
-        <v>21798.37907484942</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8153,18 +7483,19 @@
         <v>11.222</v>
       </c>
       <c r="G235" t="n">
-        <v>21798.37907484942</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8186,18 +7517,19 @@
         <v>51</v>
       </c>
       <c r="G236" t="n">
-        <v>21747.37907484942</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
